--- a/ProyectoPooDist/excels/CAMIONES.xlsx
+++ b/ProyectoPooDist/excels/CAMIONES.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
   <si>
     <t>Placas</t>
   </si>
   <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -32,13 +38,214 @@
     <t>Año de Fabricación</t>
   </si>
   <si>
-    <t>Modelo</t>
-  </si>
-  <si>
-    <t>Marca</t>
-  </si>
-  <si>
-    <t>Costos</t>
+    <t>Costo Reparación</t>
+  </si>
+  <si>
+    <t>Costo Galón</t>
+  </si>
+  <si>
+    <t>Galones</t>
+  </si>
+  <si>
+    <t>Costo Mantenimiento</t>
+  </si>
+  <si>
+    <t>Gasto No Especificado</t>
+  </si>
+  <si>
+    <t>Descripción del Gasto</t>
+  </si>
+  <si>
+    <t>Tiempo en Reparación</t>
+  </si>
+  <si>
+    <t>Fecha de Mantenimiento</t>
+  </si>
+  <si>
+    <t>Total Invertido</t>
+  </si>
+  <si>
+    <t>VWX234</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>Renault</t>
+  </si>
+  <si>
+    <t>En viaje</t>
+  </si>
+  <si>
+    <t>Diésel</t>
+  </si>
+  <si>
+    <t>17/10/2020</t>
+  </si>
+  <si>
+    <t>Batería</t>
+  </si>
+  <si>
+    <t>4 días</t>
+  </si>
+  <si>
+    <t>14/09/2024</t>
+  </si>
+  <si>
+    <t>Costo Total Combustible</t>
+  </si>
+  <si>
+    <t>YZA567</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>DAF</t>
+  </si>
+  <si>
+    <t>Gasolina</t>
+  </si>
+  <si>
+    <t>18/10/2020</t>
+  </si>
+  <si>
+    <t>Transmisión</t>
+  </si>
+  <si>
+    <t>3 días</t>
+  </si>
+  <si>
+    <t>18/12/2023</t>
+  </si>
+  <si>
+    <t>BCD890</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
+  <si>
+    <t>Iveco</t>
+  </si>
+  <si>
+    <t>19/10/2020</t>
+  </si>
+  <si>
+    <t>Suspensión</t>
+  </si>
+  <si>
+    <t>2 días</t>
+  </si>
+  <si>
+    <t>13/09/2024</t>
+  </si>
+  <si>
+    <t>EFG123</t>
+  </si>
+  <si>
+    <t>X11</t>
+  </si>
+  <si>
+    <t>MEME</t>
+  </si>
+  <si>
+    <t>Disel</t>
+  </si>
+  <si>
+    <t>12/07/1905</t>
+  </si>
+  <si>
+    <t>Radiador</t>
+  </si>
+  <si>
+    <t>1 días</t>
+  </si>
+  <si>
+    <t>20/12/2023</t>
+  </si>
+  <si>
+    <t>HIJ456</t>
+  </si>
+  <si>
+    <t>X12</t>
+  </si>
+  <si>
+    <t>Volvo</t>
+  </si>
+  <si>
+    <t>21/10/2020</t>
+  </si>
+  <si>
+    <t>Sistema de frenos</t>
+  </si>
+  <si>
+    <t>0 días</t>
+  </si>
+  <si>
+    <t>21/12/2023</t>
+  </si>
+  <si>
+    <t>KLM789</t>
+  </si>
+  <si>
+    <t>X13</t>
+  </si>
+  <si>
+    <t>Freightliner</t>
+  </si>
+  <si>
+    <t>Disponible</t>
+  </si>
+  <si>
+    <t>22/10/2020</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>NOP012</t>
+  </si>
+  <si>
+    <t>X14</t>
+  </si>
+  <si>
+    <t>Kenworth</t>
+  </si>
+  <si>
+    <t>23/10/2020</t>
+  </si>
+  <si>
+    <t>Marcos</t>
+  </si>
+  <si>
+    <t>10 días</t>
+  </si>
+  <si>
+    <t>En mantenimiento</t>
+  </si>
+  <si>
+    <t>24/10/2020</t>
+  </si>
+  <si>
+    <t>Revisión completa</t>
+  </si>
+  <si>
+    <t>24/12/2023</t>
+  </si>
+  <si>
+    <t>1R</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>16/07/1905</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -83,7 +290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -117,6 +324,510 @@
       <c r="I1" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="J1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>35000.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>1700.0</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>22000.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>1600.0</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>28000.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>1800.0</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="P4" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="Q4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>15000.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>1900.0</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N5" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="O5" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="P5" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="Q5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>40000.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>2100.0</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N6" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="O6" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="P6" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="Q6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>18000.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>2000.0</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N7" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="O7" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="P7" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="Q7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>32000.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>1600.0</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N8" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="O8" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="P8" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="Q8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>25000.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>1800.0</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N9" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="O9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P9" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="Q9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>1000.0</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N10" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="O10" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="P10" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="Q10" t="n" s="0">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ProyectoPooDist/excels/CAMIONES.xlsx
+++ b/ProyectoPooDist/excels/CAMIONES.xlsx
@@ -89,7 +89,7 @@
     <t>4 días</t>
   </si>
   <si>
-    <t>14/09/2024</t>
+    <t>18/09/2024</t>
   </si>
   <si>
     <t>Costo Total Combustible</t>
@@ -381,10 +381,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>0.0</v>
+        <v>27.55</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="L2" t="n" s="0">
         <v>0.0</v>
@@ -402,7 +402,7 @@
         <v>25</v>
       </c>
       <c r="Q2" t="n" s="0">
-        <v>0.0</v>
+        <v>2.842170943040401E-14</v>
       </c>
     </row>
     <row r="3">

--- a/ProyectoPooDist/excels/CAMIONES.xlsx
+++ b/ProyectoPooDist/excels/CAMIONES.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
   <si>
     <t>Placas</t>
   </si>
@@ -74,72 +74,69 @@
     <t>Renault</t>
   </si>
   <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>Disel</t>
+  </si>
+  <si>
+    <t>15/01/1900</t>
+  </si>
+  <si>
+    <t>Batería</t>
+  </si>
+  <si>
+    <t>1 semana</t>
+  </si>
+  <si>
+    <t>Ninguno</t>
+  </si>
+  <si>
+    <t>Costo Total Combustible</t>
+  </si>
+  <si>
+    <t>YZA567</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>DAF</t>
+  </si>
+  <si>
     <t>En viaje</t>
   </si>
   <si>
+    <t>Gasolina</t>
+  </si>
+  <si>
+    <t>17/01/1900</t>
+  </si>
+  <si>
+    <t>Transmisión</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>BCD890</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
+  <si>
+    <t>Iveco</t>
+  </si>
+  <si>
     <t>Diésel</t>
   </si>
   <si>
-    <t>17/10/2020</t>
-  </si>
-  <si>
-    <t>Batería</t>
-  </si>
-  <si>
-    <t>4 días</t>
-  </si>
-  <si>
-    <t>18/09/2024</t>
-  </si>
-  <si>
-    <t>Costo Total Combustible</t>
-  </si>
-  <si>
-    <t>YZA567</t>
-  </si>
-  <si>
-    <t>X9</t>
-  </si>
-  <si>
-    <t>DAF</t>
-  </si>
-  <si>
-    <t>Gasolina</t>
-  </si>
-  <si>
-    <t>18/10/2020</t>
-  </si>
-  <si>
-    <t>Transmisión</t>
-  </si>
-  <si>
-    <t>3 días</t>
-  </si>
-  <si>
-    <t>18/12/2023</t>
-  </si>
-  <si>
-    <t>BCD890</t>
-  </si>
-  <si>
-    <t>X10</t>
-  </si>
-  <si>
-    <t>Iveco</t>
-  </si>
-  <si>
     <t>19/10/2020</t>
   </si>
   <si>
     <t>Suspensión</t>
   </si>
   <si>
-    <t>2 días</t>
-  </si>
-  <si>
-    <t>13/09/2024</t>
-  </si>
-  <si>
     <t>EFG123</t>
   </si>
   <si>
@@ -149,21 +146,12 @@
     <t>MEME</t>
   </si>
   <si>
-    <t>Disel</t>
-  </si>
-  <si>
     <t>12/07/1905</t>
   </si>
   <si>
     <t>Radiador</t>
   </si>
   <si>
-    <t>1 días</t>
-  </si>
-  <si>
-    <t>20/12/2023</t>
-  </si>
-  <si>
     <t>HIJ456</t>
   </si>
   <si>
@@ -179,12 +167,6 @@
     <t>Sistema de frenos</t>
   </si>
   <si>
-    <t>0 días</t>
-  </si>
-  <si>
-    <t>21/12/2023</t>
-  </si>
-  <si>
     <t>KLM789</t>
   </si>
   <si>
@@ -203,9 +185,6 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>22/12/2023</t>
-  </si>
-  <si>
     <t>NOP012</t>
   </si>
   <si>
@@ -221,31 +200,10 @@
     <t>Marcos</t>
   </si>
   <si>
-    <t>10 días</t>
-  </si>
-  <si>
-    <t>En mantenimiento</t>
-  </si>
-  <si>
     <t>24/10/2020</t>
   </si>
   <si>
     <t>Revisión completa</t>
-  </si>
-  <si>
-    <t>24/12/2023</t>
-  </si>
-  <si>
-    <t>1R</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>16/07/1905</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -290,7 +248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -381,10 +339,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>27.55</v>
+        <v>0.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="L2" t="n" s="0">
         <v>0.0</v>
@@ -402,7 +360,7 @@
         <v>25</v>
       </c>
       <c r="Q2" t="n" s="0">
-        <v>2.842170943040401E-14</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -416,10 +374,10 @@
         <v>29</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>22000.0</v>
@@ -428,7 +386,7 @@
         <v>1600.0</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" t="n" s="0">
         <v>0.0</v>
@@ -446,13 +404,13 @@
         <v>0.0</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="n" s="0">
         <v>0.0</v>
@@ -469,10 +427,10 @@
         <v>37</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>28000.0</v>
@@ -481,7 +439,7 @@
         <v>1800.0</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" t="n" s="0">
         <v>0.0</v>
@@ -499,13 +457,13 @@
         <v>0.0</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="n" s="0">
         <v>0.0</v>
@@ -513,19 +471,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>44</v>
-      </c>
       <c r="D5" t="s" s="0">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n" s="0">
         <v>15000.0</v>
@@ -534,7 +492,7 @@
         <v>1900.0</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I5" t="n" s="0">
         <v>0.0</v>
@@ -552,13 +510,13 @@
         <v>0.0</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n" s="0">
         <v>0.0</v>
@@ -566,19 +524,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="n" s="0">
         <v>40000.0</v>
@@ -587,7 +545,7 @@
         <v>2100.0</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I6" t="n" s="0">
         <v>0.0</v>
@@ -605,13 +563,13 @@
         <v>0.0</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n" s="0">
         <v>0.0</v>
@@ -619,19 +577,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F7" t="n" s="0">
         <v>18000.0</v>
@@ -640,7 +598,7 @@
         <v>2000.0</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I7" t="n" s="0">
         <v>0.0</v>
@@ -658,13 +616,13 @@
         <v>0.0</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="Q7" t="n" s="0">
         <v>0.0</v>
@@ -672,19 +630,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n" s="0">
         <v>32000.0</v>
@@ -693,7 +651,7 @@
         <v>1600.0</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I8" t="n" s="0">
         <v>0.0</v>
@@ -711,13 +669,13 @@
         <v>0.0</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="Q8" t="n" s="0">
         <v>0.0</v>
@@ -725,19 +683,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F9" t="n" s="0">
         <v>25000.0</v>
@@ -746,7 +704,7 @@
         <v>1800.0</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I9" t="n" s="0">
         <v>0.0</v>
@@ -764,68 +722,15 @@
         <v>0.0</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="Q9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="F10" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G10" t="n" s="0">
-        <v>1000.0</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="I10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N10" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="O10" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="P10" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="Q10" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/CAMIONES.xlsx
+++ b/ProyectoPooDist/excels/CAMIONES.xlsx
@@ -119,6 +119,9 @@
     <t/>
   </si>
   <si>
+    <t>10/10/2024</t>
+  </si>
+  <si>
     <t>BCD890</t>
   </si>
   <si>
@@ -176,10 +179,7 @@
     <t>Freightliner</t>
   </si>
   <si>
-    <t>Disponible</t>
-  </si>
-  <si>
-    <t>22/10/2020</t>
+    <t>21/01/1900</t>
   </si>
   <si>
     <t>Dirección</t>
@@ -398,7 +398,7 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="n" s="0">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="M3" t="n" s="0">
         <v>0.0</v>
@@ -410,27 +410,27 @@
         <v>34</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="n" s="0">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>28000.0</v>
@@ -439,7 +439,7 @@
         <v>1800.0</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n" s="0">
         <v>0.0</v>
@@ -457,7 +457,7 @@
         <v>0.0</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O4" t="s" s="0">
         <v>34</v>
@@ -471,13 +471,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>30</v>
@@ -492,7 +492,7 @@
         <v>1900.0</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I5" t="n" s="0">
         <v>0.0</v>
@@ -510,7 +510,7 @@
         <v>0.0</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O5" t="s" s="0">
         <v>34</v>
@@ -524,13 +524,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>30</v>
@@ -545,7 +545,7 @@
         <v>2100.0</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I6" t="n" s="0">
         <v>0.0</v>
@@ -563,7 +563,7 @@
         <v>0.0</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s" s="0">
         <v>34</v>
@@ -577,19 +577,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F7" t="n" s="0">
         <v>18000.0</v>
@@ -683,19 +683,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>30</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" t="n" s="0">
         <v>25000.0</v>

--- a/ProyectoPooDist/excels/CAMIONES.xlsx
+++ b/ProyectoPooDist/excels/CAMIONES.xlsx
@@ -179,7 +179,7 @@
     <t>Freightliner</t>
   </si>
   <si>
-    <t>21/01/1900</t>
+    <t>0021</t>
   </si>
   <si>
     <t>Dirección</t>

--- a/ProyectoPooDist/excels/CAMIONES.xlsx
+++ b/ProyectoPooDist/excels/CAMIONES.xlsx
@@ -89,57 +89,57 @@
     <t>1 semana</t>
   </si>
   <si>
+    <t>11/10/2024</t>
+  </si>
+  <si>
+    <t>Costo Total Combustible</t>
+  </si>
+  <si>
+    <t>YZA567</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>DAF</t>
+  </si>
+  <si>
+    <t>En viaje</t>
+  </si>
+  <si>
+    <t>Gasolina</t>
+  </si>
+  <si>
+    <t>16/01/1900</t>
+  </si>
+  <si>
+    <t>Transmisión</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>BCD890</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
+  <si>
+    <t>Iveco</t>
+  </si>
+  <si>
+    <t>Diésel</t>
+  </si>
+  <si>
+    <t>19/10/2020</t>
+  </si>
+  <si>
+    <t>Suspensión</t>
+  </si>
+  <si>
     <t>Ninguno</t>
   </si>
   <si>
-    <t>Costo Total Combustible</t>
-  </si>
-  <si>
-    <t>YZA567</t>
-  </si>
-  <si>
-    <t>X9</t>
-  </si>
-  <si>
-    <t>DAF</t>
-  </si>
-  <si>
-    <t>En viaje</t>
-  </si>
-  <si>
-    <t>Gasolina</t>
-  </si>
-  <si>
-    <t>17/01/1900</t>
-  </si>
-  <si>
-    <t>Transmisión</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>10/10/2024</t>
-  </si>
-  <si>
-    <t>BCD890</t>
-  </si>
-  <si>
-    <t>X10</t>
-  </si>
-  <si>
-    <t>Iveco</t>
-  </si>
-  <si>
-    <t>Diésel</t>
-  </si>
-  <si>
-    <t>19/10/2020</t>
-  </si>
-  <si>
-    <t>Suspensión</t>
-  </si>
-  <si>
     <t>EFG123</t>
   </si>
   <si>
@@ -179,7 +179,7 @@
     <t>Freightliner</t>
   </si>
   <si>
-    <t>0021</t>
+    <t>20/01/1900</t>
   </si>
   <si>
     <t>Dirección</t>
@@ -345,7 +345,7 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n" s="0">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="M2" t="n" s="0">
         <v>0.0</v>
@@ -360,7 +360,7 @@
         <v>25</v>
       </c>
       <c r="Q2" t="n" s="0">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="3">
@@ -398,7 +398,7 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="n" s="0">
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
       <c r="M3" t="n" s="0">
         <v>0.0</v>
@@ -410,27 +410,27 @@
         <v>34</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="n" s="0">
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="C4" t="s" s="0">
         <v>37</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>38</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>28000.0</v>
@@ -439,31 +439,31 @@
         <v>1800.0</v>
       </c>
       <c r="H4" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="s" s="0">
         <v>40</v>
-      </c>
-      <c r="I4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N4" t="s" s="0">
-        <v>41</v>
       </c>
       <c r="O4" t="s" s="0">
         <v>34</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="Q4" t="n" s="0">
         <v>0.0</v>
@@ -516,7 +516,7 @@
         <v>34</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="Q5" t="n" s="0">
         <v>0.0</v>
@@ -569,7 +569,7 @@
         <v>34</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="Q6" t="n" s="0">
         <v>0.0</v>
@@ -622,7 +622,7 @@
         <v>34</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="Q7" t="n" s="0">
         <v>0.0</v>
@@ -675,7 +675,7 @@
         <v>34</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="Q8" t="n" s="0">
         <v>0.0</v>
@@ -695,7 +695,7 @@
         <v>30</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" t="n" s="0">
         <v>25000.0</v>
@@ -728,7 +728,7 @@
         <v>34</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="Q9" t="n" s="0">
         <v>0.0</v>

--- a/ProyectoPooDist/excels/CAMIONES.xlsx
+++ b/ProyectoPooDist/excels/CAMIONES.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>Placas</t>
   </si>
@@ -71,7 +71,7 @@
     <t>X8</t>
   </si>
   <si>
-    <t>Renault</t>
+    <t>Mynor</t>
   </si>
   <si>
     <t>Funcional</t>
@@ -80,7 +80,7 @@
     <t>Disel</t>
   </si>
   <si>
-    <t>15/01/1900</t>
+    <t>13/01/1900</t>
   </si>
   <si>
     <t>Batería</t>
@@ -89,36 +89,39 @@
     <t>1 semana</t>
   </si>
   <si>
+    <t>12/10/2024</t>
+  </si>
+  <si>
+    <t>Costo Total Combustible</t>
+  </si>
+  <si>
+    <t>YZA567</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>DAF</t>
+  </si>
+  <si>
+    <t>En viaje</t>
+  </si>
+  <si>
+    <t>Gasolina</t>
+  </si>
+  <si>
+    <t>16/01/1900</t>
+  </si>
+  <si>
+    <t>Transmisión</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>11/10/2024</t>
   </si>
   <si>
-    <t>Costo Total Combustible</t>
-  </si>
-  <si>
-    <t>YZA567</t>
-  </si>
-  <si>
-    <t>X9</t>
-  </si>
-  <si>
-    <t>DAF</t>
-  </si>
-  <si>
-    <t>En viaje</t>
-  </si>
-  <si>
-    <t>Gasolina</t>
-  </si>
-  <si>
-    <t>16/01/1900</t>
-  </si>
-  <si>
-    <t>Transmisión</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>BCD890</t>
   </si>
   <si>
@@ -161,10 +164,10 @@
     <t>X12</t>
   </si>
   <si>
-    <t>Volvo</t>
-  </si>
-  <si>
-    <t>21/10/2020</t>
+    <t>VolvoE</t>
+  </si>
+  <si>
+    <t>0021</t>
   </si>
   <si>
     <t>Sistema de frenos</t>
@@ -198,12 +201,6 @@
   </si>
   <si>
     <t>Marcos</t>
-  </si>
-  <si>
-    <t>24/10/2020</t>
-  </si>
-  <si>
-    <t>Revisión completa</t>
   </si>
 </sst>
 </file>
@@ -248,7 +245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -339,13 +336,13 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="L2" t="n" s="0">
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
       <c r="M2" t="n" s="0">
         <v>0.0</v>
@@ -360,7 +357,7 @@
         <v>25</v>
       </c>
       <c r="Q2" t="n" s="0">
-        <v>12.0</v>
+        <v>168.0</v>
       </c>
     </row>
     <row r="3">
@@ -410,7 +407,7 @@
         <v>34</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="n" s="0">
         <v>24.0</v>
@@ -418,19 +415,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>28000.0</v>
@@ -439,7 +436,7 @@
         <v>1800.0</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n" s="0">
         <v>0.0</v>
@@ -457,13 +454,13 @@
         <v>0.0</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O4" t="s" s="0">
         <v>34</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q4" t="n" s="0">
         <v>0.0</v>
@@ -471,13 +468,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>30</v>
@@ -492,7 +489,7 @@
         <v>1900.0</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" t="n" s="0">
         <v>0.0</v>
@@ -510,13 +507,13 @@
         <v>0.0</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O5" t="s" s="0">
         <v>34</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q5" t="n" s="0">
         <v>0.0</v>
@@ -524,13 +521,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>30</v>
@@ -545,7 +542,7 @@
         <v>2100.0</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I6" t="n" s="0">
         <v>0.0</v>
@@ -563,13 +560,13 @@
         <v>0.0</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s" s="0">
         <v>34</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q6" t="n" s="0">
         <v>0.0</v>
@@ -577,13 +574,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>30</v>
@@ -598,7 +595,7 @@
         <v>2000.0</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I7" t="n" s="0">
         <v>0.0</v>
@@ -616,13 +613,13 @@
         <v>0.0</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O7" t="s" s="0">
         <v>34</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q7" t="n" s="0">
         <v>0.0</v>
@@ -630,13 +627,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>30</v>
@@ -651,7 +648,7 @@
         <v>1600.0</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I8" t="n" s="0">
         <v>0.0</v>
@@ -669,68 +666,15 @@
         <v>0.0</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O8" t="s" s="0">
         <v>34</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="F9" t="n" s="0">
-        <v>25000.0</v>
-      </c>
-      <c r="G9" t="n" s="0">
-        <v>1800.0</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="I9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N9" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="O9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="P9" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="Q9" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/CAMIONES.xlsx
+++ b/ProyectoPooDist/excels/CAMIONES.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>Placas</t>
   </si>
@@ -62,7 +62,10 @@
     <t>Fecha de Mantenimiento</t>
   </si>
   <si>
-    <t>Total Invertido</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Costo Total Combustible</t>
   </si>
   <si>
     <t>VWX234</t>
@@ -92,9 +95,6 @@
     <t>12/10/2024</t>
   </si>
   <si>
-    <t>Costo Total Combustible</t>
-  </si>
-  <si>
     <t>YZA567</t>
   </si>
   <si>
@@ -110,7 +110,7 @@
     <t>Gasolina</t>
   </si>
   <si>
-    <t>16/01/1900</t>
+    <t>2005</t>
   </si>
   <si>
     <t>Transmisión</t>
@@ -131,10 +131,7 @@
     <t>Iveco</t>
   </si>
   <si>
-    <t>Diésel</t>
-  </si>
-  <si>
-    <t>19/10/2020</t>
+    <t>27/06/1905</t>
   </si>
   <si>
     <t>Suspensión</t>
@@ -167,7 +164,7 @@
     <t>VolvoE</t>
   </si>
   <si>
-    <t>0021</t>
+    <t>20/01/1900</t>
   </si>
   <si>
     <t>Sistema de frenos</t>
@@ -180,9 +177,6 @@
   </si>
   <si>
     <t>Freightliner</t>
-  </si>
-  <si>
-    <t>20/01/1900</t>
   </si>
   <si>
     <t>Dirección</t>
@@ -304,24 +298,24 @@
         <v>16</v>
       </c>
       <c r="R1" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>35000.0</v>
@@ -330,7 +324,7 @@
         <v>1700.0</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="n" s="0">
         <v>0.0</v>
@@ -348,16 +342,19 @@
         <v>0.0</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="n" s="0">
         <v>168.0</v>
+      </c>
+      <c r="R2" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -412,6 +409,9 @@
       <c r="Q3" t="n" s="0">
         <v>24.0</v>
       </c>
+      <c r="R3" t="n" s="0">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
@@ -427,7 +427,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>28000.0</v>
@@ -436,51 +436,54 @@
         <v>1800.0</v>
       </c>
       <c r="H4" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="s" s="0">
         <v>40</v>
-      </c>
-      <c r="I4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N4" t="s" s="0">
-        <v>41</v>
       </c>
       <c r="O4" t="s" s="0">
         <v>34</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R4" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>44</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>45</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>30</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n" s="0">
         <v>15000.0</v>
@@ -489,45 +492,48 @@
         <v>1900.0</v>
       </c>
       <c r="H5" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N5" t="s" s="0">
         <v>46</v>
-      </c>
-      <c r="I5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N5" t="s" s="0">
-        <v>47</v>
       </c>
       <c r="O5" t="s" s="0">
         <v>34</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R5" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="C6" t="s" s="0">
         <v>49</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>50</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>30</v>
@@ -542,51 +548,54 @@
         <v>2100.0</v>
       </c>
       <c r="H6" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N6" t="s" s="0">
         <v>51</v>
-      </c>
-      <c r="I6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N6" t="s" s="0">
-        <v>52</v>
       </c>
       <c r="O6" t="s" s="0">
         <v>34</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R6" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="C7" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>55</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n" s="0">
         <v>18000.0</v>
@@ -595,7 +604,7 @@
         <v>2000.0</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I7" t="n" s="0">
         <v>0.0</v>
@@ -613,27 +622,30 @@
         <v>0.0</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O7" t="s" s="0">
         <v>34</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R7" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>58</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>60</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>30</v>
@@ -648,7 +660,7 @@
         <v>1600.0</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I8" t="n" s="0">
         <v>0.0</v>
@@ -666,15 +678,18 @@
         <v>0.0</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O8" t="s" s="0">
         <v>34</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R8" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/CAMIONES.xlsx
+++ b/ProyectoPooDist/excels/CAMIONES.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>Placas</t>
   </si>
@@ -68,6 +68,9 @@
     <t>Costo Total Combustible</t>
   </si>
   <si>
+    <t>Activo</t>
+  </si>
+  <si>
     <t>VWX234</t>
   </si>
   <si>
@@ -83,7 +86,7 @@
     <t>Disel</t>
   </si>
   <si>
-    <t>13/01/1900</t>
+    <t>23/10/2014</t>
   </si>
   <si>
     <t>Batería</t>
@@ -95,6 +98,48 @@
     <t>12/10/2024</t>
   </si>
   <si>
+    <t>HIJ456</t>
+  </si>
+  <si>
+    <t>X12</t>
+  </si>
+  <si>
+    <t>VolvoE</t>
+  </si>
+  <si>
+    <t>En viaje</t>
+  </si>
+  <si>
+    <t>Gasolina</t>
+  </si>
+  <si>
+    <t>27/10/2018</t>
+  </si>
+  <si>
+    <t>Sistema de frenos</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Ninguno</t>
+  </si>
+  <si>
+    <t>EFG123</t>
+  </si>
+  <si>
+    <t>X11</t>
+  </si>
+  <si>
+    <t>MEME</t>
+  </si>
+  <si>
+    <t>26/10/2017</t>
+  </si>
+  <si>
+    <t>Radiador</t>
+  </si>
+  <si>
     <t>YZA567</t>
   </si>
   <si>
@@ -104,21 +149,12 @@
     <t>DAF</t>
   </si>
   <si>
-    <t>En viaje</t>
-  </si>
-  <si>
-    <t>Gasolina</t>
-  </si>
-  <si>
-    <t>2005</t>
+    <t>24/10/2015</t>
   </si>
   <si>
     <t>Transmisión</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>11/10/2024</t>
   </si>
   <si>
@@ -128,73 +164,10 @@
     <t>X10</t>
   </si>
   <si>
-    <t>Iveco</t>
-  </si>
-  <si>
-    <t>27/06/1905</t>
+    <t>25/10/2016</t>
   </si>
   <si>
     <t>Suspensión</t>
-  </si>
-  <si>
-    <t>Ninguno</t>
-  </si>
-  <si>
-    <t>EFG123</t>
-  </si>
-  <si>
-    <t>X11</t>
-  </si>
-  <si>
-    <t>MEME</t>
-  </si>
-  <si>
-    <t>12/07/1905</t>
-  </si>
-  <si>
-    <t>Radiador</t>
-  </si>
-  <si>
-    <t>HIJ456</t>
-  </si>
-  <si>
-    <t>X12</t>
-  </si>
-  <si>
-    <t>VolvoE</t>
-  </si>
-  <si>
-    <t>20/01/1900</t>
-  </si>
-  <si>
-    <t>Sistema de frenos</t>
-  </si>
-  <si>
-    <t>KLM789</t>
-  </si>
-  <si>
-    <t>X13</t>
-  </si>
-  <si>
-    <t>Freightliner</t>
-  </si>
-  <si>
-    <t>Dirección</t>
-  </si>
-  <si>
-    <t>NOP012</t>
-  </si>
-  <si>
-    <t>X14</t>
-  </si>
-  <si>
-    <t>Kenworth</t>
-  </si>
-  <si>
-    <t>23/10/2020</t>
-  </si>
-  <si>
-    <t>Marcos</t>
   </si>
 </sst>
 </file>
@@ -239,7 +212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -300,22 +273,25 @@
       <c r="R1" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="S1" t="s" s="0">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>35000.0</v>
@@ -324,7 +300,7 @@
         <v>1700.0</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" t="n" s="0">
         <v>0.0</v>
@@ -342,45 +318,48 @@
         <v>0.0</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="n" s="0">
         <v>168.0</v>
       </c>
       <c r="R2" t="n" s="0">
         <v>0.0</v>
+      </c>
+      <c r="S2" t="b" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>22000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>1600.0</v>
+        <v>2100.0</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" t="n" s="0">
         <v>0.0</v>
@@ -392,81 +371,87 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="n" s="0">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="M3" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q3" t="n" s="0">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="R3" t="n" s="0">
         <v>0.0</v>
+      </c>
+      <c r="S3" t="b" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>15000.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>1900.0</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>28000.0</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>1800.0</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="I4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N4" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="O4" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="P4" t="s" s="0">
-        <v>41</v>
-      </c>
       <c r="Q4" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="R4" t="n" s="0">
         <v>0.0</v>
+      </c>
+      <c r="S4" t="b" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -480,16 +465,16 @@
         <v>44</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>15000.0</v>
+        <v>22000.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>1900.0</v>
+        <v>1600.0</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>45</v>
@@ -504,7 +489,7 @@
         <v>0.0</v>
       </c>
       <c r="L5" t="n" s="0">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="M5" t="n" s="0">
         <v>0.0</v>
@@ -513,39 +498,42 @@
         <v>46</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q5" t="n" s="0">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="R5" t="n" s="0">
         <v>0.0</v>
+      </c>
+      <c r="S5" t="b" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>40000.0</v>
+        <v>28000.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>2100.0</v>
+        <v>1800.0</v>
       </c>
       <c r="H6" t="s" s="0">
         <v>50</v>
@@ -569,10 +557,10 @@
         <v>51</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q6" t="n" s="0">
         <v>0.0</v>
@@ -580,117 +568,8 @@
       <c r="R6" t="n" s="0">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="F7" t="n" s="0">
-        <v>18000.0</v>
-      </c>
-      <c r="G7" t="n" s="0">
-        <v>2000.0</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="I7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N7" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="O7" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="P7" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="Q7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="R7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F8" t="n" s="0">
-        <v>32000.0</v>
-      </c>
-      <c r="G8" t="n" s="0">
-        <v>1600.0</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="I8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N8" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="O8" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="P8" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="Q8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="R8" t="n" s="0">
-        <v>0.0</v>
+      <c r="S6" t="b" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/CAMIONES.xlsx
+++ b/ProyectoPooDist/excels/CAMIONES.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
   <si>
     <t>Placas</t>
   </si>
@@ -71,6 +71,114 @@
     <t>Activo</t>
   </si>
   <si>
+    <t>PQR345</t>
+  </si>
+  <si>
+    <t>X15</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>FUNCIONAL</t>
+  </si>
+  <si>
+    <t>Gasolina</t>
+  </si>
+  <si>
+    <t>29/10/2017</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>DEF890</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>Renault</t>
+  </si>
+  <si>
+    <t>28/10/2016</t>
+  </si>
+  <si>
+    <t>VWX567</t>
+  </si>
+  <si>
+    <t>X17</t>
+  </si>
+  <si>
+    <t>Iveco</t>
+  </si>
+  <si>
+    <t>Diésel</t>
+  </si>
+  <si>
+    <t>26/10/2018</t>
+  </si>
+  <si>
+    <t>DEF456</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>22/10/2016</t>
+  </si>
+  <si>
+    <t>XYZ678</t>
+  </si>
+  <si>
+    <t>X18</t>
+  </si>
+  <si>
+    <t>Hino</t>
+  </si>
+  <si>
+    <t>27/10/2015</t>
+  </si>
+  <si>
+    <t>GHI789</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>21/10/2015</t>
+  </si>
+  <si>
+    <t>GHI012</t>
+  </si>
+  <si>
+    <t>X21</t>
+  </si>
+  <si>
+    <t>Kenworth</t>
+  </si>
+  <si>
+    <t>30/10/2020</t>
+  </si>
+  <si>
+    <t>HIJ456</t>
+  </si>
+  <si>
+    <t>X12</t>
+  </si>
+  <si>
+    <t>VolvoE</t>
+  </si>
+  <si>
+    <t>27/10/2018</t>
+  </si>
+  <si>
     <t>VWX234</t>
   </si>
   <si>
@@ -80,7 +188,7 @@
     <t>Mynor</t>
   </si>
   <si>
-    <t>Funcional</t>
+    <t>DESCOMPUESTO</t>
   </si>
   <si>
     <t>Disel</t>
@@ -89,40 +197,55 @@
     <t>23/10/2014</t>
   </si>
   <si>
-    <t>Batería</t>
-  </si>
-  <si>
-    <t>1 semana</t>
-  </si>
-  <si>
-    <t>12/10/2024</t>
-  </si>
-  <si>
-    <t>HIJ456</t>
-  </si>
-  <si>
-    <t>X12</t>
-  </si>
-  <si>
-    <t>VolvoE</t>
-  </si>
-  <si>
-    <t>En viaje</t>
-  </si>
-  <si>
-    <t>Gasolina</t>
-  </si>
-  <si>
-    <t>27/10/2018</t>
-  </si>
-  <si>
-    <t>Sistema de frenos</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Ninguno</t>
+    <t>ABC789</t>
+  </si>
+  <si>
+    <t>X19</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>23/10/2017</t>
+  </si>
+  <si>
+    <t>MNO234</t>
+  </si>
+  <si>
+    <t>X14</t>
+  </si>
+  <si>
+    <t>Scania</t>
+  </si>
+  <si>
+    <t>25/10/2014</t>
+  </si>
+  <si>
+    <t>JKL123</t>
+  </si>
+  <si>
+    <t>X13</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>28/10/2020</t>
+  </si>
+  <si>
+    <t>STU456</t>
+  </si>
+  <si>
+    <t>X16</t>
+  </si>
+  <si>
+    <t>Volvo</t>
+  </si>
+  <si>
+    <t>Eléctrico</t>
+  </si>
+  <si>
+    <t>24/10/2019</t>
   </si>
   <si>
     <t>EFG123</t>
@@ -135,39 +258,6 @@
   </si>
   <si>
     <t>26/10/2017</t>
-  </si>
-  <si>
-    <t>Radiador</t>
-  </si>
-  <si>
-    <t>YZA567</t>
-  </si>
-  <si>
-    <t>X9</t>
-  </si>
-  <si>
-    <t>DAF</t>
-  </si>
-  <si>
-    <t>24/10/2015</t>
-  </si>
-  <si>
-    <t>Transmisión</t>
-  </si>
-  <si>
-    <t>11/10/2024</t>
-  </si>
-  <si>
-    <t>BCD890</t>
-  </si>
-  <si>
-    <t>X10</t>
-  </si>
-  <si>
-    <t>25/10/2016</t>
-  </si>
-  <si>
-    <t>Suspensión</t>
   </si>
 </sst>
 </file>
@@ -212,7 +302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -294,10 +384,10 @@
         <v>23</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>35000.0</v>
+        <v>47000.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>1700.0</v>
+        <v>2400.0</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>24</v>
@@ -306,13 +396,13 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="L2" t="n" s="0">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="M2" t="n" s="0">
         <v>0.0</v>
@@ -321,46 +411,46 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="n" s="0">
-        <v>168.0</v>
+        <v>0.0</v>
       </c>
       <c r="R2" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="S2" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="D3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>31000.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>2000.0</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>40000.0</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>2100.0</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>33</v>
-      </c>
       <c r="I3" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -377,13 +467,13 @@
         <v>0.0</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="n" s="0">
         <v>0.0</v>
@@ -392,33 +482,33 @@
         <v>0.0</v>
       </c>
       <c r="S3" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>15000.0</v>
+        <v>38000.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>1900.0</v>
+        <v>2100.0</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I4" t="n" s="0">
         <v>0.0</v>
@@ -436,13 +526,13 @@
         <v>0.0</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="n" s="0">
         <v>0.0</v>
@@ -451,33 +541,33 @@
         <v>0.0</v>
       </c>
       <c r="S4" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>22000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>1600.0</v>
+        <v>2000.0</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I5" t="n" s="0">
         <v>0.0</v>
@@ -489,22 +579,22 @@
         <v>0.0</v>
       </c>
       <c r="L5" t="n" s="0">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="M5" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n" s="0">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="R5" t="n" s="0">
         <v>0.0</v>
@@ -515,60 +605,591 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>23</v>
       </c>
       <c r="F6" t="n" s="0">
+        <v>34000.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>2200.0</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S6" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F7" t="n" s="0">
         <v>28000.0</v>
       </c>
-      <c r="G6" t="n" s="0">
+      <c r="G7" t="n" s="0">
+        <v>1600.0</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S7" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>45000.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>2500.0</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S8" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>40000.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>2100.0</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N9" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O9" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P9" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S9" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>35000.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>1700.0</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N10" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O10" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P10" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S10" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>27000.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>2300.0</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S11" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>32000.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>1900.0</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O12" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P12" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S12" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>45000.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>2200.0</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S13" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>26000.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
         <v>1800.0</v>
       </c>
-      <c r="H6" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="I6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N6" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="O6" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="P6" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="Q6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="R6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="S6" t="b" s="0">
+      <c r="H14" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O14" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P14" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S14" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>15000.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>1900.0</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O15" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P15" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S15" t="b" s="0">
         <v>1</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/CAMIONES.xlsx
+++ b/ProyectoPooDist/excels/CAMIONES.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="173">
   <si>
     <t>Placas</t>
   </si>
@@ -71,6 +71,45 @@
     <t>Activo</t>
   </si>
   <si>
+    <t>ABC345</t>
+  </si>
+  <si>
+    <t>X24</t>
+  </si>
+  <si>
+    <t>Iveco</t>
+  </si>
+  <si>
+    <t>INACTIVO</t>
+  </si>
+  <si>
+    <t>Diésel</t>
+  </si>
+  <si>
+    <t>27/10/2015</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>DEF234</t>
+  </si>
+  <si>
+    <t>U2100</t>
+  </si>
+  <si>
+    <t>Isuzu</t>
+  </si>
+  <si>
+    <t>30/09/2017</t>
+  </si>
+  <si>
+    <t>31/12/1899</t>
+  </si>
+  <si>
     <t>PQR345</t>
   </si>
   <si>
@@ -80,37 +119,58 @@
     <t>MAN</t>
   </si>
   <si>
-    <t>INACTIVO</t>
-  </si>
-  <si>
     <t>Gasolina</t>
   </si>
   <si>
     <t>29/10/2017</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.0</t>
+    <t>JKL012</t>
+  </si>
+  <si>
+    <t>D400</t>
+  </si>
+  <si>
+    <t>Mitsubishi</t>
+  </si>
+  <si>
+    <t>30/10/2020</t>
+  </si>
+  <si>
+    <t>EFG456</t>
+  </si>
+  <si>
+    <t>X11</t>
+  </si>
+  <si>
+    <t>Kenworth</t>
+  </si>
+  <si>
+    <t>21/10/2015</t>
   </si>
   <si>
     <t>EFG123</t>
   </si>
   <si>
-    <t>X11</t>
-  </si>
-  <si>
     <t>Scania</t>
   </si>
   <si>
+    <t>26/10/2017</t>
+  </si>
+  <si>
+    <t>DEF456</t>
+  </si>
+  <si>
+    <t>B200</t>
+  </si>
+  <si>
+    <t>Hino</t>
+  </si>
+  <si>
     <t>FUNCIONAL</t>
   </si>
   <si>
-    <t>Diésel</t>
-  </si>
-  <si>
-    <t>26/10/2017</t>
+    <t>22/06/2018</t>
   </si>
   <si>
     <t>DEF890</t>
@@ -131,9 +191,6 @@
     <t>X17</t>
   </si>
   <si>
-    <t>Iveco</t>
-  </si>
-  <si>
     <t>26/10/2018</t>
   </si>
   <si>
@@ -152,379 +209,325 @@
     <t>24/10/2019</t>
   </si>
   <si>
-    <t>DEF456</t>
-  </si>
-  <si>
-    <t>X9</t>
+    <t>GHI012</t>
+  </si>
+  <si>
+    <t>MEME</t>
+  </si>
+  <si>
+    <t>Nissa</t>
+  </si>
+  <si>
+    <t>Disel</t>
+  </si>
+  <si>
+    <t>ABC789</t>
+  </si>
+  <si>
+    <t>X19</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>23/10/2017</t>
+  </si>
+  <si>
+    <t>HIJ456</t>
+  </si>
+  <si>
+    <t>X12</t>
+  </si>
+  <si>
+    <t>27/10/2018</t>
+  </si>
+  <si>
+    <t>XYZ678</t>
+  </si>
+  <si>
+    <t>X18</t>
+  </si>
+  <si>
+    <t>MNO234</t>
+  </si>
+  <si>
+    <t>X14</t>
+  </si>
+  <si>
+    <t>25/10/2014</t>
+  </si>
+  <si>
+    <t>STU789</t>
+  </si>
+  <si>
+    <t>22/10/2016</t>
+  </si>
+  <si>
+    <t>HIJ789</t>
+  </si>
+  <si>
+    <t>23/10/2014</t>
+  </si>
+  <si>
+    <t>VWX123</t>
+  </si>
+  <si>
+    <t>X21</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>DEF123</t>
+  </si>
+  <si>
+    <t>X22</t>
   </si>
   <si>
     <t>Toyota</t>
   </si>
   <si>
-    <t>22/10/2016</t>
+    <t>GHI123</t>
+  </si>
+  <si>
+    <t>X23</t>
+  </si>
+  <si>
+    <t>XYZ123</t>
+  </si>
+  <si>
+    <t>A100</t>
+  </si>
+  <si>
+    <t>12/04/2019</t>
   </si>
   <si>
     <t>GHI789</t>
   </si>
   <si>
-    <t>X10</t>
-  </si>
-  <si>
-    <t>Ford</t>
-  </si>
-  <si>
-    <t>21/10/2015</t>
-  </si>
-  <si>
-    <t>GHI012</t>
-  </si>
-  <si>
-    <t>X21</t>
-  </si>
-  <si>
-    <t>Kenworth</t>
-  </si>
-  <si>
-    <t>30/10/2020</t>
-  </si>
-  <si>
-    <t>ABC789</t>
-  </si>
-  <si>
-    <t>X19</t>
-  </si>
-  <si>
-    <t>Mercedes</t>
-  </si>
-  <si>
-    <t>23/10/2017</t>
-  </si>
-  <si>
-    <t>HIJ456</t>
-  </si>
-  <si>
-    <t>X12</t>
-  </si>
-  <si>
-    <t>27/10/2018</t>
+    <t>C300</t>
+  </si>
+  <si>
+    <t>Freightliner</t>
+  </si>
+  <si>
+    <t>14/09/2017</t>
+  </si>
+  <si>
+    <t>MNO345</t>
+  </si>
+  <si>
+    <t>E500</t>
+  </si>
+  <si>
+    <t>28/02/2016</t>
+  </si>
+  <si>
+    <t>PQR678</t>
+  </si>
+  <si>
+    <t>F600</t>
+  </si>
+  <si>
+    <t>Mack</t>
+  </si>
+  <si>
+    <t>15/11/2018</t>
+  </si>
+  <si>
+    <t>STU901</t>
+  </si>
+  <si>
+    <t>G700</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>20/03/2019</t>
+  </si>
+  <si>
+    <t>VWX234</t>
+  </si>
+  <si>
+    <t>H800</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>05/08/2016</t>
+  </si>
+  <si>
+    <t>12/10/2024</t>
+  </si>
+  <si>
+    <t>YZA567</t>
+  </si>
+  <si>
+    <t>I900</t>
+  </si>
+  <si>
+    <t>15/09/2017</t>
+  </si>
+  <si>
+    <t>11/10/2024</t>
+  </si>
+  <si>
+    <t>BCD890</t>
+  </si>
+  <si>
+    <t>J1000</t>
+  </si>
+  <si>
+    <t>22/01/2020</t>
+  </si>
+  <si>
+    <t>EFG234</t>
+  </si>
+  <si>
+    <t>K1100</t>
+  </si>
+  <si>
+    <t>12/06/2019</t>
+  </si>
+  <si>
+    <t>GHI567</t>
+  </si>
+  <si>
+    <t>L1200</t>
+  </si>
+  <si>
+    <t>30/04/2018</t>
+  </si>
+  <si>
+    <t>JKL890</t>
+  </si>
+  <si>
+    <t>M1300</t>
+  </si>
+  <si>
+    <t>10/02/2021</t>
+  </si>
+  <si>
+    <t>NOP123</t>
+  </si>
+  <si>
+    <t>N1400</t>
+  </si>
+  <si>
+    <t>01/07/2016</t>
+  </si>
+  <si>
+    <t>QRS456</t>
+  </si>
+  <si>
+    <t>O1500</t>
+  </si>
+  <si>
+    <t>15/11/2019</t>
+  </si>
+  <si>
+    <t>P1600</t>
+  </si>
+  <si>
+    <t>20/05/2017</t>
+  </si>
+  <si>
+    <t>TUV012</t>
+  </si>
+  <si>
+    <t>1700.0</t>
+  </si>
+  <si>
+    <t>10/03/2018</t>
+  </si>
+  <si>
+    <t>VWX345</t>
+  </si>
+  <si>
+    <t>R1800</t>
+  </si>
+  <si>
+    <t>01/01/2016</t>
+  </si>
+  <si>
+    <t>S1900</t>
+  </si>
+  <si>
+    <t>22/04/2020</t>
+  </si>
+  <si>
+    <t>ABC901</t>
+  </si>
+  <si>
+    <t>T2000</t>
+  </si>
+  <si>
+    <t>15/08/2019</t>
+  </si>
+  <si>
+    <t>V2200</t>
+  </si>
+  <si>
+    <t>12/02/2018</t>
+  </si>
+  <si>
+    <t>XYZ234</t>
+  </si>
+  <si>
+    <t>X250</t>
+  </si>
+  <si>
+    <t>Tata</t>
+  </si>
+  <si>
+    <t>14/03/2020</t>
+  </si>
+  <si>
+    <t>DEF567</t>
+  </si>
+  <si>
+    <t>Y260</t>
+  </si>
+  <si>
+    <t>Fuso</t>
+  </si>
+  <si>
+    <t>22/05/2019</t>
+  </si>
+  <si>
+    <t>GHI890</t>
+  </si>
+  <si>
+    <t>Z270</t>
+  </si>
+  <si>
+    <t>10/07/2018</t>
   </si>
   <si>
     <t>JKL123</t>
   </si>
   <si>
-    <t>X13</t>
-  </si>
-  <si>
-    <t>Nissan</t>
-  </si>
-  <si>
-    <t>28/10/2020</t>
-  </si>
-  <si>
-    <t>XYZ678</t>
-  </si>
-  <si>
-    <t>X18</t>
-  </si>
-  <si>
-    <t>Hino</t>
-  </si>
-  <si>
-    <t>27/10/2015</t>
-  </si>
-  <si>
-    <t>MNO234</t>
-  </si>
-  <si>
-    <t>X14</t>
-  </si>
-  <si>
-    <t>25/10/2014</t>
+    <t>A280</t>
+  </si>
+  <si>
+    <t>18/10/2021</t>
+  </si>
+  <si>
+    <t>MNO456</t>
+  </si>
+  <si>
+    <t>B290</t>
+  </si>
+  <si>
+    <t>DAF</t>
+  </si>
+  <si>
+    <t>22/08/2020</t>
   </si>
   <si>
     <t>PQR789</t>
-  </si>
-  <si>
-    <t>STU789</t>
-  </si>
-  <si>
-    <t>EFG456</t>
-  </si>
-  <si>
-    <t>HIJ789</t>
-  </si>
-  <si>
-    <t>23/10/2014</t>
-  </si>
-  <si>
-    <t>VWX123</t>
-  </si>
-  <si>
-    <t>DEF123</t>
-  </si>
-  <si>
-    <t>X22</t>
-  </si>
-  <si>
-    <t>GHI123</t>
-  </si>
-  <si>
-    <t>X23</t>
-  </si>
-  <si>
-    <t>ABC345</t>
-  </si>
-  <si>
-    <t>X24</t>
-  </si>
-  <si>
-    <t>XYZ123</t>
-  </si>
-  <si>
-    <t>A100</t>
-  </si>
-  <si>
-    <t>Isuzu</t>
-  </si>
-  <si>
-    <t>12/04/2019</t>
-  </si>
-  <si>
-    <t>31/12/1899</t>
-  </si>
-  <si>
-    <t>B200</t>
-  </si>
-  <si>
-    <t>22/06/2018</t>
-  </si>
-  <si>
-    <t>C300</t>
-  </si>
-  <si>
-    <t>Freightliner</t>
-  </si>
-  <si>
-    <t>14/09/2017</t>
-  </si>
-  <si>
-    <t>JKL012</t>
-  </si>
-  <si>
-    <t>D400</t>
-  </si>
-  <si>
-    <t>Mitsubishi</t>
-  </si>
-  <si>
-    <t>MNO345</t>
-  </si>
-  <si>
-    <t>E500</t>
-  </si>
-  <si>
-    <t>28/02/2016</t>
-  </si>
-  <si>
-    <t>PQR678</t>
-  </si>
-  <si>
-    <t>F600</t>
-  </si>
-  <si>
-    <t>Mack</t>
-  </si>
-  <si>
-    <t>15/11/2018</t>
-  </si>
-  <si>
-    <t>STU901</t>
-  </si>
-  <si>
-    <t>G700</t>
-  </si>
-  <si>
-    <t>International</t>
-  </si>
-  <si>
-    <t>20/03/2019</t>
-  </si>
-  <si>
-    <t>VWX234</t>
-  </si>
-  <si>
-    <t>H800</t>
-  </si>
-  <si>
-    <t>05/08/2016</t>
-  </si>
-  <si>
-    <t>YZA567</t>
-  </si>
-  <si>
-    <t>I900</t>
-  </si>
-  <si>
-    <t>15/09/2017</t>
-  </si>
-  <si>
-    <t>BCD890</t>
-  </si>
-  <si>
-    <t>J1000</t>
-  </si>
-  <si>
-    <t>22/01/2020</t>
-  </si>
-  <si>
-    <t>EFG234</t>
-  </si>
-  <si>
-    <t>K1100</t>
-  </si>
-  <si>
-    <t>12/06/2019</t>
-  </si>
-  <si>
-    <t>GHI567</t>
-  </si>
-  <si>
-    <t>L1200</t>
-  </si>
-  <si>
-    <t>30/04/2018</t>
-  </si>
-  <si>
-    <t>JKL890</t>
-  </si>
-  <si>
-    <t>M1300</t>
-  </si>
-  <si>
-    <t>10/02/2021</t>
-  </si>
-  <si>
-    <t>NOP123</t>
-  </si>
-  <si>
-    <t>N1400</t>
-  </si>
-  <si>
-    <t>01/07/2016</t>
-  </si>
-  <si>
-    <t>QRS456</t>
-  </si>
-  <si>
-    <t>O1500</t>
-  </si>
-  <si>
-    <t>15/11/2019</t>
-  </si>
-  <si>
-    <t>P1600</t>
-  </si>
-  <si>
-    <t>20/05/2017</t>
-  </si>
-  <si>
-    <t>TUV012</t>
-  </si>
-  <si>
-    <t>1700.0</t>
-  </si>
-  <si>
-    <t>10/03/2018</t>
-  </si>
-  <si>
-    <t>VWX345</t>
-  </si>
-  <si>
-    <t>R1800</t>
-  </si>
-  <si>
-    <t>01/01/2016</t>
-  </si>
-  <si>
-    <t>S1900</t>
-  </si>
-  <si>
-    <t>22/04/2020</t>
-  </si>
-  <si>
-    <t>ABC901</t>
-  </si>
-  <si>
-    <t>T2000</t>
-  </si>
-  <si>
-    <t>15/08/2019</t>
-  </si>
-  <si>
-    <t>DEF234</t>
-  </si>
-  <si>
-    <t>U2100</t>
-  </si>
-  <si>
-    <t>30/09/2017</t>
-  </si>
-  <si>
-    <t>V2200</t>
-  </si>
-  <si>
-    <t>12/02/2018</t>
-  </si>
-  <si>
-    <t>XYZ234</t>
-  </si>
-  <si>
-    <t>X250</t>
-  </si>
-  <si>
-    <t>Tata</t>
-  </si>
-  <si>
-    <t>14/03/2020</t>
-  </si>
-  <si>
-    <t>DEF567</t>
-  </si>
-  <si>
-    <t>Y260</t>
-  </si>
-  <si>
-    <t>Fuso</t>
-  </si>
-  <si>
-    <t>22/05/2019</t>
-  </si>
-  <si>
-    <t>GHI890</t>
-  </si>
-  <si>
-    <t>Z270</t>
-  </si>
-  <si>
-    <t>10/07/2018</t>
-  </si>
-  <si>
-    <t>A280</t>
-  </si>
-  <si>
-    <t>18/10/2021</t>
-  </si>
-  <si>
-    <t>MNO456</t>
-  </si>
-  <si>
-    <t>B290</t>
-  </si>
-  <si>
-    <t>DAF</t>
-  </si>
-  <si>
-    <t>22/08/2020</t>
   </si>
   <si>
     <t>05/02/2019</t>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -648,16 +651,16 @@
         <v>21</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>23</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>47000.0</v>
+        <v>45000.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>2400.0</v>
+        <v>2200.0</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>24</v>
@@ -707,44 +710,44 @@
         <v>29</v>
       </c>
       <c r="D3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>41000.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>2200.0</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="I3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="P3" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="F3" t="n" s="0">
-        <v>15000.0</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>1900.0</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="I3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N3" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="O3" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="P3" t="s" s="0">
-        <v>25</v>
-      </c>
       <c r="Q3" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -752,30 +755,30 @@
         <v>0.0</v>
       </c>
       <c r="S3" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="C4" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="D4" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>23</v>
-      </c>
       <c r="F4" t="n" s="0">
-        <v>31000.0</v>
+        <v>47000.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>2000.0</v>
+        <v>2400.0</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>36</v>
@@ -811,7 +814,7 @@
         <v>0.0</v>
       </c>
       <c r="S4" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -825,13 +828,13 @@
         <v>39</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>38000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="G5" t="n" s="0">
         <v>2100.0</v>
@@ -861,7 +864,7 @@
         <v>26</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="Q5" t="n" s="0">
         <v>0.0</v>
@@ -884,19 +887,19 @@
         <v>43</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>28000.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>1600.0</v>
+      </c>
+      <c r="H6" t="s" s="0">
         <v>44</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>26000.0</v>
-      </c>
-      <c r="G6" t="n" s="0">
-        <v>1800.0</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>45</v>
       </c>
       <c r="I6" t="n" s="0">
         <v>0.0</v>
@@ -934,28 +937,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>48</v>
-      </c>
       <c r="D7" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>23</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>30000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>2000.0</v>
+        <v>1900.0</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I7" t="n" s="0">
         <v>0.0</v>
@@ -993,52 +996,52 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s" s="0">
+      <c r="D8" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>31000.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>1900.0</v>
+      </c>
+      <c r="H8" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="D8" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s" s="0">
+      <c r="I8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="P8" t="s" s="0">
         <v>31</v>
-      </c>
-      <c r="F8" t="n" s="0">
-        <v>28000.0</v>
-      </c>
-      <c r="G8" t="n" s="0">
-        <v>1600.0</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="I8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N8" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="O8" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="P8" t="s" s="0">
-        <v>25</v>
       </c>
       <c r="Q8" t="n" s="0">
         <v>0.0</v>
@@ -1052,28 +1055,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="C9" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="D9" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>31000.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>2000.0</v>
+      </c>
+      <c r="H9" t="s" s="0">
         <v>56</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F9" t="n" s="0">
-        <v>45000.0</v>
-      </c>
-      <c r="G9" t="n" s="0">
-        <v>2500.0</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>57</v>
       </c>
       <c r="I9" t="n" s="0">
         <v>0.0</v>
@@ -1111,28 +1114,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="C10" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>38000.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>2100.0</v>
+      </c>
+      <c r="H10" t="s" s="0">
         <v>59</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F10" t="n" s="0">
-        <v>27000.0</v>
-      </c>
-      <c r="G10" t="n" s="0">
-        <v>2300.0</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>61</v>
       </c>
       <c r="I10" t="n" s="0">
         <v>0.0</v>
@@ -1170,25 +1173,25 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="D11" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>23</v>
-      </c>
       <c r="F11" t="n" s="0">
-        <v>40000.0</v>
+        <v>26000.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>2100.0</v>
+        <v>1800.0</v>
       </c>
       <c r="H11" t="s" s="0">
         <v>64</v>
@@ -1238,19 +1241,19 @@
         <v>67</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="F12" t="n" s="0">
         <v>45000.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>2200.0</v>
+        <v>2500.0</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="I12" t="n" s="0">
         <v>0.0</v>
@@ -1297,16 +1300,16 @@
         <v>71</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>23</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>34000.0</v>
+        <v>27000.0</v>
       </c>
       <c r="G13" t="n" s="0">
-        <v>2200.0</v>
+        <v>2300.0</v>
       </c>
       <c r="H13" t="s" s="0">
         <v>72</v>
@@ -1353,19 +1356,19 @@
         <v>74</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>32000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="G14" t="n" s="0">
-        <v>1900.0</v>
+        <v>2100.0</v>
       </c>
       <c r="H14" t="s" s="0">
         <v>75</v>
@@ -1409,22 +1412,22 @@
         <v>76</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>47000.0</v>
+        <v>34000.0</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>2400.0</v>
+        <v>2200.0</v>
       </c>
       <c r="H15" t="s" s="0">
         <v>24</v>
@@ -1465,28 +1468,28 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s" s="0">
         <v>23</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>31000.0</v>
+        <v>32000.0</v>
       </c>
       <c r="G16" t="n" s="0">
-        <v>2000.0</v>
+        <v>1900.0</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="I16" t="n" s="0">
         <v>0.0</v>
@@ -1524,28 +1527,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F17" t="n" s="0">
-        <v>28000.0</v>
+        <v>31000.0</v>
       </c>
       <c r="G17" t="n" s="0">
-        <v>1600.0</v>
+        <v>2000.0</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="I17" t="n" s="0">
         <v>0.0</v>
@@ -1583,19 +1586,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F18" t="n" s="0">
         <v>32000.0</v>
@@ -1604,7 +1607,7 @@
         <v>1700.0</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I18" t="n" s="0">
         <v>0.0</v>
@@ -1642,19 +1645,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F19" t="n" s="0">
         <v>31000.0</v>
@@ -1663,7 +1666,7 @@
         <v>2100.0</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I19" t="n" s="0">
         <v>0.0</v>
@@ -1701,19 +1704,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F20" t="n" s="0">
         <v>30000.0</v>
@@ -1722,7 +1725,7 @@
         <v>2000.0</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="I20" t="n" s="0">
         <v>0.0</v>
@@ -1760,19 +1763,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s" s="0">
         <v>35</v>
-      </c>
-      <c r="D21" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s" s="0">
-        <v>23</v>
       </c>
       <c r="F21" t="n" s="0">
         <v>47000.0</v>
@@ -1781,7 +1784,7 @@
         <v>2400.0</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I21" t="n" s="0">
         <v>0.0</v>
@@ -1819,28 +1822,28 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F22" t="n" s="0">
-        <v>45000.0</v>
+        <v>27000.0</v>
       </c>
       <c r="G22" t="n" s="0">
         <v>2200.0</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="I22" t="n" s="0">
         <v>0.0</v>
@@ -1864,7 +1867,7 @@
         <v>26</v>
       </c>
       <c r="P22" t="s" s="0">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="Q22" t="n" s="0">
         <v>0.0</v>
@@ -1878,52 +1881,52 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F23" t="n" s="0">
+        <v>32000.0</v>
+      </c>
+      <c r="G23" t="n" s="0">
+        <v>2300.0</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="I23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N23" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O23" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="P23" t="s" s="0">
         <v>31</v>
-      </c>
-      <c r="F23" t="n" s="0">
-        <v>27000.0</v>
-      </c>
-      <c r="G23" t="n" s="0">
-        <v>2200.0</v>
-      </c>
-      <c r="H23" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="I23" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J23" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K23" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L23" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M23" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N23" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="O23" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="P23" t="s" s="0">
-        <v>92</v>
       </c>
       <c r="Q23" t="n" s="0">
         <v>0.0</v>
@@ -1937,28 +1940,28 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s" s="0">
         <v>23</v>
       </c>
       <c r="F24" t="n" s="0">
-        <v>31000.0</v>
+        <v>45000.0</v>
       </c>
       <c r="G24" t="n" s="0">
-        <v>1900.0</v>
+        <v>2400.0</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I24" t="n" s="0">
         <v>0.0</v>
@@ -1982,7 +1985,7 @@
         <v>26</v>
       </c>
       <c r="P24" t="s" s="0">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="Q24" t="n" s="0">
         <v>0.0</v>
@@ -1996,52 +1999,52 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F25" t="n" s="0">
+        <v>50000.0</v>
+      </c>
+      <c r="G25" t="n" s="0">
+        <v>2500.0</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="I25" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J25" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K25" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L25" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M25" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N25" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O25" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="P25" t="s" s="0">
         <v>31</v>
-      </c>
-      <c r="F25" t="n" s="0">
-        <v>32000.0</v>
-      </c>
-      <c r="G25" t="n" s="0">
-        <v>2300.0</v>
-      </c>
-      <c r="H25" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="I25" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J25" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K25" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L25" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M25" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N25" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="O25" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="P25" t="s" s="0">
-        <v>92</v>
       </c>
       <c r="Q25" t="n" s="0">
         <v>0.0</v>
@@ -2055,28 +2058,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s" s="0">
         <v>23</v>
       </c>
       <c r="F26" t="n" s="0">
-        <v>29000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="G26" t="n" s="0">
-        <v>2100.0</v>
+        <v>2200.0</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="I26" t="n" s="0">
         <v>0.0</v>
@@ -2100,7 +2103,7 @@
         <v>26</v>
       </c>
       <c r="P26" t="s" s="0">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="Q26" t="n" s="0">
         <v>0.0</v>
@@ -2114,28 +2117,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F27" t="n" s="0">
-        <v>45000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="G27" t="n" s="0">
-        <v>2400.0</v>
+        <v>2100.0</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I27" t="n" s="0">
         <v>0.0</v>
@@ -2159,7 +2162,7 @@
         <v>26</v>
       </c>
       <c r="P27" t="s" s="0">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="Q27" t="n" s="0">
         <v>0.0</v>
@@ -2173,28 +2176,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s" s="0">
         <v>23</v>
       </c>
       <c r="F28" t="n" s="0">
-        <v>50000.0</v>
+        <v>41000.0</v>
       </c>
       <c r="G28" t="n" s="0">
-        <v>2500.0</v>
+        <v>2300.0</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="I28" t="n" s="0">
         <v>0.0</v>
@@ -2218,7 +2221,7 @@
         <v>26</v>
       </c>
       <c r="P28" t="s" s="0">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="Q28" t="n" s="0">
         <v>0.0</v>
@@ -2232,52 +2235,52 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F29" t="n" s="0">
+        <v>27000.0</v>
+      </c>
+      <c r="G29" t="n" s="0">
+        <v>1800.0</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I29" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J29" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K29" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L29" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M29" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N29" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O29" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="P29" t="s" s="0">
         <v>31</v>
-      </c>
-      <c r="F29" t="n" s="0">
-        <v>36000.0</v>
-      </c>
-      <c r="G29" t="n" s="0">
-        <v>2200.0</v>
-      </c>
-      <c r="H29" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="I29" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J29" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K29" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L29" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M29" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N29" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="O29" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="P29" t="s" s="0">
-        <v>92</v>
       </c>
       <c r="Q29" t="n" s="0">
         <v>0.0</v>
@@ -2291,28 +2294,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s" s="0">
         <v>23</v>
       </c>
       <c r="F30" t="n" s="0">
-        <v>24000.0</v>
+        <v>38000.0</v>
       </c>
       <c r="G30" t="n" s="0">
-        <v>2100.0</v>
+        <v>2400.0</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="I30" t="n" s="0">
         <v>0.0</v>
@@ -2336,7 +2339,7 @@
         <v>26</v>
       </c>
       <c r="P30" t="s" s="0">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="Q30" t="n" s="0">
         <v>0.0</v>
@@ -2350,52 +2353,52 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F31" t="n" s="0">
+        <v>45000.0</v>
+      </c>
+      <c r="G31" t="n" s="0">
+        <v>2000.0</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="I31" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J31" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K31" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L31" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M31" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N31" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O31" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="P31" t="s" s="0">
         <v>31</v>
-      </c>
-      <c r="F31" t="n" s="0">
-        <v>41000.0</v>
-      </c>
-      <c r="G31" t="n" s="0">
-        <v>2300.0</v>
-      </c>
-      <c r="H31" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="I31" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J31" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K31" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L31" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M31" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N31" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="O31" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="P31" t="s" s="0">
-        <v>92</v>
       </c>
       <c r="Q31" t="n" s="0">
         <v>0.0</v>
@@ -2409,28 +2412,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s" s="0">
         <v>23</v>
       </c>
       <c r="F32" t="n" s="0">
-        <v>27000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="G32" t="n" s="0">
-        <v>1800.0</v>
+        <v>2100.0</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="I32" t="n" s="0">
         <v>0.0</v>
@@ -2454,7 +2457,7 @@
         <v>26</v>
       </c>
       <c r="P32" t="s" s="0">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="Q32" t="n" s="0">
         <v>0.0</v>
@@ -2468,52 +2471,52 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F33" t="n" s="0">
+        <v>33000.0</v>
+      </c>
+      <c r="G33" t="n" s="0">
+        <v>2200.0</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="I33" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J33" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K33" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L33" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M33" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N33" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O33" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="P33" t="s" s="0">
         <v>31</v>
-      </c>
-      <c r="F33" t="n" s="0">
-        <v>38000.0</v>
-      </c>
-      <c r="G33" t="n" s="0">
-        <v>2400.0</v>
-      </c>
-      <c r="H33" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="I33" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J33" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K33" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L33" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M33" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N33" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="O33" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="P33" t="s" s="0">
-        <v>92</v>
       </c>
       <c r="Q33" t="n" s="0">
         <v>0.0</v>
@@ -2527,28 +2530,28 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s" s="0">
         <v>23</v>
       </c>
       <c r="F34" t="n" s="0">
-        <v>45000.0</v>
+        <v>49000.0</v>
       </c>
       <c r="G34" t="n" s="0">
-        <v>2000.0</v>
+        <v>2400.0</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="I34" t="n" s="0">
         <v>0.0</v>
@@ -2572,7 +2575,7 @@
         <v>26</v>
       </c>
       <c r="P34" t="s" s="0">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="Q34" t="n" s="0">
         <v>0.0</v>
@@ -2586,28 +2589,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F35" t="n" s="0">
-        <v>25000.0</v>
+        <v>32000.0</v>
       </c>
       <c r="G35" t="n" s="0">
         <v>2100.0</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="I35" t="n" s="0">
         <v>0.0</v>
@@ -2631,7 +2634,7 @@
         <v>26</v>
       </c>
       <c r="P35" t="s" s="0">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="Q35" t="n" s="0">
         <v>0.0</v>
@@ -2645,28 +2648,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E36" t="s" s="0">
         <v>23</v>
       </c>
       <c r="F36" t="n" s="0">
-        <v>33000.0</v>
+        <v>46000.0</v>
       </c>
       <c r="G36" t="n" s="0">
-        <v>2200.0</v>
+        <v>2300.0</v>
       </c>
       <c r="H36" t="s" s="0">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="I36" t="n" s="0">
         <v>0.0</v>
@@ -2690,7 +2693,7 @@
         <v>26</v>
       </c>
       <c r="P36" t="s" s="0">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="Q36" t="n" s="0">
         <v>0.0</v>
@@ -2704,52 +2707,52 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E37" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F37" t="n" s="0">
+        <v>29000.0</v>
+      </c>
+      <c r="G37" t="n" s="0">
+        <v>1800.0</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="I37" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J37" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K37" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L37" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M37" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N37" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O37" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="P37" t="s" s="0">
         <v>31</v>
-      </c>
-      <c r="F37" t="n" s="0">
-        <v>49000.0</v>
-      </c>
-      <c r="G37" t="n" s="0">
-        <v>2400.0</v>
-      </c>
-      <c r="H37" t="s" s="0">
-        <v>135</v>
-      </c>
-      <c r="I37" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J37" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K37" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L37" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M37" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N37" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="O37" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="P37" t="s" s="0">
-        <v>92</v>
       </c>
       <c r="Q37" t="n" s="0">
         <v>0.0</v>
@@ -2763,28 +2766,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E38" t="s" s="0">
         <v>23</v>
       </c>
       <c r="F38" t="n" s="0">
-        <v>32000.0</v>
+        <v>35000.0</v>
       </c>
       <c r="G38" t="n" s="0">
-        <v>2100.0</v>
+        <v>2400.0</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="I38" t="n" s="0">
         <v>0.0</v>
@@ -2808,7 +2811,7 @@
         <v>26</v>
       </c>
       <c r="P38" t="s" s="0">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="Q38" t="n" s="0">
         <v>0.0</v>
@@ -2822,52 +2825,52 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E39" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F39" t="n" s="0">
+        <v>37000.0</v>
+      </c>
+      <c r="G39" t="n" s="0">
+        <v>2100.0</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="I39" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J39" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K39" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L39" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M39" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N39" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O39" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="P39" t="s" s="0">
         <v>31</v>
-      </c>
-      <c r="F39" t="n" s="0">
-        <v>46000.0</v>
-      </c>
-      <c r="G39" t="n" s="0">
-        <v>2300.0</v>
-      </c>
-      <c r="H39" t="s" s="0">
-        <v>140</v>
-      </c>
-      <c r="I39" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J39" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K39" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L39" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M39" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N39" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="O39" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="P39" t="s" s="0">
-        <v>92</v>
       </c>
       <c r="Q39" t="n" s="0">
         <v>0.0</v>
@@ -2881,28 +2884,28 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F40" t="n" s="0">
-        <v>29000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="G40" t="n" s="0">
-        <v>1800.0</v>
+        <v>2400.0</v>
       </c>
       <c r="H40" t="s" s="0">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="I40" t="n" s="0">
         <v>0.0</v>
@@ -2926,7 +2929,7 @@
         <v>26</v>
       </c>
       <c r="P40" t="s" s="0">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="Q40" t="n" s="0">
         <v>0.0</v>
@@ -2940,28 +2943,28 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F41" t="n" s="0">
         <v>35000.0</v>
       </c>
       <c r="G41" t="n" s="0">
-        <v>2400.0</v>
+        <v>2300.0</v>
       </c>
       <c r="H41" t="s" s="0">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="I41" t="n" s="0">
         <v>0.0</v>
@@ -2985,7 +2988,7 @@
         <v>26</v>
       </c>
       <c r="P41" t="s" s="0">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="Q41" t="n" s="0">
         <v>0.0</v>
@@ -2999,28 +3002,28 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F42" t="n" s="0">
-        <v>37000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="G42" t="n" s="0">
-        <v>2100.0</v>
+        <v>2000.0</v>
       </c>
       <c r="H42" t="s" s="0">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="I42" t="n" s="0">
         <v>0.0</v>
@@ -3044,7 +3047,7 @@
         <v>26</v>
       </c>
       <c r="P42" t="s" s="0">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="Q42" t="n" s="0">
         <v>0.0</v>
@@ -3058,52 +3061,52 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E43" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F43" t="n" s="0">
+        <v>37000.0</v>
+      </c>
+      <c r="G43" t="n" s="0">
+        <v>2400.0</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="I43" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J43" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K43" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L43" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M43" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N43" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O43" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="P43" t="s" s="0">
         <v>31</v>
-      </c>
-      <c r="F43" t="n" s="0">
-        <v>41000.0</v>
-      </c>
-      <c r="G43" t="n" s="0">
-        <v>2200.0</v>
-      </c>
-      <c r="H43" t="s" s="0">
-        <v>151</v>
-      </c>
-      <c r="I43" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J43" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K43" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L43" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M43" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N43" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="O43" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="P43" t="s" s="0">
-        <v>92</v>
       </c>
       <c r="Q43" t="n" s="0">
         <v>0.0</v>
@@ -3117,28 +3120,28 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F44" t="n" s="0">
-        <v>48000.0</v>
+        <v>45000.0</v>
       </c>
       <c r="G44" t="n" s="0">
-        <v>2400.0</v>
+        <v>2200.0</v>
       </c>
       <c r="H44" t="s" s="0">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="I44" t="n" s="0">
         <v>0.0</v>
@@ -3162,7 +3165,7 @@
         <v>26</v>
       </c>
       <c r="P44" t="s" s="0">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="Q44" t="n" s="0">
         <v>0.0</v>
@@ -3176,52 +3179,52 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E45" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F45" t="n" s="0">
+        <v>31000.0</v>
+      </c>
+      <c r="G45" t="n" s="0">
+        <v>2100.0</v>
+      </c>
+      <c r="H45" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="I45" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J45" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K45" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L45" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M45" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N45" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O45" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="P45" t="s" s="0">
         <v>31</v>
-      </c>
-      <c r="F45" t="n" s="0">
-        <v>35000.0</v>
-      </c>
-      <c r="G45" t="n" s="0">
-        <v>2300.0</v>
-      </c>
-      <c r="H45" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="I45" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J45" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K45" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L45" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M45" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N45" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="O45" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="P45" t="s" s="0">
-        <v>92</v>
       </c>
       <c r="Q45" t="n" s="0">
         <v>0.0</v>
@@ -3235,28 +3238,28 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F46" t="n" s="0">
-        <v>30000.0</v>
+        <v>39000.0</v>
       </c>
       <c r="G46" t="n" s="0">
-        <v>2000.0</v>
+        <v>2400.0</v>
       </c>
       <c r="H46" t="s" s="0">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="I46" t="n" s="0">
         <v>0.0</v>
@@ -3280,7 +3283,7 @@
         <v>26</v>
       </c>
       <c r="P46" t="s" s="0">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="Q46" t="n" s="0">
         <v>0.0</v>
@@ -3289,242 +3292,6 @@
         <v>0.0</v>
       </c>
       <c r="S46" t="b" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="0">
-        <v>162</v>
-      </c>
-      <c r="B47" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="C47" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="D47" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E47" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F47" t="n" s="0">
-        <v>37000.0</v>
-      </c>
-      <c r="G47" t="n" s="0">
-        <v>2400.0</v>
-      </c>
-      <c r="H47" t="s" s="0">
-        <v>164</v>
-      </c>
-      <c r="I47" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J47" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K47" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L47" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M47" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N47" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="O47" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="P47" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="Q47" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="R47" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="S47" t="b" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="B48" t="s" s="0">
-        <v>165</v>
-      </c>
-      <c r="C48" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="D48" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E48" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="F48" t="n" s="0">
-        <v>45000.0</v>
-      </c>
-      <c r="G48" t="n" s="0">
-        <v>2200.0</v>
-      </c>
-      <c r="H48" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="I48" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J48" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K48" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L48" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M48" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N48" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="O48" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="P48" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="Q48" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="R48" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="S48" t="b" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="0">
-        <v>167</v>
-      </c>
-      <c r="B49" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="C49" t="s" s="0">
-        <v>169</v>
-      </c>
-      <c r="D49" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E49" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F49" t="n" s="0">
-        <v>31000.0</v>
-      </c>
-      <c r="G49" t="n" s="0">
-        <v>2100.0</v>
-      </c>
-      <c r="H49" t="s" s="0">
-        <v>170</v>
-      </c>
-      <c r="I49" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J49" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K49" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L49" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M49" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N49" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="O49" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="P49" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="Q49" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="R49" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="S49" t="b" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="B50" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="C50" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D50" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E50" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="F50" t="n" s="0">
-        <v>39000.0</v>
-      </c>
-      <c r="G50" t="n" s="0">
-        <v>2400.0</v>
-      </c>
-      <c r="H50" t="s" s="0">
-        <v>171</v>
-      </c>
-      <c r="I50" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J50" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K50" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L50" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M50" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N50" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="O50" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="P50" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="Q50" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="R50" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="S50" t="b" s="0">
         <v>1</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/CAMIONES.xlsx
+++ b/ProyectoPooDist/excels/CAMIONES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170C519F-DC34-4254-B8BC-280415DA6009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360CCDD5-0C41-4B9A-B8CB-2CAC595CDC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="168">
   <si>
     <t>Placas</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Isuzu</t>
   </si>
   <si>
-    <t>INACTIVO</t>
-  </si>
-  <si>
     <t>Diésel</t>
   </si>
   <si>
@@ -100,12 +97,6 @@
     <t/>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>31/12/1899</t>
-  </si>
-  <si>
     <t>PQR345</t>
   </si>
   <si>
@@ -367,9 +358,6 @@
     <t>05/08/2016</t>
   </si>
   <si>
-    <t>12/10/2024</t>
-  </si>
-  <si>
     <t>YZA567</t>
   </si>
   <si>
@@ -379,9 +367,6 @@
     <t>15/09/2017</t>
   </si>
   <si>
-    <t>Ninguno</t>
-  </si>
-  <si>
     <t>BCD890</t>
   </si>
   <si>
@@ -509,9 +494,6 @@
   </si>
   <si>
     <t>Z270</t>
-  </si>
-  <si>
-    <t>DESCOMPUESTO</t>
   </si>
   <si>
     <t>10/07/2018</t>
@@ -915,12 +897,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D46" sqref="D2:D46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -992,10 +973,10 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
       </c>
       <c r="F2">
         <v>41000</v>
@@ -1004,7 +985,7 @@
         <v>2200</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1022,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1037,24 +1018,24 @@
         <v>0</v>
       </c>
       <c r="S2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
       </c>
       <c r="F3">
         <v>47000</v>
@@ -1063,7 +1044,7 @@
         <v>2400</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1081,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -1096,24 +1077,24 @@
         <v>0</v>
       </c>
       <c r="S3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>45000</v>
@@ -1122,7 +1103,7 @@
         <v>2200</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1140,13 +1121,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1160,19 +1141,19 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>29000</v>
@@ -1181,7 +1162,7 @@
         <v>2100</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1199,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1219,19 +1200,19 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>28000</v>
@@ -1240,7 +1221,7 @@
         <v>1600</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1258,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1278,19 +1259,19 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>15000</v>
@@ -1299,7 +1280,7 @@
         <v>1900</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1317,13 +1298,13 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1337,19 +1318,19 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F8">
         <v>31000</v>
@@ -1358,7 +1339,7 @@
         <v>1900</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1376,13 +1357,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1396,19 +1377,19 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F9">
         <v>31000</v>
@@ -1417,7 +1398,7 @@
         <v>2000</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1435,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1455,19 +1436,19 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10">
         <v>38000</v>
@@ -1476,7 +1457,7 @@
         <v>2100</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1494,13 +1475,13 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1514,19 +1495,19 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
         <v>60</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>63</v>
       </c>
       <c r="F11">
         <v>26000</v>
@@ -1535,7 +1516,7 @@
         <v>1800</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1553,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1573,19 +1554,19 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
         <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>68</v>
       </c>
       <c r="F12">
         <v>45000</v>
@@ -1594,7 +1575,7 @@
         <v>2500</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1612,13 +1593,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1632,19 +1613,19 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13">
         <v>27000</v>
@@ -1653,7 +1634,7 @@
         <v>2300</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1671,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1691,19 +1672,19 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F14">
         <v>40000</v>
@@ -1712,7 +1693,7 @@
         <v>2100</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1730,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1750,19 +1731,19 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F15">
         <v>34000</v>
@@ -1771,7 +1752,7 @@
         <v>2200</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1789,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1809,19 +1790,19 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16">
         <v>32000</v>
@@ -1830,7 +1811,7 @@
         <v>1900</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1848,13 +1829,13 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1868,19 +1849,19 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F17">
         <v>31000</v>
@@ -1889,7 +1870,7 @@
         <v>2000</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1907,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1927,19 +1908,19 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F18">
         <v>32000</v>
@@ -1948,7 +1929,7 @@
         <v>1700</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1966,13 +1947,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1986,19 +1967,19 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19">
         <v>31000</v>
@@ -2007,7 +1988,7 @@
         <v>2100</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2025,13 +2006,13 @@
         <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -2045,19 +2026,19 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F20">
         <v>30000</v>
@@ -2066,7 +2047,7 @@
         <v>2000</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2084,13 +2065,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2104,19 +2085,19 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F21">
         <v>47000</v>
@@ -2125,7 +2106,7 @@
         <v>2400</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2143,13 +2124,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -2163,19 +2144,19 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22">
         <v>27000</v>
@@ -2184,7 +2165,7 @@
         <v>2200</v>
       </c>
       <c r="H22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2202,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -2222,19 +2203,19 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23">
         <v>32000</v>
@@ -2243,7 +2224,7 @@
         <v>2300</v>
       </c>
       <c r="H23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2261,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2281,19 +2262,19 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24">
         <v>45000</v>
@@ -2302,7 +2283,7 @@
         <v>2400</v>
       </c>
       <c r="H24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2320,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2340,19 +2321,19 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F25">
         <v>50000</v>
@@ -2361,7 +2342,7 @@
         <v>2500</v>
       </c>
       <c r="H25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2379,13 +2360,13 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -2399,19 +2380,19 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26">
         <v>36000</v>
@@ -2420,7 +2401,7 @@
         <v>2200</v>
       </c>
       <c r="H26" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2438,13 +2419,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -2458,19 +2439,19 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F27">
         <v>24000</v>
@@ -2479,7 +2460,7 @@
         <v>2100</v>
       </c>
       <c r="H27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2497,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P27" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2517,19 +2498,19 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28">
         <v>41000</v>
@@ -2538,7 +2519,7 @@
         <v>2300</v>
       </c>
       <c r="H28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2556,13 +2537,13 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P28" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2576,19 +2557,19 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F29">
         <v>27000</v>
@@ -2597,7 +2578,7 @@
         <v>1800</v>
       </c>
       <c r="H29" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2615,13 +2596,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -2635,19 +2616,19 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30">
         <v>38000</v>
@@ -2656,7 +2637,7 @@
         <v>2400</v>
       </c>
       <c r="H30" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2674,13 +2655,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -2694,19 +2675,19 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
         <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F31">
         <v>45000</v>
@@ -2715,7 +2696,7 @@
         <v>2000</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2733,13 +2714,13 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -2753,19 +2734,19 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F32">
         <v>25000</v>
@@ -2774,7 +2755,7 @@
         <v>2100</v>
       </c>
       <c r="H32" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2792,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P32" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2812,19 +2793,19 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F33">
         <v>33000</v>
@@ -2833,7 +2814,7 @@
         <v>2200</v>
       </c>
       <c r="H33" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2851,13 +2832,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2871,19 +2852,19 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F34">
         <v>49000</v>
@@ -2892,7 +2873,7 @@
         <v>2400</v>
       </c>
       <c r="H34" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2910,13 +2891,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P34" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2930,19 +2911,19 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F35">
         <v>32000</v>
@@ -2951,7 +2932,7 @@
         <v>2100</v>
       </c>
       <c r="H35" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2969,13 +2950,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P35" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -2989,19 +2970,19 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F36">
         <v>46000</v>
@@ -3010,7 +2991,7 @@
         <v>2300</v>
       </c>
       <c r="H36" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3028,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P36" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -3048,19 +3029,19 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F37">
         <v>29000</v>
@@ -3069,7 +3050,7 @@
         <v>1800</v>
       </c>
       <c r="H37" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3087,13 +3068,13 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P37" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -3107,19 +3088,19 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F38">
         <v>35000</v>
@@ -3128,7 +3109,7 @@
         <v>2400</v>
       </c>
       <c r="H38" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3146,13 +3127,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P38" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -3166,19 +3147,19 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F39">
         <v>37000</v>
@@ -3187,7 +3168,7 @@
         <v>2100</v>
       </c>
       <c r="H39" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3205,13 +3186,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P39" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -3225,19 +3206,19 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F40">
         <v>48000</v>
@@ -3246,7 +3227,7 @@
         <v>2400</v>
       </c>
       <c r="H40" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3264,13 +3245,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P40" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -3284,19 +3265,19 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B41" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C41" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F41">
         <v>35000</v>
@@ -3305,10 +3286,10 @@
         <v>2300</v>
       </c>
       <c r="H41" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I41">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -3323,16 +3304,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P41" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q41">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -3343,19 +3324,19 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F42">
         <v>30000</v>
@@ -3364,16 +3345,16 @@
         <v>2000</v>
       </c>
       <c r="H42" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -3382,19 +3363,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O42" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P42" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q42">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="S42" t="b">
         <v>1</v>
@@ -3402,19 +3383,19 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="E43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F43">
         <v>37000</v>
@@ -3423,7 +3404,7 @@
         <v>2400</v>
       </c>
       <c r="H43" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3441,13 +3422,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O43" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P43" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -3461,19 +3442,19 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F44">
         <v>45000</v>
@@ -3482,7 +3463,7 @@
         <v>2200</v>
       </c>
       <c r="H44" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3500,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P44" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -3520,19 +3501,19 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F45">
         <v>31000</v>
@@ -3541,7 +3522,7 @@
         <v>2100</v>
       </c>
       <c r="H45" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3559,13 +3540,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O45" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P45" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3579,19 +3560,19 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F46">
         <v>39000</v>
@@ -3600,7 +3581,7 @@
         <v>2400</v>
       </c>
       <c r="H46" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3618,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P46" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q46">
         <v>0</v>

--- a/ProyectoPooDist/excels/CAMIONES.xlsx
+++ b/ProyectoPooDist/excels/CAMIONES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360CCDD5-0C41-4B9A-B8CB-2CAC595CDC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FAE727-F4F5-4DBF-B281-84FA002D7767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="194">
   <si>
     <t>Placas</t>
   </si>
@@ -79,432 +79,444 @@
     <t>Activo</t>
   </si>
   <si>
+    <t>JKL012</t>
+  </si>
+  <si>
+    <t>D400</t>
+  </si>
+  <si>
+    <t>Mitsubishi</t>
+  </si>
+  <si>
+    <t>INACTIVO</t>
+  </si>
+  <si>
+    <t>Gasolina</t>
+  </si>
+  <si>
+    <t>30/10/2020</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>STU456</t>
+  </si>
+  <si>
+    <t>X16</t>
+  </si>
+  <si>
+    <t>Rex</t>
+  </si>
+  <si>
+    <t>Eléctrico</t>
+  </si>
+  <si>
+    <t>24/10/2019</t>
+  </si>
+  <si>
+    <t>EFG234</t>
+  </si>
+  <si>
+    <t>K1100</t>
+  </si>
+  <si>
+    <t>Hino</t>
+  </si>
+  <si>
+    <t>Diésel</t>
+  </si>
+  <si>
+    <t>12/06/2019</t>
+  </si>
+  <si>
     <t>DEF234</t>
   </si>
   <si>
     <t>U2100</t>
   </si>
   <si>
+    <t>Ryax</t>
+  </si>
+  <si>
+    <t>FUNCIONAL</t>
+  </si>
+  <si>
+    <t>Disel</t>
+  </si>
+  <si>
+    <t>30/09/2017</t>
+  </si>
+  <si>
+    <t>PQR345</t>
+  </si>
+  <si>
+    <t>X15</t>
+  </si>
+  <si>
+    <t>Yumeku</t>
+  </si>
+  <si>
+    <t>29/10/2017</t>
+  </si>
+  <si>
+    <t>ABC345</t>
+  </si>
+  <si>
+    <t>X24</t>
+  </si>
+  <si>
+    <t>Iveco</t>
+  </si>
+  <si>
+    <t>27/10/2015</t>
+  </si>
+  <si>
+    <t>EFG456</t>
+  </si>
+  <si>
+    <t>X11</t>
+  </si>
+  <si>
+    <t>Kenworth</t>
+  </si>
+  <si>
+    <t>21/10/2015</t>
+  </si>
+  <si>
+    <t>EFG123</t>
+  </si>
+  <si>
+    <t>Scania</t>
+  </si>
+  <si>
+    <t>26/10/2017</t>
+  </si>
+  <si>
+    <t>DEF456</t>
+  </si>
+  <si>
+    <t>B200</t>
+  </si>
+  <si>
+    <t>22/06/2018</t>
+  </si>
+  <si>
+    <t>DEF890</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>Renault</t>
+  </si>
+  <si>
+    <t>28/10/2016</t>
+  </si>
+  <si>
+    <t>VWX567</t>
+  </si>
+  <si>
+    <t>X17</t>
+  </si>
+  <si>
+    <t>26/10/2018</t>
+  </si>
+  <si>
+    <t>GHI012</t>
+  </si>
+  <si>
+    <t>MEME</t>
+  </si>
+  <si>
+    <t>Nissa</t>
+  </si>
+  <si>
+    <t>ABC789</t>
+  </si>
+  <si>
+    <t>X19</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>23/10/2017</t>
+  </si>
+  <si>
+    <t>HIJ456</t>
+  </si>
+  <si>
+    <t>X12</t>
+  </si>
+  <si>
+    <t>Volvo</t>
+  </si>
+  <si>
+    <t>27/10/2018</t>
+  </si>
+  <si>
+    <t>XYZ678</t>
+  </si>
+  <si>
+    <t>X18</t>
+  </si>
+  <si>
+    <t>MNO234</t>
+  </si>
+  <si>
+    <t>X14</t>
+  </si>
+  <si>
+    <t>25/10/2014</t>
+  </si>
+  <si>
+    <t>STU789</t>
+  </si>
+  <si>
+    <t>22/10/2016</t>
+  </si>
+  <si>
+    <t>HIJ789</t>
+  </si>
+  <si>
+    <t>23/10/2014</t>
+  </si>
+  <si>
+    <t>VWX123</t>
+  </si>
+  <si>
+    <t>X21</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>DEF123</t>
+  </si>
+  <si>
+    <t>X22</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>GHI123</t>
+  </si>
+  <si>
+    <t>X23</t>
+  </si>
+  <si>
+    <t>XYZ123</t>
+  </si>
+  <si>
+    <t>A100</t>
+  </si>
+  <si>
     <t>Isuzu</t>
   </si>
   <si>
-    <t>Diésel</t>
-  </si>
-  <si>
-    <t>30/09/2017</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>PQR345</t>
-  </si>
-  <si>
-    <t>X15</t>
+    <t>12/04/2019</t>
+  </si>
+  <si>
+    <t>GHI789</t>
+  </si>
+  <si>
+    <t>C300</t>
+  </si>
+  <si>
+    <t>Freightliner</t>
+  </si>
+  <si>
+    <t>14/09/2017</t>
+  </si>
+  <si>
+    <t>MNO345</t>
+  </si>
+  <si>
+    <t>E500</t>
+  </si>
+  <si>
+    <t>28/02/2016</t>
+  </si>
+  <si>
+    <t>PQR678</t>
+  </si>
+  <si>
+    <t>F600</t>
+  </si>
+  <si>
+    <t>Mack</t>
+  </si>
+  <si>
+    <t>15/11/2018</t>
+  </si>
+  <si>
+    <t>STU901</t>
+  </si>
+  <si>
+    <t>G700</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>20/03/2019</t>
+  </si>
+  <si>
+    <t>VWX234</t>
+  </si>
+  <si>
+    <t>H800</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>05/08/2016</t>
+  </si>
+  <si>
+    <t>YZA567</t>
+  </si>
+  <si>
+    <t>I900</t>
+  </si>
+  <si>
+    <t>15/09/2017</t>
+  </si>
+  <si>
+    <t>BCD890</t>
+  </si>
+  <si>
+    <t>J1000</t>
+  </si>
+  <si>
+    <t>22/01/2020</t>
+  </si>
+  <si>
+    <t>GHI567</t>
+  </si>
+  <si>
+    <t>L1200</t>
+  </si>
+  <si>
+    <t>30/04/2018</t>
+  </si>
+  <si>
+    <t>JKL890</t>
+  </si>
+  <si>
+    <t>M1300</t>
+  </si>
+  <si>
+    <t>10/02/2021</t>
+  </si>
+  <si>
+    <t>NOP123</t>
+  </si>
+  <si>
+    <t>N1400</t>
+  </si>
+  <si>
+    <t>01/07/2016</t>
+  </si>
+  <si>
+    <t>QRS456</t>
+  </si>
+  <si>
+    <t>O1500</t>
+  </si>
+  <si>
+    <t>15/11/2019</t>
+  </si>
+  <si>
+    <t>P1600</t>
+  </si>
+  <si>
+    <t>20/05/2017</t>
+  </si>
+  <si>
+    <t>TUV012</t>
+  </si>
+  <si>
+    <t>1700.0</t>
+  </si>
+  <si>
+    <t>10/03/2018</t>
+  </si>
+  <si>
+    <t>VWX345</t>
+  </si>
+  <si>
+    <t>R1800</t>
+  </si>
+  <si>
+    <t>01/01/2016</t>
+  </si>
+  <si>
+    <t>S1900</t>
+  </si>
+  <si>
+    <t>22/04/2020</t>
+  </si>
+  <si>
+    <t>ABC901</t>
+  </si>
+  <si>
+    <t>T2000</t>
+  </si>
+  <si>
+    <t>15/08/2019</t>
+  </si>
+  <si>
+    <t>V2200</t>
+  </si>
+  <si>
+    <t>12/02/2018</t>
+  </si>
+  <si>
+    <t>XYZ234</t>
+  </si>
+  <si>
+    <t>X250</t>
+  </si>
+  <si>
+    <t>Tata</t>
+  </si>
+  <si>
+    <t>14/03/2020</t>
+  </si>
+  <si>
+    <t>DEF567</t>
+  </si>
+  <si>
+    <t>Y260</t>
+  </si>
+  <si>
+    <t>Fuso</t>
+  </si>
+  <si>
+    <t>22/05/2019</t>
+  </si>
+  <si>
+    <t>GHI890</t>
+  </si>
+  <si>
+    <t>Z270</t>
+  </si>
+  <si>
+    <t>10/07/2018</t>
+  </si>
+  <si>
+    <t>JKL123</t>
+  </si>
+  <si>
+    <t>A280</t>
   </si>
   <si>
     <t>MAN</t>
   </si>
   <si>
-    <t>Gasolina</t>
-  </si>
-  <si>
-    <t>29/10/2017</t>
-  </si>
-  <si>
-    <t>ABC345</t>
-  </si>
-  <si>
-    <t>X24</t>
-  </si>
-  <si>
-    <t>Iveco</t>
-  </si>
-  <si>
-    <t>FUNCIONAL</t>
-  </si>
-  <si>
-    <t>27/10/2015</t>
-  </si>
-  <si>
-    <t>JKL012</t>
-  </si>
-  <si>
-    <t>D400</t>
-  </si>
-  <si>
-    <t>Mitsubishi</t>
-  </si>
-  <si>
-    <t>30/10/2020</t>
-  </si>
-  <si>
-    <t>EFG456</t>
-  </si>
-  <si>
-    <t>X11</t>
-  </si>
-  <si>
-    <t>Kenworth</t>
-  </si>
-  <si>
-    <t>21/10/2015</t>
-  </si>
-  <si>
-    <t>EFG123</t>
-  </si>
-  <si>
-    <t>Scania</t>
-  </si>
-  <si>
-    <t>26/10/2017</t>
-  </si>
-  <si>
-    <t>DEF456</t>
-  </si>
-  <si>
-    <t>B200</t>
-  </si>
-  <si>
-    <t>Hino</t>
-  </si>
-  <si>
-    <t>22/06/2018</t>
-  </si>
-  <si>
-    <t>DEF890</t>
-  </si>
-  <si>
-    <t>X20</t>
-  </si>
-  <si>
-    <t>Renault</t>
-  </si>
-  <si>
-    <t>28/10/2016</t>
-  </si>
-  <si>
-    <t>VWX567</t>
-  </si>
-  <si>
-    <t>X17</t>
-  </si>
-  <si>
-    <t>26/10/2018</t>
-  </si>
-  <si>
-    <t>STU456</t>
-  </si>
-  <si>
-    <t>X16</t>
-  </si>
-  <si>
-    <t>Volvo</t>
-  </si>
-  <si>
-    <t>Eléctrico</t>
-  </si>
-  <si>
-    <t>24/10/2019</t>
-  </si>
-  <si>
-    <t>GHI012</t>
-  </si>
-  <si>
-    <t>MEME</t>
-  </si>
-  <si>
-    <t>Nissa</t>
-  </si>
-  <si>
-    <t>Disel</t>
-  </si>
-  <si>
-    <t>ABC789</t>
-  </si>
-  <si>
-    <t>X19</t>
-  </si>
-  <si>
-    <t>Mercedes</t>
-  </si>
-  <si>
-    <t>23/10/2017</t>
-  </si>
-  <si>
-    <t>HIJ456</t>
-  </si>
-  <si>
-    <t>X12</t>
-  </si>
-  <si>
-    <t>27/10/2018</t>
-  </si>
-  <si>
-    <t>XYZ678</t>
-  </si>
-  <si>
-    <t>X18</t>
-  </si>
-  <si>
-    <t>MNO234</t>
-  </si>
-  <si>
-    <t>X14</t>
-  </si>
-  <si>
-    <t>25/10/2014</t>
-  </si>
-  <si>
-    <t>STU789</t>
-  </si>
-  <si>
-    <t>22/10/2016</t>
-  </si>
-  <si>
-    <t>HIJ789</t>
-  </si>
-  <si>
-    <t>23/10/2014</t>
-  </si>
-  <si>
-    <t>VWX123</t>
-  </si>
-  <si>
-    <t>X21</t>
-  </si>
-  <si>
-    <t>Ford</t>
-  </si>
-  <si>
-    <t>DEF123</t>
-  </si>
-  <si>
-    <t>X22</t>
-  </si>
-  <si>
-    <t>Toyota</t>
-  </si>
-  <si>
-    <t>GHI123</t>
-  </si>
-  <si>
-    <t>X23</t>
-  </si>
-  <si>
-    <t>XYZ123</t>
-  </si>
-  <si>
-    <t>A100</t>
-  </si>
-  <si>
-    <t>12/04/2019</t>
-  </si>
-  <si>
-    <t>GHI789</t>
-  </si>
-  <si>
-    <t>C300</t>
-  </si>
-  <si>
-    <t>Freightliner</t>
-  </si>
-  <si>
-    <t>14/09/2017</t>
-  </si>
-  <si>
-    <t>MNO345</t>
-  </si>
-  <si>
-    <t>E500</t>
-  </si>
-  <si>
-    <t>28/02/2016</t>
-  </si>
-  <si>
-    <t>PQR678</t>
-  </si>
-  <si>
-    <t>F600</t>
-  </si>
-  <si>
-    <t>Mack</t>
-  </si>
-  <si>
-    <t>15/11/2018</t>
-  </si>
-  <si>
-    <t>STU901</t>
-  </si>
-  <si>
-    <t>G700</t>
-  </si>
-  <si>
-    <t>International</t>
-  </si>
-  <si>
-    <t>20/03/2019</t>
-  </si>
-  <si>
-    <t>VWX234</t>
-  </si>
-  <si>
-    <t>H800</t>
-  </si>
-  <si>
-    <t>Nissan</t>
-  </si>
-  <si>
-    <t>05/08/2016</t>
-  </si>
-  <si>
-    <t>YZA567</t>
-  </si>
-  <si>
-    <t>I900</t>
-  </si>
-  <si>
-    <t>15/09/2017</t>
-  </si>
-  <si>
-    <t>BCD890</t>
-  </si>
-  <si>
-    <t>J1000</t>
-  </si>
-  <si>
-    <t>22/01/2020</t>
-  </si>
-  <si>
-    <t>EFG234</t>
-  </si>
-  <si>
-    <t>K1100</t>
-  </si>
-  <si>
-    <t>12/06/2019</t>
-  </si>
-  <si>
-    <t>GHI567</t>
-  </si>
-  <si>
-    <t>L1200</t>
-  </si>
-  <si>
-    <t>30/04/2018</t>
-  </si>
-  <si>
-    <t>JKL890</t>
-  </si>
-  <si>
-    <t>M1300</t>
-  </si>
-  <si>
-    <t>10/02/2021</t>
-  </si>
-  <si>
-    <t>NOP123</t>
-  </si>
-  <si>
-    <t>N1400</t>
-  </si>
-  <si>
-    <t>01/07/2016</t>
-  </si>
-  <si>
-    <t>QRS456</t>
-  </si>
-  <si>
-    <t>O1500</t>
-  </si>
-  <si>
-    <t>15/11/2019</t>
-  </si>
-  <si>
-    <t>P1600</t>
-  </si>
-  <si>
-    <t>20/05/2017</t>
-  </si>
-  <si>
-    <t>TUV012</t>
-  </si>
-  <si>
-    <t>1700.0</t>
-  </si>
-  <si>
-    <t>10/03/2018</t>
-  </si>
-  <si>
-    <t>VWX345</t>
-  </si>
-  <si>
-    <t>R1800</t>
-  </si>
-  <si>
-    <t>01/01/2016</t>
-  </si>
-  <si>
-    <t>S1900</t>
-  </si>
-  <si>
-    <t>22/04/2020</t>
-  </si>
-  <si>
-    <t>ABC901</t>
-  </si>
-  <si>
-    <t>T2000</t>
-  </si>
-  <si>
-    <t>15/08/2019</t>
-  </si>
-  <si>
-    <t>V2200</t>
-  </si>
-  <si>
-    <t>12/02/2018</t>
-  </si>
-  <si>
-    <t>XYZ234</t>
-  </si>
-  <si>
-    <t>X250</t>
-  </si>
-  <si>
-    <t>Tata</t>
-  </si>
-  <si>
-    <t>14/03/2020</t>
-  </si>
-  <si>
-    <t>DEF567</t>
-  </si>
-  <si>
-    <t>Y260</t>
-  </si>
-  <si>
-    <t>Fuso</t>
-  </si>
-  <si>
-    <t>22/05/2019</t>
-  </si>
-  <si>
-    <t>GHI890</t>
-  </si>
-  <si>
-    <t>Z270</t>
-  </si>
-  <si>
-    <t>10/07/2018</t>
-  </si>
-  <si>
-    <t>JKL123</t>
-  </si>
-  <si>
-    <t>A280</t>
-  </si>
-  <si>
     <t>18/10/2021</t>
   </si>
   <si>
@@ -524,6 +536,72 @@
   </si>
   <si>
     <t>05/02/2019</t>
+  </si>
+  <si>
+    <t>ASDSA1</t>
+  </si>
+  <si>
+    <t>Versa</t>
+  </si>
+  <si>
+    <t>16/07/1905</t>
+  </si>
+  <si>
+    <t>ASDSAD1</t>
+  </si>
+  <si>
+    <t>321j</t>
+  </si>
+  <si>
+    <t>nisssa</t>
+  </si>
+  <si>
+    <t>AS12</t>
+  </si>
+  <si>
+    <t>SADSA1</t>
+  </si>
+  <si>
+    <t>NISSAA</t>
+  </si>
+  <si>
+    <t>DSA21</t>
+  </si>
+  <si>
+    <t>S122</t>
+  </si>
+  <si>
+    <t>ASD1</t>
+  </si>
+  <si>
+    <t>SAD1</t>
+  </si>
+  <si>
+    <t>P123GRV</t>
+  </si>
+  <si>
+    <t>Cs</t>
+  </si>
+  <si>
+    <t>31/05/1905</t>
+  </si>
+  <si>
+    <t>P021WWH</t>
+  </si>
+  <si>
+    <t>VOLVO</t>
+  </si>
+  <si>
+    <t>NISSAN</t>
+  </si>
+  <si>
+    <t>12/07/1905</t>
+  </si>
+  <si>
+    <t>ASD12</t>
+  </si>
+  <si>
+    <t>SAD12</t>
   </si>
 </sst>
 </file>
@@ -895,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D2:D46"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,19 +1051,19 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2">
-        <v>41000</v>
+        <v>29000</v>
       </c>
       <c r="G2">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1003,13 +1081,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1023,28 +1101,28 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>47000</v>
+        <v>26000</v>
       </c>
       <c r="G3">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1062,13 +1140,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -1082,28 +1160,28 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>45000</v>
+        <v>38000</v>
       </c>
       <c r="G4">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1121,13 +1199,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1141,28 +1219,28 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>29000</v>
+        <v>41000</v>
       </c>
       <c r="G5">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1180,13 +1258,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1200,28 +1278,28 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>28000</v>
+        <v>47000</v>
       </c>
       <c r="G6">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1239,13 +1317,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1259,28 +1337,28 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="G7">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1298,13 +1376,13 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1318,28 +1396,28 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F8">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="G8">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1357,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1377,28 +1455,28 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F9">
-        <v>31000</v>
+        <v>15000</v>
       </c>
       <c r="G9">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1416,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1436,28 +1514,28 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10">
-        <v>38000</v>
+        <v>31000</v>
       </c>
       <c r="G10">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1475,13 +1553,13 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1495,28 +1573,28 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="F11">
-        <v>26000</v>
+        <v>31000</v>
       </c>
       <c r="G11">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1534,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1554,28 +1632,28 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="F12">
-        <v>45000</v>
+        <v>38000</v>
       </c>
       <c r="G12">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1593,13 +1671,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1613,28 +1691,28 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F13">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="G13">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1652,13 +1730,13 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1678,22 +1756,22 @@
         <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F14">
-        <v>40000</v>
+        <v>27000</v>
       </c>
       <c r="G14">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1711,13 +1789,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1731,28 +1809,28 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F15">
-        <v>34000</v>
+        <v>40000</v>
       </c>
       <c r="G15">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1770,13 +1848,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1790,28 +1868,28 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G16">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1829,13 +1907,13 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1849,28 +1927,28 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F17">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="G17">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1888,13 +1966,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1908,28 +1986,28 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F18">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="G18">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1947,13 +2025,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1967,28 +2045,28 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="G19">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2006,13 +2084,13 @@
         <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -2026,28 +2104,28 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F20">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="G20">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H20" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2065,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2085,28 +2163,28 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F21">
-        <v>47000</v>
+        <v>30000</v>
       </c>
       <c r="G21">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="H21" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2124,13 +2202,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -2144,28 +2222,28 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F22">
-        <v>27000</v>
+        <v>47000</v>
       </c>
       <c r="G22">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="H22" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2183,13 +2261,13 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -2203,28 +2281,28 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F23">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="G23">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2242,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2262,28 +2340,28 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F24">
-        <v>45000</v>
+        <v>32000</v>
       </c>
       <c r="G24">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2301,13 +2379,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2321,28 +2399,28 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F25">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="G25">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2360,13 +2438,13 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -2380,28 +2458,28 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F26">
-        <v>36000</v>
+        <v>50000</v>
       </c>
       <c r="G26">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="H26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2419,13 +2497,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -2439,28 +2517,28 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F27">
-        <v>24000</v>
+        <v>36000</v>
       </c>
       <c r="G27">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2478,13 +2556,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2498,28 +2576,28 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F28">
-        <v>41000</v>
+        <v>24000</v>
       </c>
       <c r="G28">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="H28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2537,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2557,28 +2635,28 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F29">
-        <v>27000</v>
+        <v>41000</v>
       </c>
       <c r="G29">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="H29" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2596,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -2616,28 +2694,28 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F30">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="G30">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="H30" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2655,13 +2733,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -2675,19 +2753,19 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F31">
         <v>45000</v>
@@ -2696,7 +2774,7 @@
         <v>2000</v>
       </c>
       <c r="H31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2714,13 +2792,13 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -2734,19 +2812,19 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F32">
         <v>25000</v>
@@ -2755,7 +2833,7 @@
         <v>2100</v>
       </c>
       <c r="H32" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2773,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2793,19 +2871,19 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F33">
         <v>33000</v>
@@ -2814,7 +2892,7 @@
         <v>2200</v>
       </c>
       <c r="H33" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2832,13 +2910,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2852,19 +2930,19 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F34">
         <v>49000</v>
@@ -2873,7 +2951,7 @@
         <v>2400</v>
       </c>
       <c r="H34" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2891,13 +2969,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2911,19 +2989,19 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F35">
         <v>32000</v>
@@ -2932,7 +3010,7 @@
         <v>2100</v>
       </c>
       <c r="H35" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2950,13 +3028,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -2970,19 +3048,19 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F36">
         <v>46000</v>
@@ -2991,7 +3069,7 @@
         <v>2300</v>
       </c>
       <c r="H36" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3009,13 +3087,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -3029,19 +3107,19 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F37">
         <v>29000</v>
@@ -3050,7 +3128,7 @@
         <v>1800</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3068,13 +3146,13 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -3088,19 +3166,19 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F38">
         <v>35000</v>
@@ -3109,7 +3187,7 @@
         <v>2400</v>
       </c>
       <c r="H38" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3127,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -3147,19 +3225,19 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F39">
         <v>37000</v>
@@ -3168,7 +3246,7 @@
         <v>2100</v>
       </c>
       <c r="H39" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3186,13 +3264,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -3206,19 +3284,19 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F40">
         <v>48000</v>
@@ -3227,7 +3305,7 @@
         <v>2400</v>
       </c>
       <c r="H40" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3245,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -3265,19 +3343,19 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C41" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F41">
         <v>35000</v>
@@ -3286,7 +3364,7 @@
         <v>2300</v>
       </c>
       <c r="H41" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3304,13 +3382,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -3324,19 +3402,19 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B42" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F42">
         <v>30000</v>
@@ -3345,7 +3423,7 @@
         <v>2000</v>
       </c>
       <c r="H42" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3363,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -3383,19 +3461,19 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B43" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E43" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F43">
         <v>37000</v>
@@ -3404,7 +3482,7 @@
         <v>2400</v>
       </c>
       <c r="H43" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3422,13 +3500,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -3442,19 +3520,19 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B44" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F44">
         <v>45000</v>
@@ -3463,7 +3541,7 @@
         <v>2200</v>
       </c>
       <c r="H44" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3481,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -3501,19 +3579,19 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F45">
         <v>31000</v>
@@ -3522,7 +3600,7 @@
         <v>2100</v>
       </c>
       <c r="H45" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3540,13 +3618,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3560,19 +3638,19 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F46">
         <v>39000</v>
@@ -3581,7 +3659,7 @@
         <v>2400</v>
       </c>
       <c r="H46" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3599,13 +3677,13 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -3614,6 +3692,537 @@
         <v>0</v>
       </c>
       <c r="S46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47">
+        <v>1000</v>
+      </c>
+      <c r="G47">
+        <v>10000</v>
+      </c>
+      <c r="H47" t="s">
+        <v>174</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
+        <v>25</v>
+      </c>
+      <c r="O47" t="s">
+        <v>25</v>
+      </c>
+      <c r="P47" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48">
+        <v>1111</v>
+      </c>
+      <c r="G48">
+        <v>11111</v>
+      </c>
+      <c r="H48" t="s">
+        <v>174</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" t="s">
+        <v>25</v>
+      </c>
+      <c r="P48" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49">
+        <v>12122</v>
+      </c>
+      <c r="G49">
+        <v>12112</v>
+      </c>
+      <c r="H49" t="s">
+        <v>174</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
+        <v>25</v>
+      </c>
+      <c r="O49" t="s">
+        <v>25</v>
+      </c>
+      <c r="P49" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50">
+        <v>12122</v>
+      </c>
+      <c r="G50">
+        <v>12112</v>
+      </c>
+      <c r="H50" t="s">
+        <v>174</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>25</v>
+      </c>
+      <c r="O50" t="s">
+        <v>25</v>
+      </c>
+      <c r="P50" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51">
+        <v>1111</v>
+      </c>
+      <c r="G51">
+        <v>1111</v>
+      </c>
+      <c r="H51" t="s">
+        <v>174</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
+        <v>25</v>
+      </c>
+      <c r="O51" t="s">
+        <v>25</v>
+      </c>
+      <c r="P51" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52">
+        <v>1212</v>
+      </c>
+      <c r="G52">
+        <v>1212</v>
+      </c>
+      <c r="H52" t="s">
+        <v>174</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>25</v>
+      </c>
+      <c r="O52" t="s">
+        <v>25</v>
+      </c>
+      <c r="P52" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>185</v>
+      </c>
+      <c r="B53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53">
+        <v>100000</v>
+      </c>
+      <c r="G53">
+        <v>200</v>
+      </c>
+      <c r="H53" t="s">
+        <v>187</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
+        <v>25</v>
+      </c>
+      <c r="O53" t="s">
+        <v>25</v>
+      </c>
+      <c r="P53" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" t="s">
+        <v>190</v>
+      </c>
+      <c r="D54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54">
+        <v>1000</v>
+      </c>
+      <c r="G54">
+        <v>1000</v>
+      </c>
+      <c r="H54" t="s">
+        <v>191</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54" t="s">
+        <v>25</v>
+      </c>
+      <c r="P54" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55">
+        <v>1212</v>
+      </c>
+      <c r="G55">
+        <v>1212</v>
+      </c>
+      <c r="H55" t="s">
+        <v>174</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
+        <v>25</v>
+      </c>
+      <c r="O55" t="s">
+        <v>25</v>
+      </c>
+      <c r="P55" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55" t="b">
         <v>1</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/CAMIONES.xlsx
+++ b/ProyectoPooDist/excels/CAMIONES.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="269">
   <si>
     <t>Placas</t>
   </si>
@@ -71,9 +71,78 @@
     <t>Activo</t>
   </si>
   <si>
+    <t>FLP8701</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Chevrolet</t>
+  </si>
+  <si>
+    <t>INACTIVO</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>15/11/2023</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>LAA1053</t>
+  </si>
+  <si>
+    <t>Ranger</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>16/11/2023</t>
+  </si>
+  <si>
+    <t>NYM9482</t>
+  </si>
+  <si>
+    <t>Frontier</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>Gasolina</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>LZC1023</t>
+  </si>
+  <si>
+    <t>Tacoma</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>18/11/2023</t>
+  </si>
+  <si>
+    <t>AZX4081</t>
+  </si>
+  <si>
+    <t>Ram 1500</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>19/11/2023</t>
+  </si>
+  <si>
     <t>GHI123</t>
   </si>
   <si>
@@ -98,90 +167,75 @@
     <t>H800</t>
   </si>
   <si>
-    <t>Nissan</t>
-  </si>
-  <si>
     <t>10/10/1999</t>
   </si>
   <si>
-    <t>YZA567</t>
-  </si>
-  <si>
-    <t>I900</t>
+    <t>BCD890</t>
+  </si>
+  <si>
+    <t>J1000</t>
+  </si>
+  <si>
+    <t>Freightliner</t>
+  </si>
+  <si>
+    <t>10/10/2001</t>
+  </si>
+  <si>
+    <t>JKL890</t>
+  </si>
+  <si>
+    <t>M1300</t>
+  </si>
+  <si>
+    <t>Kenworth</t>
+  </si>
+  <si>
+    <t>10/10/2002</t>
+  </si>
+  <si>
+    <t>NOP123</t>
+  </si>
+  <si>
+    <t>N1400</t>
+  </si>
+  <si>
+    <t>Mack</t>
+  </si>
+  <si>
+    <t>10/10/2003</t>
+  </si>
+  <si>
+    <t>QRS456</t>
+  </si>
+  <si>
+    <t>O1500</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>10/10/2004</t>
+  </si>
+  <si>
+    <t>STU789</t>
+  </si>
+  <si>
+    <t>P1600</t>
+  </si>
+  <si>
+    <t>10/10/2005</t>
+  </si>
+  <si>
+    <t>TUV012</t>
+  </si>
+  <si>
+    <t>1700.0</t>
   </si>
   <si>
     <t>Volvo</t>
   </si>
   <si>
-    <t>INACTIVO</t>
-  </si>
-  <si>
-    <t>10/10/2000</t>
-  </si>
-  <si>
-    <t>BCD890</t>
-  </si>
-  <si>
-    <t>J1000</t>
-  </si>
-  <si>
-    <t>Freightliner</t>
-  </si>
-  <si>
-    <t>10/10/2001</t>
-  </si>
-  <si>
-    <t>JKL890</t>
-  </si>
-  <si>
-    <t>M1300</t>
-  </si>
-  <si>
-    <t>Kenworth</t>
-  </si>
-  <si>
-    <t>10/10/2002</t>
-  </si>
-  <si>
-    <t>NOP123</t>
-  </si>
-  <si>
-    <t>N1400</t>
-  </si>
-  <si>
-    <t>Mack</t>
-  </si>
-  <si>
-    <t>10/10/2003</t>
-  </si>
-  <si>
-    <t>QRS456</t>
-  </si>
-  <si>
-    <t>O1500</t>
-  </si>
-  <si>
-    <t>International</t>
-  </si>
-  <si>
-    <t>10/10/2004</t>
-  </si>
-  <si>
-    <t>STU789</t>
-  </si>
-  <si>
-    <t>P1600</t>
-  </si>
-  <si>
-    <t>10/10/2005</t>
-  </si>
-  <si>
-    <t>TUV012</t>
-  </si>
-  <si>
-    <t>1700.0</t>
-  </si>
-  <si>
     <t>10/10/2006</t>
   </si>
   <si>
@@ -416,9 +470,6 @@
     <t>X22</t>
   </si>
   <si>
-    <t>Toyota</t>
-  </si>
-  <si>
     <t>18/10/2021</t>
   </si>
   <si>
@@ -440,27 +491,18 @@
     <t>F150</t>
   </si>
   <si>
-    <t>Ford</t>
-  </si>
-  <si>
     <t>USA456</t>
   </si>
   <si>
     <t>Ram1500</t>
   </si>
   <si>
-    <t>RAM</t>
-  </si>
-  <si>
     <t>USA789</t>
   </si>
   <si>
     <t>Silverado</t>
   </si>
   <si>
-    <t>Chevrolet</t>
-  </si>
-  <si>
     <t>TXA123</t>
   </si>
   <si>
@@ -503,9 +545,6 @@
     <t>CAL456</t>
   </si>
   <si>
-    <t>Tacoma</t>
-  </si>
-  <si>
     <t>NYA123</t>
   </si>
   <si>
@@ -515,21 +554,12 @@
     <t>NYA456</t>
   </si>
   <si>
-    <t>Frontier</t>
-  </si>
-  <si>
     <t>TXB123</t>
   </si>
   <si>
-    <t>Colorado</t>
-  </si>
-  <si>
     <t>TXB234</t>
   </si>
   <si>
-    <t>Ranger</t>
-  </si>
-  <si>
     <t>MIA123</t>
   </si>
   <si>
@@ -641,21 +671,12 @@
     <t>GAT9901</t>
   </si>
   <si>
-    <t>Diesel</t>
-  </si>
-  <si>
     <t>21/10/2023</t>
   </si>
   <si>
     <t>TXM5489</t>
   </si>
   <si>
-    <t>Ram 1500</t>
-  </si>
-  <si>
-    <t>Gasolina</t>
-  </si>
-  <si>
     <t>22/10/2023</t>
   </si>
   <si>
@@ -798,36 +819,6 @@
   </si>
   <si>
     <t>14/11/2023</t>
-  </si>
-  <si>
-    <t>FLP8701</t>
-  </si>
-  <si>
-    <t>15/11/2023</t>
-  </si>
-  <si>
-    <t>LAA1053</t>
-  </si>
-  <si>
-    <t>16/11/2023</t>
-  </si>
-  <si>
-    <t>NYM9482</t>
-  </si>
-  <si>
-    <t>17/11/2023</t>
-  </si>
-  <si>
-    <t>LZC1023</t>
-  </si>
-  <si>
-    <t>18/11/2023</t>
-  </si>
-  <si>
-    <t>AZX4081</t>
-  </si>
-  <si>
-    <t>19/11/2023</t>
   </si>
 </sst>
 </file>
@@ -872,7 +863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S95"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -942,16 +933,16 @@
         <v>19</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>0.0</v>
@@ -960,7 +951,7 @@
         <v>0.0</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I2" t="n" s="0">
         <v>0.0</v>
@@ -978,13 +969,13 @@
         <v>0.0</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="n" s="0">
         <v>0.0</v>
@@ -993,25 +984,25 @@
         <v>0.0</v>
       </c>
       <c r="S2" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="E3" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E3" t="s" s="0">
-        <v>24</v>
-      </c>
       <c r="F3" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -1019,7 +1010,7 @@
         <v>0.0</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I3" t="n" s="0">
         <v>0.0</v>
@@ -1037,13 +1028,13 @@
         <v>0.0</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="n" s="0">
         <v>0.0</v>
@@ -1052,24 +1043,24 @@
         <v>0.0</v>
       </c>
       <c r="S3" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>0.0</v>
@@ -1078,7 +1069,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I4" t="n" s="0">
         <v>0.0</v>
@@ -1096,13 +1087,13 @@
         <v>0.0</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="n" s="0">
         <v>0.0</v>
@@ -1111,24 +1102,24 @@
         <v>0.0</v>
       </c>
       <c r="S4" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="n" s="0">
         <v>0.0</v>
@@ -1137,7 +1128,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I5" t="n" s="0">
         <v>0.0</v>
@@ -1155,13 +1146,13 @@
         <v>0.0</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n" s="0">
         <v>0.0</v>
@@ -1175,20 +1166,20 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E6" t="s" s="0">
-        <v>24</v>
-      </c>
       <c r="F6" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -1196,7 +1187,7 @@
         <v>0.0</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I6" t="n" s="0">
         <v>0.0</v>
@@ -1214,13 +1205,13 @@
         <v>0.0</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n" s="0">
         <v>0.0</v>
@@ -1229,24 +1220,24 @@
         <v>0.0</v>
       </c>
       <c r="S6" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F7" t="n" s="0">
         <v>0.0</v>
@@ -1255,16 +1246,16 @@
         <v>0.0</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I7" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="L7" t="n" s="0">
         <v>0.0</v>
@@ -1273,19 +1264,19 @@
         <v>0.0</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q7" t="n" s="0">
-        <v>0.0</v>
+        <v>120.0</v>
       </c>
       <c r="R7" t="n" s="0">
-        <v>0.0</v>
+        <v>120.0</v>
       </c>
       <c r="S7" t="b" s="0">
         <v>1</v>
@@ -1293,19 +1284,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F8" t="n" s="0">
         <v>0.0</v>
@@ -1314,10 +1305,10 @@
         <v>0.0</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>0.0</v>
+        <v>111.0</v>
       </c>
       <c r="J8" t="n" s="0">
         <v>0.0</v>
@@ -1332,16 +1323,16 @@
         <v>0.0</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q8" t="n" s="0">
-        <v>0.0</v>
+        <v>111.0</v>
       </c>
       <c r="R8" t="n" s="0">
         <v>0.0</v>
@@ -1352,20 +1343,20 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>24</v>
-      </c>
       <c r="F9" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -1373,7 +1364,7 @@
         <v>0.0</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I9" t="n" s="0">
         <v>0.0</v>
@@ -1391,13 +1382,13 @@
         <v>0.0</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q9" t="n" s="0">
         <v>0.0</v>
@@ -1411,19 +1402,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F10" t="n" s="0">
         <v>0.0</v>
@@ -1432,7 +1423,7 @@
         <v>0.0</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I10" t="n" s="0">
         <v>0.0</v>
@@ -1450,13 +1441,13 @@
         <v>0.0</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q10" t="n" s="0">
         <v>0.0</v>
@@ -1470,19 +1461,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F11" t="n" s="0">
         <v>0.0</v>
@@ -1491,7 +1482,7 @@
         <v>0.0</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I11" t="n" s="0">
         <v>0.0</v>
@@ -1509,13 +1500,13 @@
         <v>0.0</v>
       </c>
       <c r="N11" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O11" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P11" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q11" t="n" s="0">
         <v>0.0</v>
@@ -1529,19 +1520,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F12" t="n" s="0">
         <v>0.0</v>
@@ -1550,7 +1541,7 @@
         <v>0.0</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I12" t="n" s="0">
         <v>0.0</v>
@@ -1568,13 +1559,13 @@
         <v>0.0</v>
       </c>
       <c r="N12" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O12" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P12" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="n" s="0">
         <v>0.0</v>
@@ -1588,19 +1579,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F13" t="n" s="0">
         <v>0.0</v>
@@ -1609,7 +1600,7 @@
         <v>0.0</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I13" t="n" s="0">
         <v>0.0</v>
@@ -1627,13 +1618,13 @@
         <v>0.0</v>
       </c>
       <c r="N13" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O13" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P13" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q13" t="n" s="0">
         <v>0.0</v>
@@ -1647,19 +1638,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F14" t="n" s="0">
         <v>0.0</v>
@@ -1668,7 +1659,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I14" t="n" s="0">
         <v>0.0</v>
@@ -1686,13 +1677,13 @@
         <v>0.0</v>
       </c>
       <c r="N14" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O14" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P14" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q14" t="n" s="0">
         <v>0.0</v>
@@ -1706,19 +1697,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F15" t="n" s="0">
         <v>0.0</v>
@@ -1727,7 +1718,7 @@
         <v>0.0</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I15" t="n" s="0">
         <v>0.0</v>
@@ -1745,13 +1736,13 @@
         <v>0.0</v>
       </c>
       <c r="N15" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O15" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P15" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="n" s="0">
         <v>0.0</v>
@@ -1765,19 +1756,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F16" t="n" s="0">
         <v>0.0</v>
@@ -1786,7 +1777,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I16" t="n" s="0">
         <v>0.0</v>
@@ -1804,13 +1795,13 @@
         <v>0.0</v>
       </c>
       <c r="N16" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O16" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P16" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q16" t="n" s="0">
         <v>0.0</v>
@@ -1824,19 +1815,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F17" t="n" s="0">
         <v>0.0</v>
@@ -1845,7 +1836,7 @@
         <v>0.0</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I17" t="n" s="0">
         <v>0.0</v>
@@ -1863,13 +1854,13 @@
         <v>0.0</v>
       </c>
       <c r="N17" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O17" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P17" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q17" t="n" s="0">
         <v>0.0</v>
@@ -1883,19 +1874,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F18" t="n" s="0">
         <v>0.0</v>
@@ -1904,7 +1895,7 @@
         <v>0.0</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I18" t="n" s="0">
         <v>0.0</v>
@@ -1922,13 +1913,13 @@
         <v>0.0</v>
       </c>
       <c r="N18" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O18" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P18" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q18" t="n" s="0">
         <v>0.0</v>
@@ -1942,19 +1933,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F19" t="n" s="0">
         <v>0.0</v>
@@ -1963,7 +1954,7 @@
         <v>0.0</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I19" t="n" s="0">
         <v>0.0</v>
@@ -1981,13 +1972,13 @@
         <v>0.0</v>
       </c>
       <c r="N19" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O19" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P19" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q19" t="n" s="0">
         <v>0.0</v>
@@ -2001,19 +1992,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F20" t="n" s="0">
         <v>0.0</v>
@@ -2022,7 +2013,7 @@
         <v>0.0</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I20" t="n" s="0">
         <v>0.0</v>
@@ -2040,13 +2031,13 @@
         <v>0.0</v>
       </c>
       <c r="N20" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O20" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P20" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q20" t="n" s="0">
         <v>0.0</v>
@@ -2060,19 +2051,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F21" t="n" s="0">
         <v>0.0</v>
@@ -2081,7 +2072,7 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I21" t="n" s="0">
         <v>0.0</v>
@@ -2099,13 +2090,13 @@
         <v>0.0</v>
       </c>
       <c r="N21" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O21" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P21" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q21" t="n" s="0">
         <v>0.0</v>
@@ -2119,19 +2110,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F22" t="n" s="0">
         <v>0.0</v>
@@ -2140,7 +2131,7 @@
         <v>0.0</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="I22" t="n" s="0">
         <v>0.0</v>
@@ -2158,13 +2149,13 @@
         <v>0.0</v>
       </c>
       <c r="N22" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O22" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P22" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q22" t="n" s="0">
         <v>0.0</v>
@@ -2178,19 +2169,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F23" t="n" s="0">
         <v>0.0</v>
@@ -2199,7 +2190,7 @@
         <v>0.0</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I23" t="n" s="0">
         <v>0.0</v>
@@ -2217,13 +2208,13 @@
         <v>0.0</v>
       </c>
       <c r="N23" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O23" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P23" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q23" t="n" s="0">
         <v>0.0</v>
@@ -2237,19 +2228,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F24" t="n" s="0">
         <v>0.0</v>
@@ -2258,7 +2249,7 @@
         <v>0.0</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I24" t="n" s="0">
         <v>0.0</v>
@@ -2276,13 +2267,13 @@
         <v>0.0</v>
       </c>
       <c r="N24" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O24" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P24" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q24" t="n" s="0">
         <v>0.0</v>
@@ -2296,19 +2287,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F25" t="n" s="0">
         <v>0.0</v>
@@ -2317,7 +2308,7 @@
         <v>0.0</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I25" t="n" s="0">
         <v>0.0</v>
@@ -2335,13 +2326,13 @@
         <v>0.0</v>
       </c>
       <c r="N25" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O25" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P25" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q25" t="n" s="0">
         <v>0.0</v>
@@ -2355,19 +2346,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F26" t="n" s="0">
         <v>0.0</v>
@@ -2376,7 +2367,7 @@
         <v>0.0</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="I26" t="n" s="0">
         <v>0.0</v>
@@ -2394,13 +2385,13 @@
         <v>0.0</v>
       </c>
       <c r="N26" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O26" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P26" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q26" t="n" s="0">
         <v>0.0</v>
@@ -2414,19 +2405,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F27" t="n" s="0">
         <v>0.0</v>
@@ -2435,7 +2426,7 @@
         <v>0.0</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="I27" t="n" s="0">
         <v>0.0</v>
@@ -2453,13 +2444,13 @@
         <v>0.0</v>
       </c>
       <c r="N27" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O27" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P27" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q27" t="n" s="0">
         <v>0.0</v>
@@ -2473,19 +2464,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F28" t="n" s="0">
         <v>0.0</v>
@@ -2494,7 +2485,7 @@
         <v>0.0</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I28" t="n" s="0">
         <v>0.0</v>
@@ -2512,13 +2503,13 @@
         <v>0.0</v>
       </c>
       <c r="N28" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O28" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P28" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q28" t="n" s="0">
         <v>0.0</v>
@@ -2532,19 +2523,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F29" t="n" s="0">
         <v>0.0</v>
@@ -2553,7 +2544,7 @@
         <v>0.0</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="I29" t="n" s="0">
         <v>0.0</v>
@@ -2571,13 +2562,13 @@
         <v>0.0</v>
       </c>
       <c r="N29" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O29" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P29" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q29" t="n" s="0">
         <v>0.0</v>
@@ -2591,19 +2582,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F30" t="n" s="0">
         <v>0.0</v>
@@ -2612,7 +2603,7 @@
         <v>0.0</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="I30" t="n" s="0">
         <v>0.0</v>
@@ -2630,13 +2621,13 @@
         <v>0.0</v>
       </c>
       <c r="N30" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O30" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P30" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q30" t="n" s="0">
         <v>0.0</v>
@@ -2650,19 +2641,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F31" t="n" s="0">
         <v>0.0</v>
@@ -2671,7 +2662,7 @@
         <v>0.0</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I31" t="n" s="0">
         <v>0.0</v>
@@ -2689,13 +2680,13 @@
         <v>0.0</v>
       </c>
       <c r="N31" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O31" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P31" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q31" t="n" s="0">
         <v>0.0</v>
@@ -2709,19 +2700,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F32" t="n" s="0">
         <v>0.0</v>
@@ -2730,7 +2721,7 @@
         <v>0.0</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="I32" t="n" s="0">
         <v>0.0</v>
@@ -2748,13 +2739,13 @@
         <v>0.0</v>
       </c>
       <c r="N32" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O32" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P32" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q32" t="n" s="0">
         <v>0.0</v>
@@ -2768,19 +2759,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F33" t="n" s="0">
         <v>0.0</v>
@@ -2789,7 +2780,7 @@
         <v>0.0</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I33" t="n" s="0">
         <v>0.0</v>
@@ -2807,13 +2798,13 @@
         <v>0.0</v>
       </c>
       <c r="N33" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O33" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P33" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q33" t="n" s="0">
         <v>0.0</v>
@@ -2827,19 +2818,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F34" t="n" s="0">
         <v>0.0</v>
@@ -2848,7 +2839,7 @@
         <v>0.0</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="I34" t="n" s="0">
         <v>0.0</v>
@@ -2866,13 +2857,13 @@
         <v>0.0</v>
       </c>
       <c r="N34" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O34" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P34" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q34" t="n" s="0">
         <v>0.0</v>
@@ -2886,19 +2877,19 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F35" t="n" s="0">
         <v>0.0</v>
@@ -2907,7 +2898,7 @@
         <v>0.0</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="I35" t="n" s="0">
         <v>0.0</v>
@@ -2925,13 +2916,13 @@
         <v>0.0</v>
       </c>
       <c r="N35" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O35" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P35" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q35" t="n" s="0">
         <v>0.0</v>
@@ -2945,19 +2936,19 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F36" t="n" s="0">
         <v>0.0</v>
@@ -2966,7 +2957,7 @@
         <v>0.0</v>
       </c>
       <c r="H36" t="s" s="0">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="I36" t="n" s="0">
         <v>0.0</v>
@@ -2984,13 +2975,13 @@
         <v>0.0</v>
       </c>
       <c r="N36" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O36" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P36" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q36" t="n" s="0">
         <v>0.0</v>
@@ -3004,19 +2995,19 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F37" t="n" s="0">
         <v>0.0</v>
@@ -3025,7 +3016,7 @@
         <v>0.0</v>
       </c>
       <c r="H37" t="s" s="0">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="I37" t="n" s="0">
         <v>0.0</v>
@@ -3043,13 +3034,13 @@
         <v>0.0</v>
       </c>
       <c r="N37" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O37" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P37" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q37" t="n" s="0">
         <v>0.0</v>
@@ -3063,19 +3054,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F38" t="n" s="0">
         <v>0.0</v>
@@ -3084,7 +3075,7 @@
         <v>0.0</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="I38" t="n" s="0">
         <v>0.0</v>
@@ -3102,13 +3093,13 @@
         <v>0.0</v>
       </c>
       <c r="N38" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O38" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P38" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q38" t="n" s="0">
         <v>0.0</v>
@@ -3122,19 +3113,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F39" t="n" s="0">
         <v>0.0</v>
@@ -3143,7 +3134,7 @@
         <v>0.0</v>
       </c>
       <c r="H39" t="s" s="0">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I39" t="n" s="0">
         <v>0.0</v>
@@ -3161,13 +3152,13 @@
         <v>0.0</v>
       </c>
       <c r="N39" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O39" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P39" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q39" t="n" s="0">
         <v>0.0</v>
@@ -3181,19 +3172,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F40" t="n" s="0">
         <v>0.0</v>
@@ -3202,7 +3193,7 @@
         <v>0.0</v>
       </c>
       <c r="H40" t="s" s="0">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I40" t="n" s="0">
         <v>0.0</v>
@@ -3220,13 +3211,13 @@
         <v>0.0</v>
       </c>
       <c r="N40" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O40" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P40" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q40" t="n" s="0">
         <v>0.0</v>
@@ -3240,19 +3231,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F41" t="n" s="0">
         <v>0.0</v>
@@ -3261,7 +3252,7 @@
         <v>0.0</v>
       </c>
       <c r="H41" t="s" s="0">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I41" t="n" s="0">
         <v>0.0</v>
@@ -3279,13 +3270,13 @@
         <v>0.0</v>
       </c>
       <c r="N41" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O41" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P41" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q41" t="n" s="0">
         <v>0.0</v>
@@ -3299,19 +3290,19 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F42" t="n" s="0">
         <v>0.0</v>
@@ -3320,7 +3311,7 @@
         <v>0.0</v>
       </c>
       <c r="H42" t="s" s="0">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I42" t="n" s="0">
         <v>0.0</v>
@@ -3338,13 +3329,13 @@
         <v>0.0</v>
       </c>
       <c r="N42" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O42" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P42" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q42" t="n" s="0">
         <v>0.0</v>
@@ -3358,19 +3349,19 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F43" t="n" s="0">
         <v>0.0</v>
@@ -3379,7 +3370,7 @@
         <v>0.0</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I43" t="n" s="0">
         <v>0.0</v>
@@ -3397,13 +3388,13 @@
         <v>0.0</v>
       </c>
       <c r="N43" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O43" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P43" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q43" t="n" s="0">
         <v>0.0</v>
@@ -3417,19 +3408,19 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F44" t="n" s="0">
         <v>0.0</v>
@@ -3438,7 +3429,7 @@
         <v>0.0</v>
       </c>
       <c r="H44" t="s" s="0">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I44" t="n" s="0">
         <v>0.0</v>
@@ -3456,13 +3447,13 @@
         <v>0.0</v>
       </c>
       <c r="N44" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O44" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P44" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q44" t="n" s="0">
         <v>0.0</v>
@@ -3476,19 +3467,19 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F45" t="n" s="0">
         <v>0.0</v>
@@ -3497,7 +3488,7 @@
         <v>0.0</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I45" t="n" s="0">
         <v>0.0</v>
@@ -3515,13 +3506,13 @@
         <v>0.0</v>
       </c>
       <c r="N45" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O45" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P45" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q45" t="n" s="0">
         <v>0.0</v>
@@ -3535,19 +3526,19 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F46" t="n" s="0">
         <v>0.0</v>
@@ -3556,7 +3547,7 @@
         <v>0.0</v>
       </c>
       <c r="H46" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I46" t="n" s="0">
         <v>0.0</v>
@@ -3574,13 +3565,13 @@
         <v>0.0</v>
       </c>
       <c r="N46" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O46" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P46" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q46" t="n" s="0">
         <v>0.0</v>
@@ -3594,19 +3585,19 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F47" t="n" s="0">
         <v>0.0</v>
@@ -3615,7 +3606,7 @@
         <v>0.0</v>
       </c>
       <c r="H47" t="s" s="0">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I47" t="n" s="0">
         <v>0.0</v>
@@ -3633,13 +3624,13 @@
         <v>0.0</v>
       </c>
       <c r="N47" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O47" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P47" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q47" t="n" s="0">
         <v>0.0</v>
@@ -3653,19 +3644,19 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F48" t="n" s="0">
         <v>0.0</v>
@@ -3674,7 +3665,7 @@
         <v>0.0</v>
       </c>
       <c r="H48" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I48" t="n" s="0">
         <v>0.0</v>
@@ -3692,13 +3683,13 @@
         <v>0.0</v>
       </c>
       <c r="N48" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O48" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P48" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q48" t="n" s="0">
         <v>0.0</v>
@@ -3712,19 +3703,19 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F49" t="n" s="0">
         <v>0.0</v>
@@ -3733,7 +3724,7 @@
         <v>0.0</v>
       </c>
       <c r="H49" t="s" s="0">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="I49" t="n" s="0">
         <v>0.0</v>
@@ -3751,13 +3742,13 @@
         <v>0.0</v>
       </c>
       <c r="N49" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O49" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P49" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q49" t="n" s="0">
         <v>0.0</v>
@@ -3771,19 +3762,19 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E50" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F50" t="n" s="0">
         <v>0.0</v>
@@ -3792,7 +3783,7 @@
         <v>0.0</v>
       </c>
       <c r="H50" t="s" s="0">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I50" t="n" s="0">
         <v>0.0</v>
@@ -3810,13 +3801,13 @@
         <v>0.0</v>
       </c>
       <c r="N50" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O50" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P50" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q50" t="n" s="0">
         <v>0.0</v>
@@ -3830,19 +3821,19 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F51" t="n" s="0">
         <v>0.0</v>
@@ -3851,7 +3842,7 @@
         <v>0.0</v>
       </c>
       <c r="H51" t="s" s="0">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I51" t="n" s="0">
         <v>0.0</v>
@@ -3869,13 +3860,13 @@
         <v>0.0</v>
       </c>
       <c r="N51" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O51" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P51" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q51" t="n" s="0">
         <v>0.0</v>
@@ -3889,19 +3880,19 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E52" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F52" t="n" s="0">
         <v>0.0</v>
@@ -3910,7 +3901,7 @@
         <v>0.0</v>
       </c>
       <c r="H52" t="s" s="0">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I52" t="n" s="0">
         <v>0.0</v>
@@ -3928,13 +3919,13 @@
         <v>0.0</v>
       </c>
       <c r="N52" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O52" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P52" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q52" t="n" s="0">
         <v>0.0</v>
@@ -3948,19 +3939,19 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E53" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F53" t="n" s="0">
         <v>0.0</v>
@@ -3969,7 +3960,7 @@
         <v>0.0</v>
       </c>
       <c r="H53" t="s" s="0">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="I53" t="n" s="0">
         <v>0.0</v>
@@ -3987,13 +3978,13 @@
         <v>0.0</v>
       </c>
       <c r="N53" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O53" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P53" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q53" t="n" s="0">
         <v>0.0</v>
@@ -4007,19 +3998,19 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E54" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F54" t="n" s="0">
         <v>0.0</v>
@@ -4028,7 +4019,7 @@
         <v>0.0</v>
       </c>
       <c r="H54" t="s" s="0">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="I54" t="n" s="0">
         <v>0.0</v>
@@ -4046,13 +4037,13 @@
         <v>0.0</v>
       </c>
       <c r="N54" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O54" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P54" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q54" t="n" s="0">
         <v>0.0</v>
@@ -4066,19 +4057,19 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E55" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F55" t="n" s="0">
         <v>0.0</v>
@@ -4087,7 +4078,7 @@
         <v>0.0</v>
       </c>
       <c r="H55" t="s" s="0">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="I55" t="n" s="0">
         <v>0.0</v>
@@ -4105,13 +4096,13 @@
         <v>0.0</v>
       </c>
       <c r="N55" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O55" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P55" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q55" t="n" s="0">
         <v>0.0</v>
@@ -4125,19 +4116,19 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E56" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F56" t="n" s="0">
         <v>0.0</v>
@@ -4146,7 +4137,7 @@
         <v>0.0</v>
       </c>
       <c r="H56" t="s" s="0">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="I56" t="n" s="0">
         <v>0.0</v>
@@ -4164,13 +4155,13 @@
         <v>0.0</v>
       </c>
       <c r="N56" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O56" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P56" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q56" t="n" s="0">
         <v>0.0</v>
@@ -4184,19 +4175,19 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E57" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F57" t="n" s="0">
         <v>0.0</v>
@@ -4205,7 +4196,7 @@
         <v>0.0</v>
       </c>
       <c r="H57" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I57" t="n" s="0">
         <v>0.0</v>
@@ -4223,13 +4214,13 @@
         <v>0.0</v>
       </c>
       <c r="N57" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O57" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P57" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q57" t="n" s="0">
         <v>0.0</v>
@@ -4243,19 +4234,19 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E58" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F58" t="n" s="0">
         <v>0.0</v>
@@ -4264,7 +4255,7 @@
         <v>0.0</v>
       </c>
       <c r="H58" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I58" t="n" s="0">
         <v>0.0</v>
@@ -4282,13 +4273,13 @@
         <v>0.0</v>
       </c>
       <c r="N58" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O58" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P58" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q58" t="n" s="0">
         <v>0.0</v>
@@ -4302,19 +4293,19 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E59" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F59" t="n" s="0">
         <v>0.0</v>
@@ -4323,7 +4314,7 @@
         <v>0.0</v>
       </c>
       <c r="H59" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I59" t="n" s="0">
         <v>0.0</v>
@@ -4341,13 +4332,13 @@
         <v>0.0</v>
       </c>
       <c r="N59" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O59" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P59" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q59" t="n" s="0">
         <v>0.0</v>
@@ -4361,19 +4352,19 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E60" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F60" t="n" s="0">
         <v>0.0</v>
@@ -4382,7 +4373,7 @@
         <v>0.0</v>
       </c>
       <c r="H60" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I60" t="n" s="0">
         <v>0.0</v>
@@ -4400,13 +4391,13 @@
         <v>0.0</v>
       </c>
       <c r="N60" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O60" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P60" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q60" t="n" s="0">
         <v>0.0</v>
@@ -4420,19 +4411,19 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E61" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F61" t="n" s="0">
         <v>0.0</v>
@@ -4441,7 +4432,7 @@
         <v>0.0</v>
       </c>
       <c r="H61" t="s" s="0">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I61" t="n" s="0">
         <v>0.0</v>
@@ -4459,13 +4450,13 @@
         <v>0.0</v>
       </c>
       <c r="N61" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O61" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P61" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q61" t="n" s="0">
         <v>0.0</v>
@@ -4479,19 +4470,19 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E62" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F62" t="n" s="0">
         <v>0.0</v>
@@ -4500,7 +4491,7 @@
         <v>0.0</v>
       </c>
       <c r="H62" t="s" s="0">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I62" t="n" s="0">
         <v>0.0</v>
@@ -4518,13 +4509,13 @@
         <v>0.0</v>
       </c>
       <c r="N62" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O62" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P62" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q62" t="n" s="0">
         <v>0.0</v>
@@ -4538,19 +4529,19 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E63" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F63" t="n" s="0">
         <v>0.0</v>
@@ -4559,7 +4550,7 @@
         <v>0.0</v>
       </c>
       <c r="H63" t="s" s="0">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I63" t="n" s="0">
         <v>0.0</v>
@@ -4577,13 +4568,13 @@
         <v>0.0</v>
       </c>
       <c r="N63" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O63" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P63" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q63" t="n" s="0">
         <v>0.0</v>
@@ -4597,19 +4588,19 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E64" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F64" t="n" s="0">
         <v>0.0</v>
@@ -4618,7 +4609,7 @@
         <v>0.0</v>
       </c>
       <c r="H64" t="s" s="0">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I64" t="n" s="0">
         <v>0.0</v>
@@ -4636,13 +4627,13 @@
         <v>0.0</v>
       </c>
       <c r="N64" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O64" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P64" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q64" t="n" s="0">
         <v>0.0</v>
@@ -4656,19 +4647,19 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E65" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F65" t="n" s="0">
         <v>0.0</v>
@@ -4677,7 +4668,7 @@
         <v>0.0</v>
       </c>
       <c r="H65" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I65" t="n" s="0">
         <v>0.0</v>
@@ -4695,13 +4686,13 @@
         <v>0.0</v>
       </c>
       <c r="N65" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O65" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P65" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q65" t="n" s="0">
         <v>0.0</v>
@@ -4715,19 +4706,19 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E66" t="s" s="0">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="F66" t="n" s="0">
         <v>0.0</v>
@@ -4736,7 +4727,7 @@
         <v>0.0</v>
       </c>
       <c r="H66" t="s" s="0">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I66" t="n" s="0">
         <v>0.0</v>
@@ -4754,13 +4745,13 @@
         <v>0.0</v>
       </c>
       <c r="N66" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O66" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P66" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q66" t="n" s="0">
         <v>0.0</v>
@@ -4774,19 +4765,19 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E67" t="s" s="0">
-        <v>213</v>
+        <v>47</v>
       </c>
       <c r="F67" t="n" s="0">
         <v>0.0</v>
@@ -4795,7 +4786,7 @@
         <v>0.0</v>
       </c>
       <c r="H67" t="s" s="0">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I67" t="n" s="0">
         <v>0.0</v>
@@ -4813,13 +4804,13 @@
         <v>0.0</v>
       </c>
       <c r="N67" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O67" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P67" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q67" t="n" s="0">
         <v>0.0</v>
@@ -4833,19 +4824,19 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E68" t="s" s="0">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="F68" t="n" s="0">
         <v>0.0</v>
@@ -4854,7 +4845,7 @@
         <v>0.0</v>
       </c>
       <c r="H68" t="s" s="0">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I68" t="n" s="0">
         <v>0.0</v>
@@ -4872,13 +4863,13 @@
         <v>0.0</v>
       </c>
       <c r="N68" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O68" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P68" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q68" t="n" s="0">
         <v>0.0</v>
@@ -4892,20 +4883,20 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="D69" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E69" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E69" t="s" s="0">
-        <v>209</v>
-      </c>
       <c r="F69" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -4913,7 +4904,7 @@
         <v>0.0</v>
       </c>
       <c r="H69" t="s" s="0">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I69" t="n" s="0">
         <v>0.0</v>
@@ -4931,13 +4922,13 @@
         <v>0.0</v>
       </c>
       <c r="N69" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O69" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P69" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q69" t="n" s="0">
         <v>0.0</v>
@@ -4951,19 +4942,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E70" t="s" s="0">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="F70" t="n" s="0">
         <v>0.0</v>
@@ -4972,7 +4963,7 @@
         <v>0.0</v>
       </c>
       <c r="H70" t="s" s="0">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I70" t="n" s="0">
         <v>0.0</v>
@@ -4990,13 +4981,13 @@
         <v>0.0</v>
       </c>
       <c r="N70" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O70" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P70" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q70" t="n" s="0">
         <v>0.0</v>
@@ -5010,20 +5001,20 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E71" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E71" t="s" s="0">
-        <v>209</v>
-      </c>
       <c r="F71" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -5031,7 +5022,7 @@
         <v>0.0</v>
       </c>
       <c r="H71" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I71" t="n" s="0">
         <v>0.0</v>
@@ -5049,13 +5040,13 @@
         <v>0.0</v>
       </c>
       <c r="N71" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O71" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P71" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q71" t="n" s="0">
         <v>0.0</v>
@@ -5069,20 +5060,20 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="D72" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E72" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E72" t="s" s="0">
-        <v>213</v>
-      </c>
       <c r="F72" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -5090,7 +5081,7 @@
         <v>0.0</v>
       </c>
       <c r="H72" t="s" s="0">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I72" t="n" s="0">
         <v>0.0</v>
@@ -5108,13 +5099,13 @@
         <v>0.0</v>
       </c>
       <c r="N72" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O72" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P72" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q72" t="n" s="0">
         <v>0.0</v>
@@ -5128,20 +5119,20 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="D73" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E73" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E73" t="s" s="0">
-        <v>209</v>
-      </c>
       <c r="F73" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -5149,7 +5140,7 @@
         <v>0.0</v>
       </c>
       <c r="H73" t="s" s="0">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I73" t="n" s="0">
         <v>0.0</v>
@@ -5167,13 +5158,13 @@
         <v>0.0</v>
       </c>
       <c r="N73" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O73" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P73" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q73" t="n" s="0">
         <v>0.0</v>
@@ -5187,20 +5178,20 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="D74" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E74" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E74" t="s" s="0">
-        <v>209</v>
-      </c>
       <c r="F74" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -5208,7 +5199,7 @@
         <v>0.0</v>
       </c>
       <c r="H74" t="s" s="0">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I74" t="n" s="0">
         <v>0.0</v>
@@ -5226,13 +5217,13 @@
         <v>0.0</v>
       </c>
       <c r="N74" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O74" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P74" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q74" t="n" s="0">
         <v>0.0</v>
@@ -5246,19 +5237,19 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E75" t="s" s="0">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="F75" t="n" s="0">
         <v>0.0</v>
@@ -5267,7 +5258,7 @@
         <v>0.0</v>
       </c>
       <c r="H75" t="s" s="0">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I75" t="n" s="0">
         <v>0.0</v>
@@ -5285,13 +5276,13 @@
         <v>0.0</v>
       </c>
       <c r="N75" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O75" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P75" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q75" t="n" s="0">
         <v>0.0</v>
@@ -5305,20 +5296,20 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E76" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E76" t="s" s="0">
-        <v>213</v>
-      </c>
       <c r="F76" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -5326,7 +5317,7 @@
         <v>0.0</v>
       </c>
       <c r="H76" t="s" s="0">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I76" t="n" s="0">
         <v>0.0</v>
@@ -5344,13 +5335,13 @@
         <v>0.0</v>
       </c>
       <c r="N76" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O76" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P76" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q76" t="n" s="0">
         <v>0.0</v>
@@ -5364,20 +5355,20 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B77" t="s" s="0">
         <v>171</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="D77" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E77" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E77" t="s" s="0">
-        <v>209</v>
-      </c>
       <c r="F77" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -5385,7 +5376,7 @@
         <v>0.0</v>
       </c>
       <c r="H77" t="s" s="0">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I77" t="n" s="0">
         <v>0.0</v>
@@ -5403,13 +5394,13 @@
         <v>0.0</v>
       </c>
       <c r="N77" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O77" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P77" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q77" t="n" s="0">
         <v>0.0</v>
@@ -5423,20 +5414,20 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="D78" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E78" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E78" t="s" s="0">
-        <v>213</v>
-      </c>
       <c r="F78" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -5444,7 +5435,7 @@
         <v>0.0</v>
       </c>
       <c r="H78" t="s" s="0">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I78" t="n" s="0">
         <v>0.0</v>
@@ -5462,13 +5453,13 @@
         <v>0.0</v>
       </c>
       <c r="N78" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O78" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P78" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q78" t="n" s="0">
         <v>0.0</v>
@@ -5482,19 +5473,19 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E79" t="s" s="0">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="F79" t="n" s="0">
         <v>0.0</v>
@@ -5503,7 +5494,7 @@
         <v>0.0</v>
       </c>
       <c r="H79" t="s" s="0">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I79" t="n" s="0">
         <v>0.0</v>
@@ -5521,13 +5512,13 @@
         <v>0.0</v>
       </c>
       <c r="N79" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O79" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P79" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q79" t="n" s="0">
         <v>0.0</v>
@@ -5541,20 +5532,20 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="D80" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E80" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E80" t="s" s="0">
-        <v>209</v>
-      </c>
       <c r="F80" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -5562,7 +5553,7 @@
         <v>0.0</v>
       </c>
       <c r="H80" t="s" s="0">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I80" t="n" s="0">
         <v>0.0</v>
@@ -5580,13 +5571,13 @@
         <v>0.0</v>
       </c>
       <c r="N80" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O80" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P80" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q80" t="n" s="0">
         <v>0.0</v>
@@ -5600,19 +5591,19 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E81" t="s" s="0">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="F81" t="n" s="0">
         <v>0.0</v>
@@ -5621,7 +5612,7 @@
         <v>0.0</v>
       </c>
       <c r="H81" t="s" s="0">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I81" t="n" s="0">
         <v>0.0</v>
@@ -5639,13 +5630,13 @@
         <v>0.0</v>
       </c>
       <c r="N81" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O81" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P81" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q81" t="n" s="0">
         <v>0.0</v>
@@ -5659,20 +5650,20 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="D82" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E82" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E82" t="s" s="0">
-        <v>209</v>
-      </c>
       <c r="F82" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -5680,7 +5671,7 @@
         <v>0.0</v>
       </c>
       <c r="H82" t="s" s="0">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I82" t="n" s="0">
         <v>0.0</v>
@@ -5698,13 +5689,13 @@
         <v>0.0</v>
       </c>
       <c r="N82" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O82" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P82" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q82" t="n" s="0">
         <v>0.0</v>
@@ -5718,20 +5709,20 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="D83" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E83" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E83" t="s" s="0">
-        <v>213</v>
-      </c>
       <c r="F83" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -5739,7 +5730,7 @@
         <v>0.0</v>
       </c>
       <c r="H83" t="s" s="0">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I83" t="n" s="0">
         <v>0.0</v>
@@ -5757,13 +5748,13 @@
         <v>0.0</v>
       </c>
       <c r="N83" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O83" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P83" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q83" t="n" s="0">
         <v>0.0</v>
@@ -5777,20 +5768,20 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="D84" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E84" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E84" t="s" s="0">
-        <v>209</v>
-      </c>
       <c r="F84" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -5798,7 +5789,7 @@
         <v>0.0</v>
       </c>
       <c r="H84" t="s" s="0">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I84" t="n" s="0">
         <v>0.0</v>
@@ -5816,13 +5807,13 @@
         <v>0.0</v>
       </c>
       <c r="N84" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O84" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P84" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q84" t="n" s="0">
         <v>0.0</v>
@@ -5836,19 +5827,19 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="D85" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E85" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="E85" t="s" s="0">
-        <v>209</v>
       </c>
       <c r="F85" t="n" s="0">
         <v>0.0</v>
@@ -5875,13 +5866,13 @@
         <v>0.0</v>
       </c>
       <c r="N85" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O85" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P85" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q85" t="n" s="0">
         <v>0.0</v>
@@ -5898,16 +5889,16 @@
         <v>252</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E86" t="s" s="0">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="F86" t="n" s="0">
         <v>0.0</v>
@@ -5934,13 +5925,13 @@
         <v>0.0</v>
       </c>
       <c r="N86" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O86" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P86" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q86" t="n" s="0">
         <v>0.0</v>
@@ -5957,16 +5948,16 @@
         <v>254</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="D87" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E87" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="E87" t="s" s="0">
-        <v>209</v>
       </c>
       <c r="F87" t="n" s="0">
         <v>0.0</v>
@@ -5993,13 +5984,13 @@
         <v>0.0</v>
       </c>
       <c r="N87" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O87" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P87" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q87" t="n" s="0">
         <v>0.0</v>
@@ -6016,17 +6007,17 @@
         <v>256</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>188</v>
+        <v>257</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D88" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E88" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E88" t="s" s="0">
-        <v>213</v>
-      </c>
       <c r="F88" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -6034,7 +6025,7 @@
         <v>0.0</v>
       </c>
       <c r="H88" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I88" t="n" s="0">
         <v>0.0</v>
@@ -6052,13 +6043,13 @@
         <v>0.0</v>
       </c>
       <c r="N88" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O88" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P88" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q88" t="n" s="0">
         <v>0.0</v>
@@ -6072,20 +6063,20 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="D89" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E89" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E89" t="s" s="0">
-        <v>209</v>
-      </c>
       <c r="F89" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -6093,7 +6084,7 @@
         <v>0.0</v>
       </c>
       <c r="H89" t="s" s="0">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I89" t="n" s="0">
         <v>0.0</v>
@@ -6111,13 +6102,13 @@
         <v>0.0</v>
       </c>
       <c r="N89" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O89" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P89" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q89" t="n" s="0">
         <v>0.0</v>
@@ -6131,20 +6122,20 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="D90" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E90" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E90" t="s" s="0">
-        <v>209</v>
-      </c>
       <c r="F90" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -6152,7 +6143,7 @@
         <v>0.0</v>
       </c>
       <c r="H90" t="s" s="0">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I90" t="n" s="0">
         <v>0.0</v>
@@ -6170,13 +6161,13 @@
         <v>0.0</v>
       </c>
       <c r="N90" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O90" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P90" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q90" t="n" s="0">
         <v>0.0</v>
@@ -6190,19 +6181,19 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E91" t="s" s="0">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="F91" t="n" s="0">
         <v>0.0</v>
@@ -6211,7 +6202,7 @@
         <v>0.0</v>
       </c>
       <c r="H91" t="s" s="0">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I91" t="n" s="0">
         <v>0.0</v>
@@ -6229,13 +6220,13 @@
         <v>0.0</v>
       </c>
       <c r="N91" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O91" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P91" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q91" t="n" s="0">
         <v>0.0</v>
@@ -6249,20 +6240,20 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="D92" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E92" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E92" t="s" s="0">
-        <v>209</v>
-      </c>
       <c r="F92" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -6270,7 +6261,7 @@
         <v>0.0</v>
       </c>
       <c r="H92" t="s" s="0">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I92" t="n" s="0">
         <v>0.0</v>
@@ -6288,13 +6279,13 @@
         <v>0.0</v>
       </c>
       <c r="N92" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O92" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P92" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q92" t="n" s="0">
         <v>0.0</v>
@@ -6308,20 +6299,20 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D93" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E93" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E93" t="s" s="0">
-        <v>213</v>
-      </c>
       <c r="F93" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -6329,7 +6320,7 @@
         <v>0.0</v>
       </c>
       <c r="H93" t="s" s="0">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I93" t="n" s="0">
         <v>0.0</v>
@@ -6347,13 +6338,13 @@
         <v>0.0</v>
       </c>
       <c r="N93" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O93" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P93" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q93" t="n" s="0">
         <v>0.0</v>
@@ -6362,124 +6353,6 @@
         <v>0.0</v>
       </c>
       <c r="S93" t="b" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="0">
-        <v>268</v>
-      </c>
-      <c r="B94" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="C94" t="s" s="0">
-        <v>134</v>
-      </c>
-      <c r="D94" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="E94" t="s" s="0">
-        <v>209</v>
-      </c>
-      <c r="F94" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G94" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H94" t="s" s="0">
-        <v>269</v>
-      </c>
-      <c r="I94" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J94" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K94" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L94" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M94" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N94" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="O94" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="P94" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="Q94" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="R94" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="S94" t="b" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="0">
-        <v>270</v>
-      </c>
-      <c r="B95" t="s" s="0">
-        <v>212</v>
-      </c>
-      <c r="C95" t="s" s="0">
-        <v>145</v>
-      </c>
-      <c r="D95" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="E95" t="s" s="0">
-        <v>209</v>
-      </c>
-      <c r="F95" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G95" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H95" t="s" s="0">
-        <v>271</v>
-      </c>
-      <c r="I95" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J95" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K95" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L95" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M95" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N95" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="O95" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="P95" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="Q95" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="R95" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="S95" t="b" s="0">
         <v>1</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/CAMIONES.xlsx
+++ b/ProyectoPooDist/excels/CAMIONES.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="270">
   <si>
     <t>Placas</t>
   </si>
@@ -71,754 +71,757 @@
     <t>Activo</t>
   </si>
   <si>
+    <t>NYM9482</t>
+  </si>
+  <si>
+    <t>Frontier</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>EN MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>Gasolina</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LAA1053</t>
+  </si>
+  <si>
+    <t>Ranger</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>DESCOMPUESTO</t>
+  </si>
+  <si>
+    <t>Disel</t>
+  </si>
+  <si>
+    <t>16/11/2023</t>
+  </si>
+  <si>
+    <t>LZC1023</t>
+  </si>
+  <si>
+    <t>Tacoma</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>18/11/2023</t>
+  </si>
+  <si>
+    <t>AZX4081</t>
+  </si>
+  <si>
+    <t>Ram 1500</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>FUNCIONAL</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>19/11/2023</t>
+  </si>
+  <si>
+    <t>GHI123</t>
+  </si>
+  <si>
+    <t>X23</t>
+  </si>
+  <si>
+    <t>Renault</t>
+  </si>
+  <si>
+    <t>10/10/1997</t>
+  </si>
+  <si>
+    <t>VWX234</t>
+  </si>
+  <si>
+    <t>H800</t>
+  </si>
+  <si>
+    <t>10/10/1999</t>
+  </si>
+  <si>
+    <t>BCD890</t>
+  </si>
+  <si>
+    <t>J1000</t>
+  </si>
+  <si>
+    <t>Freightliner</t>
+  </si>
+  <si>
+    <t>10/10/2001</t>
+  </si>
+  <si>
+    <t>JKL890</t>
+  </si>
+  <si>
+    <t>M1300</t>
+  </si>
+  <si>
+    <t>Kenworth</t>
+  </si>
+  <si>
+    <t>10/10/2002</t>
+  </si>
+  <si>
+    <t>NOP123</t>
+  </si>
+  <si>
+    <t>N1400</t>
+  </si>
+  <si>
+    <t>Mack</t>
+  </si>
+  <si>
+    <t>10/10/2003</t>
+  </si>
+  <si>
+    <t>QRS456</t>
+  </si>
+  <si>
+    <t>O1500</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>10/10/2004</t>
+  </si>
+  <si>
+    <t>STU789</t>
+  </si>
+  <si>
+    <t>P1600</t>
+  </si>
+  <si>
+    <t>10/10/2005</t>
+  </si>
+  <si>
+    <t>TUV012</t>
+  </si>
+  <si>
+    <t>1700.0</t>
+  </si>
+  <si>
+    <t>Volvo</t>
+  </si>
+  <si>
+    <t>10/10/2006</t>
+  </si>
+  <si>
+    <t>VWX345</t>
+  </si>
+  <si>
+    <t>R1800</t>
+  </si>
+  <si>
+    <t>Hino</t>
+  </si>
+  <si>
+    <t>10/10/2007</t>
+  </si>
+  <si>
+    <t>XYZ678</t>
+  </si>
+  <si>
+    <t>S1900</t>
+  </si>
+  <si>
+    <t>10/10/2008</t>
+  </si>
+  <si>
+    <t>ABC901</t>
+  </si>
+  <si>
+    <t>T2000</t>
+  </si>
+  <si>
+    <t>10/10/2009</t>
+  </si>
+  <si>
+    <t>GHI567</t>
+  </si>
+  <si>
+    <t>V2200</t>
+  </si>
+  <si>
+    <t>10/10/2010</t>
+  </si>
+  <si>
+    <t>XYZ234</t>
+  </si>
+  <si>
+    <t>X250</t>
+  </si>
+  <si>
+    <t>Tata</t>
+  </si>
+  <si>
+    <t>10/10/2011</t>
+  </si>
+  <si>
+    <t>DEF567</t>
+  </si>
+  <si>
+    <t>Y260</t>
+  </si>
+  <si>
+    <t>Fuso</t>
+  </si>
+  <si>
+    <t>10/10/2012</t>
+  </si>
+  <si>
+    <t>GHI890</t>
+  </si>
+  <si>
+    <t>Z270</t>
+  </si>
+  <si>
+    <t>Iveco</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>JKL123</t>
+  </si>
+  <si>
+    <t>A280</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>10/10/2014</t>
+  </si>
+  <si>
+    <t>MNO456</t>
+  </si>
+  <si>
+    <t>B290</t>
+  </si>
+  <si>
+    <t>DAF</t>
+  </si>
+  <si>
+    <t>10/10/2015</t>
+  </si>
+  <si>
+    <t>PQR789</t>
+  </si>
+  <si>
+    <t>C300</t>
+  </si>
+  <si>
+    <t>Scania</t>
+  </si>
+  <si>
+    <t>10/10/2016</t>
+  </si>
+  <si>
+    <t>ASDSA1</t>
+  </si>
+  <si>
+    <t>Versa</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>ASDSAD1</t>
+  </si>
+  <si>
+    <t>321j</t>
+  </si>
+  <si>
+    <t>nisssa</t>
+  </si>
+  <si>
+    <t>10/10/2018</t>
+  </si>
+  <si>
+    <t>AS12</t>
+  </si>
+  <si>
+    <t>SADSA1</t>
+  </si>
+  <si>
+    <t>NISSAA</t>
+  </si>
+  <si>
+    <t>10/10/2019</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>DSA21</t>
+  </si>
+  <si>
+    <t>S122</t>
+  </si>
+  <si>
+    <t>10/10/2021</t>
+  </si>
+  <si>
+    <t>ASD1</t>
+  </si>
+  <si>
+    <t>SAD1</t>
+  </si>
+  <si>
+    <t>11/10/2021</t>
+  </si>
+  <si>
+    <t>P123GRV</t>
+  </si>
+  <si>
+    <t>Cs</t>
+  </si>
+  <si>
+    <t>12/10/2021</t>
+  </si>
+  <si>
+    <t>P021WWH</t>
+  </si>
+  <si>
+    <t>VOLVO</t>
+  </si>
+  <si>
+    <t>NISSAN</t>
+  </si>
+  <si>
+    <t>13/10/2021</t>
+  </si>
+  <si>
+    <t>ASD12</t>
+  </si>
+  <si>
+    <t>SAD12</t>
+  </si>
+  <si>
+    <t>14/10/2021</t>
+  </si>
+  <si>
+    <t>PXKA21</t>
+  </si>
+  <si>
+    <t>L20</t>
+  </si>
+  <si>
+    <t>MACRAX</t>
+  </si>
+  <si>
+    <t>15/10/2021</t>
+  </si>
+  <si>
+    <t>AS5A51</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>16/10/2021</t>
+  </si>
+  <si>
+    <t>W554PGN</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>17/10/2021</t>
+  </si>
+  <si>
+    <t>DEF123</t>
+  </si>
+  <si>
+    <t>X22</t>
+  </si>
+  <si>
+    <t>18/10/2021</t>
+  </si>
+  <si>
+    <t>XYZ123</t>
+  </si>
+  <si>
+    <t>A100</t>
+  </si>
+  <si>
+    <t>Isuzu</t>
+  </si>
+  <si>
+    <t>10/10/1998</t>
+  </si>
+  <si>
+    <t>USA123</t>
+  </si>
+  <si>
+    <t>F150</t>
+  </si>
+  <si>
+    <t>USA456</t>
+  </si>
+  <si>
+    <t>Ram1500</t>
+  </si>
+  <si>
+    <t>USA789</t>
+  </si>
+  <si>
+    <t>Silverado</t>
+  </si>
+  <si>
+    <t>Chevrolet</t>
+  </si>
+  <si>
+    <t>TXA123</t>
+  </si>
+  <si>
+    <t>Tundra</t>
+  </si>
+  <si>
+    <t>TXA234</t>
+  </si>
+  <si>
+    <t>Sierra</t>
+  </si>
+  <si>
+    <t>GMC</t>
+  </si>
+  <si>
+    <t>FLB123</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>FLB456</t>
+  </si>
+  <si>
+    <t>F250</t>
+  </si>
+  <si>
+    <t>FLB789</t>
+  </si>
+  <si>
+    <t>Ram2500</t>
+  </si>
+  <si>
+    <t>CAL123</t>
+  </si>
+  <si>
+    <t>Silverado HD</t>
+  </si>
+  <si>
+    <t>CAL456</t>
+  </si>
+  <si>
+    <t>NYA123</t>
+  </si>
+  <si>
+    <t>Sierra HD</t>
+  </si>
+  <si>
+    <t>NYA456</t>
+  </si>
+  <si>
+    <t>TXB123</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>TXB234</t>
+  </si>
+  <si>
+    <t>MIA123</t>
+  </si>
+  <si>
+    <t>Gladiator</t>
+  </si>
+  <si>
+    <t>Jeep</t>
+  </si>
+  <si>
+    <t>MIA456</t>
+  </si>
+  <si>
+    <t>LAS123</t>
+  </si>
+  <si>
+    <t>F350</t>
+  </si>
+  <si>
+    <t>LAS234</t>
+  </si>
+  <si>
+    <t>Ram3500</t>
+  </si>
+  <si>
+    <t>AZC123</t>
+  </si>
+  <si>
+    <t>10/10/2022</t>
+  </si>
+  <si>
+    <t>AZC456</t>
+  </si>
+  <si>
+    <t>10/10/2023</t>
+  </si>
+  <si>
+    <t>COA123</t>
+  </si>
+  <si>
+    <t>F450</t>
+  </si>
+  <si>
+    <t>11/10/2023</t>
+  </si>
+  <si>
+    <t>COA234</t>
+  </si>
+  <si>
+    <t>Titan XD</t>
+  </si>
+  <si>
+    <t>12/10/2023</t>
+  </si>
+  <si>
+    <t>ORB123</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>ORB234</t>
+  </si>
+  <si>
+    <t>Ram4500</t>
+  </si>
+  <si>
+    <t>14/10/2023</t>
+  </si>
+  <si>
+    <t>WAA123</t>
+  </si>
+  <si>
+    <t>15/10/2023</t>
+  </si>
+  <si>
+    <t>WAA234</t>
+  </si>
+  <si>
+    <t>16/10/2023</t>
+  </si>
+  <si>
+    <t>WAB123</t>
+  </si>
+  <si>
+    <t>F550</t>
+  </si>
+  <si>
+    <t>17/10/2023</t>
+  </si>
+  <si>
+    <t>WAB234</t>
+  </si>
+  <si>
+    <t>18/10/2023</t>
+  </si>
+  <si>
+    <t>IDA123</t>
+  </si>
+  <si>
+    <t>19/10/2023</t>
+  </si>
+  <si>
+    <t>IDA234</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>GAT9901</t>
+  </si>
+  <si>
+    <t>21/10/2023</t>
+  </si>
+  <si>
+    <t>TXM5489</t>
+  </si>
+  <si>
+    <t>22/10/2023</t>
+  </si>
+  <si>
+    <t>FLZ2034</t>
+  </si>
+  <si>
+    <t>23/10/2023</t>
+  </si>
+  <si>
+    <t>CAL1223</t>
+  </si>
+  <si>
+    <t>24/10/2023</t>
+  </si>
+  <si>
+    <t>NYG4578</t>
+  </si>
+  <si>
+    <t>25/10/2023</t>
+  </si>
+  <si>
+    <t>LAA5621</t>
+  </si>
+  <si>
+    <t>26/10/2023</t>
+  </si>
+  <si>
+    <t>WAM4523</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>ARK9230</t>
+  </si>
+  <si>
+    <t>28/10/2023</t>
+  </si>
+  <si>
+    <t>GAA7601</t>
+  </si>
+  <si>
+    <t>29/10/2023</t>
+  </si>
+  <si>
+    <t>ORT1053</t>
+  </si>
+  <si>
+    <t>30/10/2023</t>
+  </si>
+  <si>
+    <t>UTZ5829</t>
+  </si>
+  <si>
+    <t>31/10/2023</t>
+  </si>
+  <si>
+    <t>NYZ7450</t>
+  </si>
+  <si>
+    <t>01/11/2023</t>
+  </si>
+  <si>
+    <t>MNH2492</t>
+  </si>
+  <si>
+    <t>02/11/2023</t>
+  </si>
+  <si>
+    <t>TXQ4028</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>FLT1034</t>
+  </si>
+  <si>
+    <t>04/11/2023</t>
+  </si>
+  <si>
+    <t>TXK2901</t>
+  </si>
+  <si>
+    <t>05/11/2023</t>
+  </si>
+  <si>
+    <t>FLC3123</t>
+  </si>
+  <si>
+    <t>06/11/2023</t>
+  </si>
+  <si>
+    <t>NCM5072</t>
+  </si>
+  <si>
+    <t>07/11/2023</t>
+  </si>
+  <si>
+    <t>OKT2051</t>
+  </si>
+  <si>
+    <t>08/11/2023</t>
+  </si>
+  <si>
+    <t>CAL7643</t>
+  </si>
+  <si>
+    <t>Ram 2500</t>
+  </si>
+  <si>
+    <t>09/11/2023</t>
+  </si>
+  <si>
+    <t>NYA3092</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>TXP2943</t>
+  </si>
+  <si>
+    <t>11/11/2023</t>
+  </si>
+  <si>
+    <t>ORA8321</t>
+  </si>
+  <si>
+    <t>12/11/2023</t>
+  </si>
+  <si>
+    <t>PAX1902</t>
+  </si>
+  <si>
+    <t>13/11/2023</t>
+  </si>
+  <si>
+    <t>NCM4512</t>
+  </si>
+  <si>
+    <t>14/11/2023</t>
+  </si>
+  <si>
     <t>FLP8701</t>
   </si>
   <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Chevrolet</t>
-  </si>
-  <si>
-    <t>INACTIVO</t>
-  </si>
-  <si>
-    <t>Diesel</t>
-  </si>
-  <si>
     <t>15/11/2023</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>LAA1053</t>
-  </si>
-  <si>
-    <t>Ranger</t>
-  </si>
-  <si>
-    <t>Ford</t>
-  </si>
-  <si>
-    <t>16/11/2023</t>
-  </si>
-  <si>
-    <t>NYM9482</t>
-  </si>
-  <si>
-    <t>Frontier</t>
-  </si>
-  <si>
-    <t>Nissan</t>
-  </si>
-  <si>
-    <t>Gasolina</t>
-  </si>
-  <si>
-    <t>17/11/2023</t>
-  </si>
-  <si>
-    <t>LZC1023</t>
-  </si>
-  <si>
-    <t>Tacoma</t>
-  </si>
-  <si>
-    <t>Toyota</t>
-  </si>
-  <si>
-    <t>18/11/2023</t>
-  </si>
-  <si>
-    <t>AZX4081</t>
-  </si>
-  <si>
-    <t>Ram 1500</t>
-  </si>
-  <si>
-    <t>RAM</t>
-  </si>
-  <si>
-    <t>19/11/2023</t>
-  </si>
-  <si>
-    <t>GHI123</t>
-  </si>
-  <si>
-    <t>X23</t>
-  </si>
-  <si>
-    <t>Renault</t>
-  </si>
-  <si>
-    <t>FUNCIONAL</t>
-  </si>
-  <si>
-    <t>Disel</t>
-  </si>
-  <si>
-    <t>10/10/1997</t>
-  </si>
-  <si>
-    <t>VWX234</t>
-  </si>
-  <si>
-    <t>H800</t>
-  </si>
-  <si>
-    <t>10/10/1999</t>
-  </si>
-  <si>
-    <t>BCD890</t>
-  </si>
-  <si>
-    <t>J1000</t>
-  </si>
-  <si>
-    <t>Freightliner</t>
-  </si>
-  <si>
-    <t>10/10/2001</t>
-  </si>
-  <si>
-    <t>JKL890</t>
-  </si>
-  <si>
-    <t>M1300</t>
-  </si>
-  <si>
-    <t>Kenworth</t>
-  </si>
-  <si>
-    <t>10/10/2002</t>
-  </si>
-  <si>
-    <t>NOP123</t>
-  </si>
-  <si>
-    <t>N1400</t>
-  </si>
-  <si>
-    <t>Mack</t>
-  </si>
-  <si>
-    <t>10/10/2003</t>
-  </si>
-  <si>
-    <t>QRS456</t>
-  </si>
-  <si>
-    <t>O1500</t>
-  </si>
-  <si>
-    <t>International</t>
-  </si>
-  <si>
-    <t>10/10/2004</t>
-  </si>
-  <si>
-    <t>STU789</t>
-  </si>
-  <si>
-    <t>P1600</t>
-  </si>
-  <si>
-    <t>10/10/2005</t>
-  </si>
-  <si>
-    <t>TUV012</t>
-  </si>
-  <si>
-    <t>1700.0</t>
-  </si>
-  <si>
-    <t>Volvo</t>
-  </si>
-  <si>
-    <t>10/10/2006</t>
-  </si>
-  <si>
-    <t>VWX345</t>
-  </si>
-  <si>
-    <t>R1800</t>
-  </si>
-  <si>
-    <t>Hino</t>
-  </si>
-  <si>
-    <t>10/10/2007</t>
-  </si>
-  <si>
-    <t>XYZ678</t>
-  </si>
-  <si>
-    <t>S1900</t>
-  </si>
-  <si>
-    <t>10/10/2008</t>
-  </si>
-  <si>
-    <t>ABC901</t>
-  </si>
-  <si>
-    <t>T2000</t>
-  </si>
-  <si>
-    <t>10/10/2009</t>
-  </si>
-  <si>
-    <t>GHI567</t>
-  </si>
-  <si>
-    <t>V2200</t>
-  </si>
-  <si>
-    <t>10/10/2010</t>
-  </si>
-  <si>
-    <t>XYZ234</t>
-  </si>
-  <si>
-    <t>X250</t>
-  </si>
-  <si>
-    <t>Tata</t>
-  </si>
-  <si>
-    <t>10/10/2011</t>
-  </si>
-  <si>
-    <t>DEF567</t>
-  </si>
-  <si>
-    <t>Y260</t>
-  </si>
-  <si>
-    <t>Fuso</t>
-  </si>
-  <si>
-    <t>10/10/2012</t>
-  </si>
-  <si>
-    <t>GHI890</t>
-  </si>
-  <si>
-    <t>Z270</t>
-  </si>
-  <si>
-    <t>Iveco</t>
-  </si>
-  <si>
-    <t>10/10/2013</t>
-  </si>
-  <si>
-    <t>JKL123</t>
-  </si>
-  <si>
-    <t>A280</t>
-  </si>
-  <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>10/10/2014</t>
-  </si>
-  <si>
-    <t>MNO456</t>
-  </si>
-  <si>
-    <t>B290</t>
-  </si>
-  <si>
-    <t>DAF</t>
-  </si>
-  <si>
-    <t>10/10/2015</t>
-  </si>
-  <si>
-    <t>PQR789</t>
-  </si>
-  <si>
-    <t>C300</t>
-  </si>
-  <si>
-    <t>Scania</t>
-  </si>
-  <si>
-    <t>10/10/2016</t>
-  </si>
-  <si>
-    <t>ASDSA1</t>
-  </si>
-  <si>
-    <t>Versa</t>
-  </si>
-  <si>
-    <t>10/10/2017</t>
-  </si>
-  <si>
-    <t>ASDSAD1</t>
-  </si>
-  <si>
-    <t>321j</t>
-  </si>
-  <si>
-    <t>nisssa</t>
-  </si>
-  <si>
-    <t>10/10/2018</t>
-  </si>
-  <si>
-    <t>AS12</t>
-  </si>
-  <si>
-    <t>SADSA1</t>
-  </si>
-  <si>
-    <t>NISSAA</t>
-  </si>
-  <si>
-    <t>10/10/2019</t>
-  </si>
-  <si>
-    <t>10/10/2020</t>
-  </si>
-  <si>
-    <t>DSA21</t>
-  </si>
-  <si>
-    <t>S122</t>
-  </si>
-  <si>
-    <t>10/10/2021</t>
-  </si>
-  <si>
-    <t>ASD1</t>
-  </si>
-  <si>
-    <t>SAD1</t>
-  </si>
-  <si>
-    <t>11/10/2021</t>
-  </si>
-  <si>
-    <t>P123GRV</t>
-  </si>
-  <si>
-    <t>Cs</t>
-  </si>
-  <si>
-    <t>12/10/2021</t>
-  </si>
-  <si>
-    <t>P021WWH</t>
-  </si>
-  <si>
-    <t>VOLVO</t>
-  </si>
-  <si>
-    <t>NISSAN</t>
-  </si>
-  <si>
-    <t>13/10/2021</t>
-  </si>
-  <si>
-    <t>ASD12</t>
-  </si>
-  <si>
-    <t>SAD12</t>
-  </si>
-  <si>
-    <t>14/10/2021</t>
-  </si>
-  <si>
-    <t>PXKA21</t>
-  </si>
-  <si>
-    <t>L20</t>
-  </si>
-  <si>
-    <t>MACRAX</t>
-  </si>
-  <si>
-    <t>15/10/2021</t>
-  </si>
-  <si>
-    <t>AS5A51</t>
-  </si>
-  <si>
-    <t>X20</t>
-  </si>
-  <si>
-    <t>16/10/2021</t>
-  </si>
-  <si>
-    <t>W554PGN</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>17/10/2021</t>
-  </si>
-  <si>
-    <t>DEF123</t>
-  </si>
-  <si>
-    <t>X22</t>
-  </si>
-  <si>
-    <t>18/10/2021</t>
-  </si>
-  <si>
-    <t>XYZ123</t>
-  </si>
-  <si>
-    <t>A100</t>
-  </si>
-  <si>
-    <t>Isuzu</t>
-  </si>
-  <si>
-    <t>10/10/1998</t>
-  </si>
-  <si>
-    <t>USA123</t>
-  </si>
-  <si>
-    <t>F150</t>
-  </si>
-  <si>
-    <t>USA456</t>
-  </si>
-  <si>
-    <t>Ram1500</t>
-  </si>
-  <si>
-    <t>USA789</t>
-  </si>
-  <si>
-    <t>Silverado</t>
-  </si>
-  <si>
-    <t>TXA123</t>
-  </si>
-  <si>
-    <t>Tundra</t>
-  </si>
-  <si>
-    <t>TXA234</t>
-  </si>
-  <si>
-    <t>Sierra</t>
-  </si>
-  <si>
-    <t>GMC</t>
-  </si>
-  <si>
-    <t>FLB123</t>
-  </si>
-  <si>
-    <t>Titan</t>
-  </si>
-  <si>
-    <t>FLB456</t>
-  </si>
-  <si>
-    <t>F250</t>
-  </si>
-  <si>
-    <t>FLB789</t>
-  </si>
-  <si>
-    <t>Ram2500</t>
-  </si>
-  <si>
-    <t>CAL123</t>
-  </si>
-  <si>
-    <t>Silverado HD</t>
-  </si>
-  <si>
-    <t>CAL456</t>
-  </si>
-  <si>
-    <t>NYA123</t>
-  </si>
-  <si>
-    <t>Sierra HD</t>
-  </si>
-  <si>
-    <t>NYA456</t>
-  </si>
-  <si>
-    <t>TXB123</t>
-  </si>
-  <si>
-    <t>TXB234</t>
-  </si>
-  <si>
-    <t>MIA123</t>
-  </si>
-  <si>
-    <t>Gladiator</t>
-  </si>
-  <si>
-    <t>Jeep</t>
-  </si>
-  <si>
-    <t>MIA456</t>
-  </si>
-  <si>
-    <t>LAS123</t>
-  </si>
-  <si>
-    <t>F350</t>
-  </si>
-  <si>
-    <t>LAS234</t>
-  </si>
-  <si>
-    <t>Ram3500</t>
-  </si>
-  <si>
-    <t>AZC123</t>
-  </si>
-  <si>
-    <t>10/10/2022</t>
-  </si>
-  <si>
-    <t>AZC456</t>
-  </si>
-  <si>
-    <t>10/10/2023</t>
-  </si>
-  <si>
-    <t>COA123</t>
-  </si>
-  <si>
-    <t>F450</t>
-  </si>
-  <si>
-    <t>11/10/2023</t>
-  </si>
-  <si>
-    <t>COA234</t>
-  </si>
-  <si>
-    <t>Titan XD</t>
-  </si>
-  <si>
-    <t>12/10/2023</t>
-  </si>
-  <si>
-    <t>ORB123</t>
-  </si>
-  <si>
-    <t>13/10/2023</t>
-  </si>
-  <si>
-    <t>ORB234</t>
-  </si>
-  <si>
-    <t>Ram4500</t>
-  </si>
-  <si>
-    <t>14/10/2023</t>
-  </si>
-  <si>
-    <t>WAA123</t>
-  </si>
-  <si>
-    <t>15/10/2023</t>
-  </si>
-  <si>
-    <t>WAA234</t>
-  </si>
-  <si>
-    <t>16/10/2023</t>
-  </si>
-  <si>
-    <t>WAB123</t>
-  </si>
-  <si>
-    <t>F550</t>
-  </si>
-  <si>
-    <t>17/10/2023</t>
-  </si>
-  <si>
-    <t>WAB234</t>
-  </si>
-  <si>
-    <t>18/10/2023</t>
-  </si>
-  <si>
-    <t>IDA123</t>
-  </si>
-  <si>
-    <t>19/10/2023</t>
-  </si>
-  <si>
-    <t>IDA234</t>
-  </si>
-  <si>
-    <t>20/10/2023</t>
-  </si>
-  <si>
-    <t>GAT9901</t>
-  </si>
-  <si>
-    <t>21/10/2023</t>
-  </si>
-  <si>
-    <t>TXM5489</t>
-  </si>
-  <si>
-    <t>22/10/2023</t>
-  </si>
-  <si>
-    <t>FLZ2034</t>
-  </si>
-  <si>
-    <t>23/10/2023</t>
-  </si>
-  <si>
-    <t>CAL1223</t>
-  </si>
-  <si>
-    <t>24/10/2023</t>
-  </si>
-  <si>
-    <t>NYG4578</t>
-  </si>
-  <si>
-    <t>25/10/2023</t>
-  </si>
-  <si>
-    <t>LAA5621</t>
-  </si>
-  <si>
-    <t>26/10/2023</t>
-  </si>
-  <si>
-    <t>WAM4523</t>
-  </si>
-  <si>
-    <t>27/10/2023</t>
-  </si>
-  <si>
-    <t>ARK9230</t>
-  </si>
-  <si>
-    <t>28/10/2023</t>
-  </si>
-  <si>
-    <t>GAA7601</t>
-  </si>
-  <si>
-    <t>29/10/2023</t>
-  </si>
-  <si>
-    <t>ORT1053</t>
-  </si>
-  <si>
-    <t>30/10/2023</t>
-  </si>
-  <si>
-    <t>UTZ5829</t>
-  </si>
-  <si>
-    <t>31/10/2023</t>
-  </si>
-  <si>
-    <t>NYZ7450</t>
-  </si>
-  <si>
-    <t>01/11/2023</t>
-  </si>
-  <si>
-    <t>MNH2492</t>
-  </si>
-  <si>
-    <t>02/11/2023</t>
-  </si>
-  <si>
-    <t>TXQ4028</t>
-  </si>
-  <si>
-    <t>03/11/2023</t>
-  </si>
-  <si>
-    <t>FLT1034</t>
-  </si>
-  <si>
-    <t>04/11/2023</t>
-  </si>
-  <si>
-    <t>TXK2901</t>
-  </si>
-  <si>
-    <t>05/11/2023</t>
-  </si>
-  <si>
-    <t>FLC3123</t>
-  </si>
-  <si>
-    <t>06/11/2023</t>
-  </si>
-  <si>
-    <t>NCM5072</t>
-  </si>
-  <si>
-    <t>07/11/2023</t>
-  </si>
-  <si>
-    <t>OKT2051</t>
-  </si>
-  <si>
-    <t>08/11/2023</t>
-  </si>
-  <si>
-    <t>CAL7643</t>
-  </si>
-  <si>
-    <t>Ram 2500</t>
-  </si>
-  <si>
-    <t>09/11/2023</t>
-  </si>
-  <si>
-    <t>NYA3092</t>
-  </si>
-  <si>
-    <t>10/11/2023</t>
-  </si>
-  <si>
-    <t>TXP2943</t>
-  </si>
-  <si>
-    <t>11/11/2023</t>
-  </si>
-  <si>
-    <t>ORA8321</t>
-  </si>
-  <si>
-    <t>12/11/2023</t>
-  </si>
-  <si>
-    <t>PAX1902</t>
-  </si>
-  <si>
-    <t>13/11/2023</t>
-  </si>
-  <si>
-    <t>NCM4512</t>
-  </si>
-  <si>
-    <t>14/11/2023</t>
   </si>
 </sst>
 </file>
@@ -948,7 +951,7 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>0.0</v>
+        <v>111.0</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>24</v>
@@ -984,7 +987,7 @@
         <v>0.0</v>
       </c>
       <c r="S2" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -998,19 +1001,19 @@
         <v>28</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>0.0</v>
+        <v>111.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>0.0</v>
+        <v>111.0</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3" t="n" s="0">
         <v>0.0</v>
@@ -1043,33 +1046,33 @@
         <v>0.0</v>
       </c>
       <c r="S3" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>22</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>0.0</v>
+        <v>111.0</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4" t="n" s="0">
         <v>0.0</v>
@@ -1102,24 +1105,24 @@
         <v>0.0</v>
       </c>
       <c r="S4" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F5" t="n" s="0">
         <v>0.0</v>
@@ -1128,7 +1131,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I5" t="n" s="0">
         <v>0.0</v>
@@ -1161,24 +1164,24 @@
         <v>0.0</v>
       </c>
       <c r="S5" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" t="n" s="0">
         <v>0.0</v>
@@ -1187,16 +1190,16 @@
         <v>0.0</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I6" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="L6" t="n" s="0">
         <v>0.0</v>
@@ -1214,30 +1217,30 @@
         <v>25</v>
       </c>
       <c r="Q6" t="n" s="0">
-        <v>0.0</v>
+        <v>120.0</v>
       </c>
       <c r="R6" t="n" s="0">
-        <v>0.0</v>
+        <v>120.0</v>
       </c>
       <c r="S6" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F7" t="n" s="0">
         <v>0.0</v>
@@ -1249,13 +1252,13 @@
         <v>48</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>0.0</v>
+        <v>111.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="L7" t="n" s="0">
         <v>0.0</v>
@@ -1273,10 +1276,10 @@
         <v>25</v>
       </c>
       <c r="Q7" t="n" s="0">
-        <v>120.0</v>
+        <v>111.0</v>
       </c>
       <c r="R7" t="n" s="0">
-        <v>120.0</v>
+        <v>0.0</v>
       </c>
       <c r="S7" t="b" s="0">
         <v>1</v>
@@ -1290,13 +1293,13 @@
         <v>50</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n" s="0">
         <v>0.0</v>
@@ -1305,10 +1308,10 @@
         <v>0.0</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>111.0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" t="n" s="0">
         <v>0.0</v>
@@ -1332,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="Q8" t="n" s="0">
-        <v>111.0</v>
+        <v>0.0</v>
       </c>
       <c r="R8" t="n" s="0">
         <v>0.0</v>
@@ -1343,19 +1346,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F9" t="n" s="0">
         <v>0.0</v>
@@ -1364,7 +1367,7 @@
         <v>0.0</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I9" t="n" s="0">
         <v>0.0</v>
@@ -1402,19 +1405,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F10" t="n" s="0">
         <v>0.0</v>
@@ -1423,7 +1426,7 @@
         <v>0.0</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10" t="n" s="0">
         <v>0.0</v>
@@ -1461,19 +1464,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F11" t="n" s="0">
         <v>0.0</v>
@@ -1482,7 +1485,7 @@
         <v>0.0</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I11" t="n" s="0">
         <v>0.0</v>
@@ -1520,19 +1523,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F12" t="n" s="0">
         <v>0.0</v>
@@ -1585,13 +1588,13 @@
         <v>69</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F13" t="n" s="0">
         <v>0.0</v>
@@ -1600,7 +1603,7 @@
         <v>0.0</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" t="n" s="0">
         <v>0.0</v>
@@ -1638,19 +1641,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F14" t="n" s="0">
         <v>0.0</v>
@@ -1659,7 +1662,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" t="n" s="0">
         <v>0.0</v>
@@ -1697,19 +1700,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F15" t="n" s="0">
         <v>0.0</v>
@@ -1762,13 +1765,13 @@
         <v>80</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F16" t="n" s="0">
         <v>0.0</v>
@@ -1821,13 +1824,13 @@
         <v>83</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F17" t="n" s="0">
         <v>0.0</v>
@@ -1880,13 +1883,13 @@
         <v>86</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F18" t="n" s="0">
         <v>0.0</v>
@@ -1895,7 +1898,7 @@
         <v>0.0</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I18" t="n" s="0">
         <v>0.0</v>
@@ -1933,19 +1936,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F19" t="n" s="0">
         <v>0.0</v>
@@ -1954,7 +1957,7 @@
         <v>0.0</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I19" t="n" s="0">
         <v>0.0</v>
@@ -1992,19 +1995,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F20" t="n" s="0">
         <v>0.0</v>
@@ -2013,7 +2016,7 @@
         <v>0.0</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I20" t="n" s="0">
         <v>0.0</v>
@@ -2051,19 +2054,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F21" t="n" s="0">
         <v>0.0</v>
@@ -2072,7 +2075,7 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I21" t="n" s="0">
         <v>0.0</v>
@@ -2110,19 +2113,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F22" t="n" s="0">
         <v>0.0</v>
@@ -2131,7 +2134,7 @@
         <v>0.0</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I22" t="n" s="0">
         <v>0.0</v>
@@ -2169,19 +2172,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F23" t="n" s="0">
         <v>0.0</v>
@@ -2190,7 +2193,7 @@
         <v>0.0</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I23" t="n" s="0">
         <v>0.0</v>
@@ -2228,19 +2231,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F24" t="n" s="0">
         <v>0.0</v>
@@ -2293,13 +2296,13 @@
         <v>113</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F25" t="n" s="0">
         <v>0.0</v>
@@ -2308,7 +2311,7 @@
         <v>0.0</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I25" t="n" s="0">
         <v>0.0</v>
@@ -2346,19 +2349,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F26" t="n" s="0">
         <v>0.0</v>
@@ -2367,7 +2370,7 @@
         <v>0.0</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I26" t="n" s="0">
         <v>0.0</v>
@@ -2405,28 +2408,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F27" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G27" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H27" t="s" s="0">
         <v>120</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="D27" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="E27" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="F27" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G27" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H27" t="s" s="0">
-        <v>122</v>
       </c>
       <c r="I27" t="n" s="0">
         <v>0.0</v>
@@ -2464,19 +2467,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F28" t="n" s="0">
         <v>0.0</v>
@@ -2523,19 +2526,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>125</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F29" t="n" s="0">
         <v>0.0</v>
@@ -2585,16 +2588,16 @@
         <v>127</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F30" t="n" s="0">
         <v>0.0</v>
@@ -2647,13 +2650,13 @@
         <v>131</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F31" t="n" s="0">
         <v>0.0</v>
@@ -2662,7 +2665,7 @@
         <v>0.0</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I31" t="n" s="0">
         <v>0.0</v>
@@ -2700,19 +2703,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>135</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F32" t="n" s="0">
         <v>0.0</v>
@@ -2762,16 +2765,16 @@
         <v>137</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F33" t="n" s="0">
         <v>0.0</v>
@@ -2780,7 +2783,7 @@
         <v>0.0</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I33" t="n" s="0">
         <v>0.0</v>
@@ -2818,19 +2821,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F34" t="n" s="0">
         <v>0.0</v>
@@ -2883,13 +2886,13 @@
         <v>145</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F35" t="n" s="0">
         <v>0.0</v>
@@ -2942,13 +2945,13 @@
         <v>148</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F36" t="n" s="0">
         <v>0.0</v>
@@ -3001,13 +3004,13 @@
         <v>151</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F37" t="n" s="0">
         <v>0.0</v>
@@ -3016,7 +3019,7 @@
         <v>0.0</v>
       </c>
       <c r="H37" t="s" s="0">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I37" t="n" s="0">
         <v>0.0</v>
@@ -3054,19 +3057,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F38" t="n" s="0">
         <v>0.0</v>
@@ -3075,7 +3078,7 @@
         <v>0.0</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="I38" t="n" s="0">
         <v>0.0</v>
@@ -3113,19 +3116,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B39" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="B39" t="s" s="0">
-        <v>158</v>
-      </c>
       <c r="C39" t="s" s="0">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F39" t="n" s="0">
         <v>0.0</v>
@@ -3172,19 +3175,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B40" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="B40" t="s" s="0">
+      <c r="C40" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="C40" t="s" s="0">
-        <v>41</v>
-      </c>
       <c r="D40" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F40" t="n" s="0">
         <v>0.0</v>
@@ -3193,7 +3196,7 @@
         <v>0.0</v>
       </c>
       <c r="H40" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I40" t="n" s="0">
         <v>0.0</v>
@@ -3237,13 +3240,13 @@
         <v>162</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F41" t="n" s="0">
         <v>0.0</v>
@@ -3252,7 +3255,7 @@
         <v>0.0</v>
       </c>
       <c r="H41" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I41" t="n" s="0">
         <v>0.0</v>
@@ -3296,13 +3299,13 @@
         <v>164</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F42" t="n" s="0">
         <v>0.0</v>
@@ -3349,19 +3352,19 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F43" t="n" s="0">
         <v>0.0</v>
@@ -3414,13 +3417,13 @@
         <v>169</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F44" t="n" s="0">
         <v>0.0</v>
@@ -3473,13 +3476,13 @@
         <v>171</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F45" t="n" s="0">
         <v>0.0</v>
@@ -3488,7 +3491,7 @@
         <v>0.0</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I45" t="n" s="0">
         <v>0.0</v>
@@ -3532,13 +3535,13 @@
         <v>173</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F46" t="n" s="0">
         <v>0.0</v>
@@ -3547,7 +3550,7 @@
         <v>0.0</v>
       </c>
       <c r="H46" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I46" t="n" s="0">
         <v>0.0</v>
@@ -3588,16 +3591,16 @@
         <v>174</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F47" t="n" s="0">
         <v>0.0</v>
@@ -3606,7 +3609,7 @@
         <v>0.0</v>
       </c>
       <c r="H47" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I47" t="n" s="0">
         <v>0.0</v>
@@ -3644,19 +3647,19 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B48" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="B48" t="s" s="0">
-        <v>36</v>
-      </c>
       <c r="C48" t="s" s="0">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F48" t="n" s="0">
         <v>0.0</v>
@@ -3665,7 +3668,7 @@
         <v>0.0</v>
       </c>
       <c r="H48" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I48" t="n" s="0">
         <v>0.0</v>
@@ -3706,16 +3709,16 @@
         <v>177</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F49" t="n" s="0">
         <v>0.0</v>
@@ -3724,7 +3727,7 @@
         <v>0.0</v>
       </c>
       <c r="H49" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I49" t="n" s="0">
         <v>0.0</v>
@@ -3762,19 +3765,19 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B50" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="B50" t="s" s="0">
-        <v>31</v>
-      </c>
       <c r="C50" t="s" s="0">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E50" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F50" t="n" s="0">
         <v>0.0</v>
@@ -3783,7 +3786,7 @@
         <v>0.0</v>
       </c>
       <c r="H50" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I50" t="n" s="0">
         <v>0.0</v>
@@ -3824,16 +3827,16 @@
         <v>180</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F51" t="n" s="0">
         <v>0.0</v>
@@ -3883,16 +3886,16 @@
         <v>181</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E52" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F52" t="n" s="0">
         <v>0.0</v>
@@ -3901,7 +3904,7 @@
         <v>0.0</v>
       </c>
       <c r="H52" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I52" t="n" s="0">
         <v>0.0</v>
@@ -3939,19 +3942,19 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E53" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F53" t="n" s="0">
         <v>0.0</v>
@@ -3960,7 +3963,7 @@
         <v>0.0</v>
       </c>
       <c r="H53" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I53" t="n" s="0">
         <v>0.0</v>
@@ -4001,16 +4004,16 @@
         <v>185</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E54" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F54" t="n" s="0">
         <v>0.0</v>
@@ -4019,7 +4022,7 @@
         <v>0.0</v>
       </c>
       <c r="H54" t="s" s="0">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I54" t="n" s="0">
         <v>0.0</v>
@@ -4057,19 +4060,19 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E55" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F55" t="n" s="0">
         <v>0.0</v>
@@ -4116,19 +4119,19 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E56" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F56" t="n" s="0">
         <v>0.0</v>
@@ -4137,7 +4140,7 @@
         <v>0.0</v>
       </c>
       <c r="H56" t="s" s="0">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="I56" t="n" s="0">
         <v>0.0</v>
@@ -4175,19 +4178,19 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E57" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F57" t="n" s="0">
         <v>0.0</v>
@@ -4196,7 +4199,7 @@
         <v>0.0</v>
       </c>
       <c r="H57" t="s" s="0">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I57" t="n" s="0">
         <v>0.0</v>
@@ -4234,19 +4237,19 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E58" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F58" t="n" s="0">
         <v>0.0</v>
@@ -4255,7 +4258,7 @@
         <v>0.0</v>
       </c>
       <c r="H58" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I58" t="n" s="0">
         <v>0.0</v>
@@ -4293,19 +4296,19 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E59" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F59" t="n" s="0">
         <v>0.0</v>
@@ -4314,7 +4317,7 @@
         <v>0.0</v>
       </c>
       <c r="H59" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I59" t="n" s="0">
         <v>0.0</v>
@@ -4352,19 +4355,19 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E60" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F60" t="n" s="0">
         <v>0.0</v>
@@ -4373,7 +4376,7 @@
         <v>0.0</v>
       </c>
       <c r="H60" t="s" s="0">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I60" t="n" s="0">
         <v>0.0</v>
@@ -4411,19 +4414,19 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E61" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F61" t="n" s="0">
         <v>0.0</v>
@@ -4432,7 +4435,7 @@
         <v>0.0</v>
       </c>
       <c r="H61" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I61" t="n" s="0">
         <v>0.0</v>
@@ -4470,19 +4473,19 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E62" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F62" t="n" s="0">
         <v>0.0</v>
@@ -4491,7 +4494,7 @@
         <v>0.0</v>
       </c>
       <c r="H62" t="s" s="0">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I62" t="n" s="0">
         <v>0.0</v>
@@ -4529,19 +4532,19 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E63" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F63" t="n" s="0">
         <v>0.0</v>
@@ -4550,7 +4553,7 @@
         <v>0.0</v>
       </c>
       <c r="H63" t="s" s="0">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I63" t="n" s="0">
         <v>0.0</v>
@@ -4588,19 +4591,19 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E64" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F64" t="n" s="0">
         <v>0.0</v>
@@ -4609,7 +4612,7 @@
         <v>0.0</v>
       </c>
       <c r="H64" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I64" t="n" s="0">
         <v>0.0</v>
@@ -4647,19 +4650,19 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E65" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F65" t="n" s="0">
         <v>0.0</v>
@@ -4668,7 +4671,7 @@
         <v>0.0</v>
       </c>
       <c r="H65" t="s" s="0">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I65" t="n" s="0">
         <v>0.0</v>
@@ -4706,19 +4709,19 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E66" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F66" t="n" s="0">
         <v>0.0</v>
@@ -4727,7 +4730,7 @@
         <v>0.0</v>
       </c>
       <c r="H66" t="s" s="0">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I66" t="n" s="0">
         <v>0.0</v>
@@ -4765,19 +4768,19 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E67" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F67" t="n" s="0">
         <v>0.0</v>
@@ -4786,7 +4789,7 @@
         <v>0.0</v>
       </c>
       <c r="H67" t="s" s="0">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I67" t="n" s="0">
         <v>0.0</v>
@@ -4824,19 +4827,19 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>184</v>
+        <v>28</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E68" t="s" s="0">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F68" t="n" s="0">
         <v>0.0</v>
@@ -4845,7 +4848,7 @@
         <v>0.0</v>
       </c>
       <c r="H68" t="s" s="0">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I68" t="n" s="0">
         <v>0.0</v>
@@ -4883,16 +4886,16 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E69" t="s" s="0">
         <v>23</v>
@@ -4904,7 +4907,7 @@
         <v>0.0</v>
       </c>
       <c r="H69" t="s" s="0">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I69" t="n" s="0">
         <v>0.0</v>
@@ -4942,20 +4945,20 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B70" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E70" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="C70" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="D70" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="E70" t="s" s="0">
-        <v>33</v>
-      </c>
       <c r="F70" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -4963,7 +4966,7 @@
         <v>0.0</v>
       </c>
       <c r="H70" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I70" t="n" s="0">
         <v>0.0</v>
@@ -5001,19 +5004,19 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E71" t="s" s="0">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F71" t="n" s="0">
         <v>0.0</v>
@@ -5022,7 +5025,7 @@
         <v>0.0</v>
       </c>
       <c r="H71" t="s" s="0">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I71" t="n" s="0">
         <v>0.0</v>
@@ -5060,19 +5063,19 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E72" t="s" s="0">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F72" t="n" s="0">
         <v>0.0</v>
@@ -5081,7 +5084,7 @@
         <v>0.0</v>
       </c>
       <c r="H72" t="s" s="0">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I72" t="n" s="0">
         <v>0.0</v>
@@ -5119,19 +5122,19 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E73" t="s" s="0">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F73" t="n" s="0">
         <v>0.0</v>
@@ -5140,7 +5143,7 @@
         <v>0.0</v>
       </c>
       <c r="H73" t="s" s="0">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I73" t="n" s="0">
         <v>0.0</v>
@@ -5178,16 +5181,16 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E74" t="s" s="0">
         <v>23</v>
@@ -5199,7 +5202,7 @@
         <v>0.0</v>
       </c>
       <c r="H74" t="s" s="0">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I74" t="n" s="0">
         <v>0.0</v>
@@ -5237,19 +5240,19 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E75" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F75" t="n" s="0">
         <v>0.0</v>
@@ -5258,7 +5261,7 @@
         <v>0.0</v>
       </c>
       <c r="H75" t="s" s="0">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I75" t="n" s="0">
         <v>0.0</v>
@@ -5296,19 +5299,19 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E76" t="s" s="0">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F76" t="n" s="0">
         <v>0.0</v>
@@ -5317,7 +5320,7 @@
         <v>0.0</v>
       </c>
       <c r="H76" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I76" t="n" s="0">
         <v>0.0</v>
@@ -5355,19 +5358,19 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E77" t="s" s="0">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F77" t="n" s="0">
         <v>0.0</v>
@@ -5376,7 +5379,7 @@
         <v>0.0</v>
       </c>
       <c r="H77" t="s" s="0">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I77" t="n" s="0">
         <v>0.0</v>
@@ -5414,16 +5417,16 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E78" t="s" s="0">
         <v>23</v>
@@ -5435,7 +5438,7 @@
         <v>0.0</v>
       </c>
       <c r="H78" t="s" s="0">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I78" t="n" s="0">
         <v>0.0</v>
@@ -5473,19 +5476,19 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E79" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F79" t="n" s="0">
         <v>0.0</v>
@@ -5494,7 +5497,7 @@
         <v>0.0</v>
       </c>
       <c r="H79" t="s" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I79" t="n" s="0">
         <v>0.0</v>
@@ -5532,16 +5535,16 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E80" t="s" s="0">
         <v>23</v>
@@ -5553,7 +5556,7 @@
         <v>0.0</v>
       </c>
       <c r="H80" t="s" s="0">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I80" t="n" s="0">
         <v>0.0</v>
@@ -5591,19 +5594,19 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E81" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F81" t="n" s="0">
         <v>0.0</v>
@@ -5612,7 +5615,7 @@
         <v>0.0</v>
       </c>
       <c r="H81" t="s" s="0">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I81" t="n" s="0">
         <v>0.0</v>
@@ -5650,19 +5653,19 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E82" t="s" s="0">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F82" t="n" s="0">
         <v>0.0</v>
@@ -5671,7 +5674,7 @@
         <v>0.0</v>
       </c>
       <c r="H82" t="s" s="0">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I82" t="n" s="0">
         <v>0.0</v>
@@ -5709,19 +5712,19 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E83" t="s" s="0">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F83" t="n" s="0">
         <v>0.0</v>
@@ -5730,7 +5733,7 @@
         <v>0.0</v>
       </c>
       <c r="H83" t="s" s="0">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I83" t="n" s="0">
         <v>0.0</v>
@@ -5768,19 +5771,19 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E84" t="s" s="0">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F84" t="n" s="0">
         <v>0.0</v>
@@ -5789,7 +5792,7 @@
         <v>0.0</v>
       </c>
       <c r="H84" t="s" s="0">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I84" t="n" s="0">
         <v>0.0</v>
@@ -5827,16 +5830,16 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E85" t="s" s="0">
         <v>23</v>
@@ -5848,7 +5851,7 @@
         <v>0.0</v>
       </c>
       <c r="H85" t="s" s="0">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I85" t="n" s="0">
         <v>0.0</v>
@@ -5886,19 +5889,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E86" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F86" t="n" s="0">
         <v>0.0</v>
@@ -5907,7 +5910,7 @@
         <v>0.0</v>
       </c>
       <c r="H86" t="s" s="0">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I86" t="n" s="0">
         <v>0.0</v>
@@ -5945,19 +5948,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E87" t="s" s="0">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F87" t="n" s="0">
         <v>0.0</v>
@@ -5966,7 +5969,7 @@
         <v>0.0</v>
       </c>
       <c r="H87" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I87" t="n" s="0">
         <v>0.0</v>
@@ -6004,19 +6007,19 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E88" t="s" s="0">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F88" t="n" s="0">
         <v>0.0</v>
@@ -6025,7 +6028,7 @@
         <v>0.0</v>
       </c>
       <c r="H88" t="s" s="0">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I88" t="n" s="0">
         <v>0.0</v>
@@ -6063,19 +6066,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E89" t="s" s="0">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F89" t="n" s="0">
         <v>0.0</v>
@@ -6084,7 +6087,7 @@
         <v>0.0</v>
       </c>
       <c r="H89" t="s" s="0">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I89" t="n" s="0">
         <v>0.0</v>
@@ -6122,16 +6125,16 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E90" t="s" s="0">
         <v>23</v>
@@ -6143,7 +6146,7 @@
         <v>0.0</v>
       </c>
       <c r="H90" t="s" s="0">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I90" t="n" s="0">
         <v>0.0</v>
@@ -6181,19 +6184,19 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E91" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F91" t="n" s="0">
         <v>0.0</v>
@@ -6202,7 +6205,7 @@
         <v>0.0</v>
       </c>
       <c r="H91" t="s" s="0">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I91" t="n" s="0">
         <v>0.0</v>
@@ -6240,19 +6243,19 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E92" t="s" s="0">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F92" t="n" s="0">
         <v>0.0</v>
@@ -6261,7 +6264,7 @@
         <v>0.0</v>
       </c>
       <c r="H92" t="s" s="0">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I92" t="n" s="0">
         <v>0.0</v>
@@ -6299,19 +6302,19 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E93" t="s" s="0">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F93" t="n" s="0">
         <v>0.0</v>
@@ -6320,16 +6323,16 @@
         <v>0.0</v>
       </c>
       <c r="H93" t="s" s="0">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I93" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="J93" t="n" s="0">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="K93" t="n" s="0">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="L93" t="n" s="0">
         <v>0.0</v>
@@ -6347,10 +6350,10 @@
         <v>25</v>
       </c>
       <c r="Q93" t="n" s="0">
-        <v>0.0</v>
+        <v>180.0</v>
       </c>
       <c r="R93" t="n" s="0">
-        <v>0.0</v>
+        <v>180.0</v>
       </c>
       <c r="S93" t="b" s="0">
         <v>1</v>

--- a/ProyectoPooDist/excels/CAMIONES.xlsx
+++ b/ProyectoPooDist/excels/CAMIONES.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="317">
   <si>
     <t>Placas</t>
   </si>
@@ -71,130 +71,883 @@
     <t>Activo</t>
   </si>
   <si>
+    <t>AZX4081</t>
+  </si>
+  <si>
+    <t>Ram 1500</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>INACTIVO</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>19/11/2023</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>XYZ678</t>
+  </si>
+  <si>
+    <t>S1900</t>
+  </si>
+  <si>
+    <t>Freightliner</t>
+  </si>
+  <si>
+    <t>Disel</t>
+  </si>
+  <si>
+    <t>10/10/2008</t>
+  </si>
+  <si>
+    <t>GHI123</t>
+  </si>
+  <si>
+    <t>X23</t>
+  </si>
+  <si>
+    <t>Renault</t>
+  </si>
+  <si>
+    <t>10/10/1997</t>
+  </si>
+  <si>
+    <t>VWX234</t>
+  </si>
+  <si>
+    <t>H800</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>10/10/1999</t>
+  </si>
+  <si>
+    <t>NOP123</t>
+  </si>
+  <si>
+    <t>N1400</t>
+  </si>
+  <si>
+    <t>Mack</t>
+  </si>
+  <si>
+    <t>10/10/2003</t>
+  </si>
+  <si>
+    <t>STU789</t>
+  </si>
+  <si>
+    <t>P1600</t>
+  </si>
+  <si>
+    <t>10/10/2005</t>
+  </si>
+  <si>
+    <t>TUV012</t>
+  </si>
+  <si>
+    <t>1700.0</t>
+  </si>
+  <si>
+    <t>Volvo</t>
+  </si>
+  <si>
+    <t>10/10/2006</t>
+  </si>
+  <si>
+    <t>VWX345</t>
+  </si>
+  <si>
+    <t>R1800</t>
+  </si>
+  <si>
+    <t>Hino</t>
+  </si>
+  <si>
+    <t>10/10/2007</t>
+  </si>
+  <si>
+    <t>ABC901</t>
+  </si>
+  <si>
+    <t>T2000</t>
+  </si>
+  <si>
+    <t>Kenworth</t>
+  </si>
+  <si>
+    <t>10/10/2009</t>
+  </si>
+  <si>
+    <t>JKL890</t>
+  </si>
+  <si>
+    <t>M1300</t>
+  </si>
+  <si>
+    <t>10/10/2002</t>
+  </si>
+  <si>
+    <t>GHI567</t>
+  </si>
+  <si>
+    <t>V2200</t>
+  </si>
+  <si>
+    <t>10/10/2010</t>
+  </si>
+  <si>
+    <t>XYZ234</t>
+  </si>
+  <si>
+    <t>X250</t>
+  </si>
+  <si>
+    <t>Tata</t>
+  </si>
+  <si>
+    <t>10/10/2011</t>
+  </si>
+  <si>
+    <t>DEF567</t>
+  </si>
+  <si>
+    <t>Y260</t>
+  </si>
+  <si>
+    <t>Fuso</t>
+  </si>
+  <si>
+    <t>10/10/2012</t>
+  </si>
+  <si>
+    <t>GHI890</t>
+  </si>
+  <si>
+    <t>Z270</t>
+  </si>
+  <si>
+    <t>Iveco</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>JKL123</t>
+  </si>
+  <si>
+    <t>A280</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>10/10/2014</t>
+  </si>
+  <si>
+    <t>MNO456</t>
+  </si>
+  <si>
+    <t>B290</t>
+  </si>
+  <si>
+    <t>DAF</t>
+  </si>
+  <si>
+    <t>10/10/2015</t>
+  </si>
+  <si>
+    <t>PQR789</t>
+  </si>
+  <si>
+    <t>C300</t>
+  </si>
+  <si>
+    <t>Scania</t>
+  </si>
+  <si>
+    <t>10/10/2016</t>
+  </si>
+  <si>
+    <t>AS12</t>
+  </si>
+  <si>
+    <t>SADSA1</t>
+  </si>
+  <si>
+    <t>NISSAA</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>ASDSAD1</t>
+  </si>
+  <si>
+    <t>321j</t>
+  </si>
+  <si>
+    <t>nisssa</t>
+  </si>
+  <si>
+    <t>10/10/2018</t>
+  </si>
+  <si>
+    <t>ASD12</t>
+  </si>
+  <si>
+    <t>ASDSA1</t>
+  </si>
+  <si>
+    <t>SAD12</t>
+  </si>
+  <si>
+    <t>FUNCIONAL</t>
+  </si>
+  <si>
+    <t>14/10/2021</t>
+  </si>
+  <si>
+    <t>DSA21</t>
+  </si>
+  <si>
+    <t>S122</t>
+  </si>
+  <si>
+    <t>10/10/2021</t>
+  </si>
+  <si>
+    <t>ASD1</t>
+  </si>
+  <si>
+    <t>SAD1</t>
+  </si>
+  <si>
+    <t>11/10/2021</t>
+  </si>
+  <si>
+    <t>P021WWH</t>
+  </si>
+  <si>
+    <t>VOLVO</t>
+  </si>
+  <si>
+    <t>NISSAN</t>
+  </si>
+  <si>
+    <t>DESCOMPUESTO</t>
+  </si>
+  <si>
+    <t>13/10/2021</t>
+  </si>
+  <si>
+    <t>0 días</t>
+  </si>
+  <si>
+    <t>ORB234</t>
+  </si>
+  <si>
+    <t>Ram4500</t>
+  </si>
+  <si>
+    <t>14/10/2023</t>
+  </si>
+  <si>
+    <t>31/12/2024</t>
+  </si>
+  <si>
+    <t>PXKA21</t>
+  </si>
+  <si>
+    <t>L20</t>
+  </si>
+  <si>
+    <t>MACRAX</t>
+  </si>
+  <si>
+    <t>15/10/2021</t>
+  </si>
+  <si>
+    <t>AS5A51</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>16/10/2021</t>
+  </si>
+  <si>
+    <t>W554PGN</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>17/10/2021</t>
+  </si>
+  <si>
+    <t>DEF123</t>
+  </si>
+  <si>
+    <t>X22</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>18/10/2021</t>
+  </si>
+  <si>
+    <t>XYZ123</t>
+  </si>
+  <si>
+    <t>A100</t>
+  </si>
+  <si>
+    <t>Isuzu</t>
+  </si>
+  <si>
+    <t>10/10/1998</t>
+  </si>
+  <si>
+    <t>USA123</t>
+  </si>
+  <si>
+    <t>F150</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>10/10/2004</t>
+  </si>
+  <si>
+    <t>USA456</t>
+  </si>
+  <si>
+    <t>Ram1500</t>
+  </si>
+  <si>
+    <t>USA789</t>
+  </si>
+  <si>
+    <t>Silverado</t>
+  </si>
+  <si>
+    <t>Chevrolet</t>
+  </si>
+  <si>
+    <t>TXA123</t>
+  </si>
+  <si>
+    <t>Tundra</t>
+  </si>
+  <si>
+    <t>TXA234</t>
+  </si>
+  <si>
+    <t>Sierra</t>
+  </si>
+  <si>
+    <t>GMC</t>
+  </si>
+  <si>
+    <t>FLB123</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>FLB456</t>
+  </si>
+  <si>
+    <t>F250</t>
+  </si>
+  <si>
+    <t>FLB789</t>
+  </si>
+  <si>
+    <t>Ram2500</t>
+  </si>
+  <si>
+    <t>CAL123</t>
+  </si>
+  <si>
+    <t>Silverado HD</t>
+  </si>
+  <si>
+    <t>CAL456</t>
+  </si>
+  <si>
+    <t>Tacoma</t>
+  </si>
+  <si>
+    <t>NYA123</t>
+  </si>
+  <si>
+    <t>Sierra HD</t>
+  </si>
+  <si>
+    <t>NYA456</t>
+  </si>
+  <si>
+    <t>Frontier</t>
+  </si>
+  <si>
+    <t>TXB123</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>TXB234</t>
+  </si>
+  <si>
+    <t>Ranger</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>MIA123</t>
+  </si>
+  <si>
+    <t>Gladiator</t>
+  </si>
+  <si>
+    <t>Jeep</t>
+  </si>
+  <si>
+    <t>MIA456</t>
+  </si>
+  <si>
+    <t>10/10/2019</t>
+  </si>
+  <si>
+    <t>LAS123</t>
+  </si>
+  <si>
+    <t>F350</t>
+  </si>
+  <si>
+    <t>LAS234</t>
+  </si>
+  <si>
+    <t>Ram3500</t>
+  </si>
+  <si>
+    <t>AZC123</t>
+  </si>
+  <si>
+    <t>10/10/2022</t>
+  </si>
+  <si>
+    <t>AZC456</t>
+  </si>
+  <si>
+    <t>10/10/2023</t>
+  </si>
+  <si>
+    <t>COA123</t>
+  </si>
+  <si>
+    <t>F450</t>
+  </si>
+  <si>
+    <t>11/10/2023</t>
+  </si>
+  <si>
+    <t>COA234</t>
+  </si>
+  <si>
+    <t>Titan XD</t>
+  </si>
+  <si>
+    <t>12/10/2023</t>
+  </si>
+  <si>
+    <t>ORB123</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>WAA123</t>
+  </si>
+  <si>
+    <t>15/10/2023</t>
+  </si>
+  <si>
+    <t>WAA234</t>
+  </si>
+  <si>
+    <t>16/10/2023</t>
+  </si>
+  <si>
+    <t>WAB123</t>
+  </si>
+  <si>
+    <t>F550</t>
+  </si>
+  <si>
+    <t>17/10/2023</t>
+  </si>
+  <si>
+    <t>WAB234</t>
+  </si>
+  <si>
+    <t>18/10/2023</t>
+  </si>
+  <si>
+    <t>IDA123</t>
+  </si>
+  <si>
+    <t>19/10/2023</t>
+  </si>
+  <si>
+    <t>IDA234</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>GAT9901</t>
+  </si>
+  <si>
+    <t>21/10/2023</t>
+  </si>
+  <si>
+    <t>TXM5489</t>
+  </si>
+  <si>
+    <t>Gasolina</t>
+  </si>
+  <si>
+    <t>22/10/2023</t>
+  </si>
+  <si>
+    <t>FLZ2034</t>
+  </si>
+  <si>
+    <t>23/10/2023</t>
+  </si>
+  <si>
+    <t>CAL1223</t>
+  </si>
+  <si>
+    <t>24/10/2023</t>
+  </si>
+  <si>
+    <t>NYG4578</t>
+  </si>
+  <si>
+    <t>25/10/2023</t>
+  </si>
+  <si>
+    <t>LAA5621</t>
+  </si>
+  <si>
+    <t>26/10/2023</t>
+  </si>
+  <si>
+    <t>WAM4523</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>ARK9230</t>
+  </si>
+  <si>
+    <t>28/10/2023</t>
+  </si>
+  <si>
+    <t>GAA7601</t>
+  </si>
+  <si>
+    <t>29/10/2023</t>
+  </si>
+  <si>
+    <t>ORT1053</t>
+  </si>
+  <si>
+    <t>30/10/2023</t>
+  </si>
+  <si>
+    <t>UTZ5829</t>
+  </si>
+  <si>
+    <t>31/10/2023</t>
+  </si>
+  <si>
+    <t>NYZ7450</t>
+  </si>
+  <si>
+    <t>01/11/2023</t>
+  </si>
+  <si>
+    <t>MNH2492</t>
+  </si>
+  <si>
+    <t>02/11/2023</t>
+  </si>
+  <si>
+    <t>TXQ4028</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>FLT1034</t>
+  </si>
+  <si>
+    <t>04/11/2023</t>
+  </si>
+  <si>
+    <t>TXK2901</t>
+  </si>
+  <si>
+    <t>05/11/2023</t>
+  </si>
+  <si>
+    <t>FLC3123</t>
+  </si>
+  <si>
+    <t>06/11/2023</t>
+  </si>
+  <si>
+    <t>NCM5072</t>
+  </si>
+  <si>
+    <t>07/11/2023</t>
+  </si>
+  <si>
+    <t>OKT2051</t>
+  </si>
+  <si>
+    <t>08/11/2023</t>
+  </si>
+  <si>
+    <t>CAL7643</t>
+  </si>
+  <si>
+    <t>Ram 2500</t>
+  </si>
+  <si>
+    <t>09/11/2023</t>
+  </si>
+  <si>
+    <t>NYA3092</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>TXP2943</t>
+  </si>
+  <si>
+    <t>11/11/2023</t>
+  </si>
+  <si>
+    <t>ORA8321</t>
+  </si>
+  <si>
+    <t>12/11/2023</t>
+  </si>
+  <si>
+    <t>PAX1902</t>
+  </si>
+  <si>
+    <t>13/11/2023</t>
+  </si>
+  <si>
+    <t>NCM4512</t>
+  </si>
+  <si>
+    <t>14/11/2023</t>
+  </si>
+  <si>
+    <t>FLP8701</t>
+  </si>
+  <si>
+    <t>15/11/2023</t>
+  </si>
+  <si>
     <t>NYM9482</t>
   </si>
   <si>
-    <t>Frontier</t>
-  </si>
-  <si>
-    <t>Nissan</t>
-  </si>
-  <si>
-    <t>EN MANTENIMIENTO</t>
-  </si>
-  <si>
-    <t>Gasolina</t>
-  </si>
-  <si>
     <t>17/11/2023</t>
   </si>
   <si>
-    <t/>
+    <t>BCD890</t>
+  </si>
+  <si>
+    <t>J1000</t>
+  </si>
+  <si>
+    <t>10/10/2001</t>
+  </si>
+  <si>
+    <t>LZC1023</t>
+  </si>
+  <si>
+    <t>18/11/2023</t>
   </si>
   <si>
     <t>LAA1053</t>
   </si>
   <si>
-    <t>Ranger</t>
-  </si>
-  <si>
-    <t>Ford</t>
-  </si>
-  <si>
-    <t>DESCOMPUESTO</t>
-  </si>
-  <si>
-    <t>Disel</t>
-  </si>
-  <si>
     <t>16/11/2023</t>
   </si>
   <si>
-    <t>LZC1023</t>
-  </si>
-  <si>
-    <t>Tacoma</t>
-  </si>
-  <si>
-    <t>Toyota</t>
-  </si>
-  <si>
-    <t>18/11/2023</t>
-  </si>
-  <si>
-    <t>AZX4081</t>
-  </si>
-  <si>
-    <t>Ram 1500</t>
-  </si>
-  <si>
-    <t>RAM</t>
-  </si>
-  <si>
-    <t>FUNCIONAL</t>
-  </si>
-  <si>
-    <t>Diesel</t>
-  </si>
-  <si>
-    <t>19/11/2023</t>
-  </si>
-  <si>
-    <t>GHI123</t>
-  </si>
-  <si>
-    <t>X23</t>
-  </si>
-  <si>
-    <t>Renault</t>
-  </si>
-  <si>
-    <t>10/10/1997</t>
-  </si>
-  <si>
-    <t>VWX234</t>
-  </si>
-  <si>
-    <t>H800</t>
-  </si>
-  <si>
-    <t>10/10/1999</t>
-  </si>
-  <si>
-    <t>BCD890</t>
-  </si>
-  <si>
-    <t>J1000</t>
-  </si>
-  <si>
-    <t>Freightliner</t>
-  </si>
-  <si>
-    <t>10/10/2001</t>
-  </si>
-  <si>
-    <t>JKL890</t>
-  </si>
-  <si>
-    <t>M1300</t>
-  </si>
-  <si>
-    <t>Kenworth</t>
-  </si>
-  <si>
-    <t>10/10/2002</t>
-  </si>
-  <si>
-    <t>NOP123</t>
-  </si>
-  <si>
-    <t>N1400</t>
-  </si>
-  <si>
-    <t>Mack</t>
-  </si>
-  <si>
-    <t>10/10/2003</t>
+    <t>ASDS12</t>
+  </si>
+  <si>
+    <t>Híbrido</t>
+  </si>
+  <si>
+    <t>16/07/1905</t>
+  </si>
+  <si>
+    <t>W1232</t>
+  </si>
+  <si>
+    <t>DASD21</t>
+  </si>
+  <si>
+    <t>SDSADSA12</t>
+  </si>
+  <si>
+    <t>123ASD</t>
+  </si>
+  <si>
+    <t>SAD21D</t>
+  </si>
+  <si>
+    <t>DWD21SDS</t>
+  </si>
+  <si>
+    <t>DSAD12</t>
+  </si>
+  <si>
+    <t>1SA1</t>
+  </si>
+  <si>
+    <t>ASD21</t>
+  </si>
+  <si>
+    <t>123sad</t>
+  </si>
+  <si>
+    <t>sdad21</t>
+  </si>
+  <si>
+    <t>asd1232</t>
+  </si>
+  <si>
+    <t>ASDSA3</t>
+  </si>
+  <si>
+    <t>SAD21</t>
+  </si>
+  <si>
+    <t>MUMUAA1</t>
+  </si>
+  <si>
+    <t>DAS1</t>
+  </si>
+  <si>
+    <t>MUMU12</t>
+  </si>
+  <si>
+    <t>DWQ21</t>
+  </si>
+  <si>
+    <t>123D</t>
+  </si>
+  <si>
+    <t>ADS1S</t>
+  </si>
+  <si>
+    <t>AS1212</t>
+  </si>
+  <si>
+    <t>DASs21</t>
+  </si>
+  <si>
+    <t>CSA22</t>
+  </si>
+  <si>
+    <t>dfsd12</t>
+  </si>
+  <si>
+    <t>dvc12</t>
+  </si>
+  <si>
+    <t>asd123</t>
+  </si>
+  <si>
+    <t>SDAS2</t>
+  </si>
+  <si>
+    <t>SDAS122S</t>
+  </si>
+  <si>
+    <t>ASDS2s</t>
+  </si>
+  <si>
+    <t>sadsa2</t>
+  </si>
+  <si>
+    <t>sada2</t>
+  </si>
+  <si>
+    <t>12312312d</t>
+  </si>
+  <si>
+    <t>FSD2</t>
+  </si>
+  <si>
+    <t>FDS2</t>
+  </si>
+  <si>
+    <t>dddd1</t>
+  </si>
+  <si>
+    <t>SDA2</t>
+  </si>
+  <si>
+    <t>SAD2</t>
+  </si>
+  <si>
+    <t>DDDD22</t>
+  </si>
+  <si>
+    <t>DSAD2</t>
+  </si>
+  <si>
+    <t>sads2</t>
+  </si>
+  <si>
+    <t>WDA2</t>
+  </si>
+  <si>
+    <t>P123GRV</t>
+  </si>
+  <si>
+    <t>Cs</t>
+  </si>
+  <si>
+    <t>12/10/2021</t>
   </si>
   <si>
     <t>QRS456</t>
@@ -206,622 +959,10 @@
     <t>International</t>
   </si>
   <si>
-    <t>10/10/2004</t>
-  </si>
-  <si>
-    <t>STU789</t>
-  </si>
-  <si>
-    <t>P1600</t>
-  </si>
-  <si>
-    <t>10/10/2005</t>
-  </si>
-  <si>
-    <t>TUV012</t>
-  </si>
-  <si>
-    <t>1700.0</t>
-  </si>
-  <si>
-    <t>Volvo</t>
-  </si>
-  <si>
-    <t>10/10/2006</t>
-  </si>
-  <si>
-    <t>VWX345</t>
-  </si>
-  <si>
-    <t>R1800</t>
-  </si>
-  <si>
-    <t>Hino</t>
-  </si>
-  <si>
-    <t>10/10/2007</t>
-  </si>
-  <si>
-    <t>XYZ678</t>
-  </si>
-  <si>
-    <t>S1900</t>
-  </si>
-  <si>
-    <t>10/10/2008</t>
-  </si>
-  <si>
-    <t>ABC901</t>
-  </si>
-  <si>
-    <t>T2000</t>
-  </si>
-  <si>
-    <t>10/10/2009</t>
-  </si>
-  <si>
-    <t>GHI567</t>
-  </si>
-  <si>
-    <t>V2200</t>
-  </si>
-  <si>
-    <t>10/10/2010</t>
-  </si>
-  <si>
-    <t>XYZ234</t>
-  </si>
-  <si>
-    <t>X250</t>
-  </si>
-  <si>
-    <t>Tata</t>
-  </si>
-  <si>
-    <t>10/10/2011</t>
-  </si>
-  <si>
-    <t>DEF567</t>
-  </si>
-  <si>
-    <t>Y260</t>
-  </si>
-  <si>
-    <t>Fuso</t>
-  </si>
-  <si>
-    <t>10/10/2012</t>
-  </si>
-  <si>
-    <t>GHI890</t>
-  </si>
-  <si>
-    <t>Z270</t>
-  </si>
-  <si>
-    <t>Iveco</t>
-  </si>
-  <si>
-    <t>10/10/2013</t>
-  </si>
-  <si>
-    <t>JKL123</t>
-  </si>
-  <si>
-    <t>A280</t>
-  </si>
-  <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>10/10/2014</t>
-  </si>
-  <si>
-    <t>MNO456</t>
-  </si>
-  <si>
-    <t>B290</t>
-  </si>
-  <si>
-    <t>DAF</t>
-  </si>
-  <si>
-    <t>10/10/2015</t>
-  </si>
-  <si>
-    <t>PQR789</t>
-  </si>
-  <si>
-    <t>C300</t>
-  </si>
-  <si>
-    <t>Scania</t>
-  </si>
-  <si>
-    <t>10/10/2016</t>
-  </si>
-  <si>
-    <t>ASDSA1</t>
-  </si>
-  <si>
     <t>Versa</t>
   </si>
   <si>
-    <t>10/10/2017</t>
-  </si>
-  <si>
-    <t>ASDSAD1</t>
-  </si>
-  <si>
-    <t>321j</t>
-  </si>
-  <si>
-    <t>nisssa</t>
-  </si>
-  <si>
-    <t>10/10/2018</t>
-  </si>
-  <si>
-    <t>AS12</t>
-  </si>
-  <si>
-    <t>SADSA1</t>
-  </si>
-  <si>
-    <t>NISSAA</t>
-  </si>
-  <si>
-    <t>10/10/2019</t>
-  </si>
-  <si>
-    <t>10/10/2020</t>
-  </si>
-  <si>
-    <t>DSA21</t>
-  </si>
-  <si>
-    <t>S122</t>
-  </si>
-  <si>
-    <t>10/10/2021</t>
-  </si>
-  <si>
-    <t>ASD1</t>
-  </si>
-  <si>
-    <t>SAD1</t>
-  </si>
-  <si>
-    <t>11/10/2021</t>
-  </si>
-  <si>
-    <t>P123GRV</t>
-  </si>
-  <si>
-    <t>Cs</t>
-  </si>
-  <si>
-    <t>12/10/2021</t>
-  </si>
-  <si>
-    <t>P021WWH</t>
-  </si>
-  <si>
-    <t>VOLVO</t>
-  </si>
-  <si>
-    <t>NISSAN</t>
-  </si>
-  <si>
-    <t>13/10/2021</t>
-  </si>
-  <si>
-    <t>ASD12</t>
-  </si>
-  <si>
-    <t>SAD12</t>
-  </si>
-  <si>
-    <t>14/10/2021</t>
-  </si>
-  <si>
-    <t>PXKA21</t>
-  </si>
-  <si>
-    <t>L20</t>
-  </si>
-  <si>
-    <t>MACRAX</t>
-  </si>
-  <si>
-    <t>15/10/2021</t>
-  </si>
-  <si>
-    <t>AS5A51</t>
-  </si>
-  <si>
-    <t>X20</t>
-  </si>
-  <si>
-    <t>16/10/2021</t>
-  </si>
-  <si>
-    <t>W554PGN</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>17/10/2021</t>
-  </si>
-  <si>
-    <t>DEF123</t>
-  </si>
-  <si>
-    <t>X22</t>
-  </si>
-  <si>
-    <t>18/10/2021</t>
-  </si>
-  <si>
-    <t>XYZ123</t>
-  </si>
-  <si>
-    <t>A100</t>
-  </si>
-  <si>
-    <t>Isuzu</t>
-  </si>
-  <si>
-    <t>10/10/1998</t>
-  </si>
-  <si>
-    <t>USA123</t>
-  </si>
-  <si>
-    <t>F150</t>
-  </si>
-  <si>
-    <t>USA456</t>
-  </si>
-  <si>
-    <t>Ram1500</t>
-  </si>
-  <si>
-    <t>USA789</t>
-  </si>
-  <si>
-    <t>Silverado</t>
-  </si>
-  <si>
-    <t>Chevrolet</t>
-  </si>
-  <si>
-    <t>TXA123</t>
-  </si>
-  <si>
-    <t>Tundra</t>
-  </si>
-  <si>
-    <t>TXA234</t>
-  </si>
-  <si>
-    <t>Sierra</t>
-  </si>
-  <si>
-    <t>GMC</t>
-  </si>
-  <si>
-    <t>FLB123</t>
-  </si>
-  <si>
-    <t>Titan</t>
-  </si>
-  <si>
-    <t>FLB456</t>
-  </si>
-  <si>
-    <t>F250</t>
-  </si>
-  <si>
-    <t>FLB789</t>
-  </si>
-  <si>
-    <t>Ram2500</t>
-  </si>
-  <si>
-    <t>CAL123</t>
-  </si>
-  <si>
-    <t>Silverado HD</t>
-  </si>
-  <si>
-    <t>CAL456</t>
-  </si>
-  <si>
-    <t>NYA123</t>
-  </si>
-  <si>
-    <t>Sierra HD</t>
-  </si>
-  <si>
-    <t>NYA456</t>
-  </si>
-  <si>
-    <t>TXB123</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>TXB234</t>
-  </si>
-  <si>
-    <t>MIA123</t>
-  </si>
-  <si>
-    <t>Gladiator</t>
-  </si>
-  <si>
-    <t>Jeep</t>
-  </si>
-  <si>
-    <t>MIA456</t>
-  </si>
-  <si>
-    <t>LAS123</t>
-  </si>
-  <si>
-    <t>F350</t>
-  </si>
-  <si>
-    <t>LAS234</t>
-  </si>
-  <si>
-    <t>Ram3500</t>
-  </si>
-  <si>
-    <t>AZC123</t>
-  </si>
-  <si>
-    <t>10/10/2022</t>
-  </si>
-  <si>
-    <t>AZC456</t>
-  </si>
-  <si>
-    <t>10/10/2023</t>
-  </si>
-  <si>
-    <t>COA123</t>
-  </si>
-  <si>
-    <t>F450</t>
-  </si>
-  <si>
-    <t>11/10/2023</t>
-  </si>
-  <si>
-    <t>COA234</t>
-  </si>
-  <si>
-    <t>Titan XD</t>
-  </si>
-  <si>
-    <t>12/10/2023</t>
-  </si>
-  <si>
-    <t>ORB123</t>
-  </si>
-  <si>
-    <t>13/10/2023</t>
-  </si>
-  <si>
-    <t>ORB234</t>
-  </si>
-  <si>
-    <t>Ram4500</t>
-  </si>
-  <si>
-    <t>14/10/2023</t>
-  </si>
-  <si>
-    <t>WAA123</t>
-  </si>
-  <si>
-    <t>15/10/2023</t>
-  </si>
-  <si>
-    <t>WAA234</t>
-  </si>
-  <si>
-    <t>16/10/2023</t>
-  </si>
-  <si>
-    <t>WAB123</t>
-  </si>
-  <si>
-    <t>F550</t>
-  </si>
-  <si>
-    <t>17/10/2023</t>
-  </si>
-  <si>
-    <t>WAB234</t>
-  </si>
-  <si>
-    <t>18/10/2023</t>
-  </si>
-  <si>
-    <t>IDA123</t>
-  </si>
-  <si>
-    <t>19/10/2023</t>
-  </si>
-  <si>
-    <t>IDA234</t>
-  </si>
-  <si>
-    <t>20/10/2023</t>
-  </si>
-  <si>
-    <t>GAT9901</t>
-  </si>
-  <si>
-    <t>21/10/2023</t>
-  </si>
-  <si>
-    <t>TXM5489</t>
-  </si>
-  <si>
-    <t>22/10/2023</t>
-  </si>
-  <si>
-    <t>FLZ2034</t>
-  </si>
-  <si>
-    <t>23/10/2023</t>
-  </si>
-  <si>
-    <t>CAL1223</t>
-  </si>
-  <si>
-    <t>24/10/2023</t>
-  </si>
-  <si>
-    <t>NYG4578</t>
-  </si>
-  <si>
-    <t>25/10/2023</t>
-  </si>
-  <si>
-    <t>LAA5621</t>
-  </si>
-  <si>
-    <t>26/10/2023</t>
-  </si>
-  <si>
-    <t>WAM4523</t>
-  </si>
-  <si>
-    <t>27/10/2023</t>
-  </si>
-  <si>
-    <t>ARK9230</t>
-  </si>
-  <si>
-    <t>28/10/2023</t>
-  </si>
-  <si>
-    <t>GAA7601</t>
-  </si>
-  <si>
-    <t>29/10/2023</t>
-  </si>
-  <si>
-    <t>ORT1053</t>
-  </si>
-  <si>
-    <t>30/10/2023</t>
-  </si>
-  <si>
-    <t>UTZ5829</t>
-  </si>
-  <si>
-    <t>31/10/2023</t>
-  </si>
-  <si>
-    <t>NYZ7450</t>
-  </si>
-  <si>
-    <t>01/11/2023</t>
-  </si>
-  <si>
-    <t>MNH2492</t>
-  </si>
-  <si>
-    <t>02/11/2023</t>
-  </si>
-  <si>
-    <t>TXQ4028</t>
-  </si>
-  <si>
-    <t>03/11/2023</t>
-  </si>
-  <si>
-    <t>FLT1034</t>
-  </si>
-  <si>
-    <t>04/11/2023</t>
-  </si>
-  <si>
-    <t>TXK2901</t>
-  </si>
-  <si>
-    <t>05/11/2023</t>
-  </si>
-  <si>
-    <t>FLC3123</t>
-  </si>
-  <si>
-    <t>06/11/2023</t>
-  </si>
-  <si>
-    <t>NCM5072</t>
-  </si>
-  <si>
-    <t>07/11/2023</t>
-  </si>
-  <si>
-    <t>OKT2051</t>
-  </si>
-  <si>
-    <t>08/11/2023</t>
-  </si>
-  <si>
-    <t>CAL7643</t>
-  </si>
-  <si>
-    <t>Ram 2500</t>
-  </si>
-  <si>
-    <t>09/11/2023</t>
-  </si>
-  <si>
-    <t>NYA3092</t>
-  </si>
-  <si>
-    <t>10/11/2023</t>
-  </si>
-  <si>
-    <t>TXP2943</t>
-  </si>
-  <si>
-    <t>11/11/2023</t>
-  </si>
-  <si>
-    <t>ORA8321</t>
-  </si>
-  <si>
-    <t>12/11/2023</t>
-  </si>
-  <si>
-    <t>PAX1902</t>
-  </si>
-  <si>
-    <t>13/11/2023</t>
-  </si>
-  <si>
-    <t>NCM4512</t>
-  </si>
-  <si>
-    <t>14/11/2023</t>
-  </si>
-  <si>
-    <t>FLP8701</t>
-  </si>
-  <si>
-    <t>15/11/2023</t>
+    <t>Nissa</t>
   </si>
 </sst>
 </file>
@@ -866,7 +1007,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S93"/>
+  <dimension ref="A1:S110"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -951,7 +1092,7 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>111.0</v>
+        <v>0.0</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>24</v>
@@ -987,7 +1128,7 @@
         <v>0.0</v>
       </c>
       <c r="S2" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1001,20 +1142,20 @@
         <v>28</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="F3" t="n" s="0">
-        <v>111.0</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>111.0</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>31</v>
-      </c>
       <c r="I3" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -1046,42 +1187,42 @@
         <v>0.0</v>
       </c>
       <c r="S3" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="C4" t="s" s="0">
         <v>33</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>34</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>22</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>111.0</v>
+        <v>0.0</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="L4" t="n" s="0">
         <v>0.0</v>
@@ -1099,42 +1240,42 @@
         <v>25</v>
       </c>
       <c r="Q4" t="n" s="0">
-        <v>0.0</v>
+        <v>120.0</v>
       </c>
       <c r="R4" t="n" s="0">
-        <v>0.0</v>
+        <v>120.0</v>
       </c>
       <c r="S4" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="D5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>41</v>
-      </c>
       <c r="I5" t="n" s="0">
-        <v>0.0</v>
+        <v>111.0</v>
       </c>
       <c r="J5" t="n" s="0">
         <v>0.0</v>
@@ -1158,48 +1299,48 @@
         <v>25</v>
       </c>
       <c r="Q5" t="n" s="0">
-        <v>0.0</v>
+        <v>111.0</v>
       </c>
       <c r="R5" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="S5" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>45</v>
-      </c>
       <c r="I6" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="L6" t="n" s="0">
         <v>0.0</v>
@@ -1217,30 +1358,30 @@
         <v>25</v>
       </c>
       <c r="Q6" t="n" s="0">
-        <v>120.0</v>
+        <v>0.0</v>
       </c>
       <c r="R6" t="n" s="0">
-        <v>120.0</v>
+        <v>0.0</v>
       </c>
       <c r="S6" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="n" s="0">
         <v>0.0</v>
@@ -1249,10 +1390,10 @@
         <v>0.0</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>111.0</v>
+        <v>0.0</v>
       </c>
       <c r="J7" t="n" s="0">
         <v>0.0</v>
@@ -1276,40 +1417,40 @@
         <v>25</v>
       </c>
       <c r="Q7" t="n" s="0">
-        <v>111.0</v>
+        <v>0.0</v>
       </c>
       <c r="R7" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="S7" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="F8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>52</v>
-      </c>
       <c r="I8" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -1341,34 +1482,34 @@
         <v>0.0</v>
       </c>
       <c r="S8" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="F9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>56</v>
-      </c>
       <c r="I9" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -1400,34 +1541,34 @@
         <v>0.0</v>
       </c>
       <c r="S9" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="F10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>60</v>
-      </c>
       <c r="I10" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -1459,24 +1600,24 @@
         <v>0.0</v>
       </c>
       <c r="S10" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="n" s="0">
         <v>0.0</v>
@@ -1485,7 +1626,7 @@
         <v>0.0</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I11" t="n" s="0">
         <v>0.0</v>
@@ -1518,24 +1659,24 @@
         <v>0.0</v>
       </c>
       <c r="S11" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="n" s="0">
         <v>0.0</v>
@@ -1544,7 +1685,7 @@
         <v>0.0</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I12" t="n" s="0">
         <v>0.0</v>
@@ -1577,24 +1718,24 @@
         <v>0.0</v>
       </c>
       <c r="S12" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" t="n" s="0">
         <v>0.0</v>
@@ -1603,7 +1744,7 @@
         <v>0.0</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I13" t="n" s="0">
         <v>0.0</v>
@@ -1636,24 +1777,24 @@
         <v>0.0</v>
       </c>
       <c r="S13" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="n" s="0">
         <v>0.0</v>
@@ -1662,7 +1803,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I14" t="n" s="0">
         <v>0.0</v>
@@ -1695,24 +1836,24 @@
         <v>0.0</v>
       </c>
       <c r="S14" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" t="n" s="0">
         <v>0.0</v>
@@ -1721,7 +1862,7 @@
         <v>0.0</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I15" t="n" s="0">
         <v>0.0</v>
@@ -1754,34 +1895,34 @@
         <v>0.0</v>
       </c>
       <c r="S15" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="F16" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G16" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H16" t="s" s="0">
-        <v>81</v>
-      </c>
       <c r="I16" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -1813,34 +1954,34 @@
         <v>0.0</v>
       </c>
       <c r="S16" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="D17" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="C17" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="F17" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G17" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H17" t="s" s="0">
-        <v>84</v>
-      </c>
       <c r="I17" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -1872,34 +2013,34 @@
         <v>0.0</v>
       </c>
       <c r="S17" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="C18" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="D18" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="D18" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="F18" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G18" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H18" t="s" s="0">
-        <v>88</v>
-      </c>
       <c r="I18" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -1931,34 +2072,34 @@
         <v>0.0</v>
       </c>
       <c r="S18" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="C19" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="D19" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="D19" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="F19" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G19" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H19" t="s" s="0">
-        <v>92</v>
-      </c>
       <c r="I19" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -1990,34 +2131,34 @@
         <v>0.0</v>
       </c>
       <c r="S19" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="C20" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="D20" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H20" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="D20" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E20" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="F20" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G20" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H20" t="s" s="0">
-        <v>96</v>
-      </c>
       <c r="I20" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -2049,24 +2190,24 @@
         <v>0.0</v>
       </c>
       <c r="S20" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B21" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="C21" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="C21" t="s" s="0">
-        <v>99</v>
-      </c>
       <c r="D21" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" t="n" s="0">
         <v>0.0</v>
@@ -2113,28 +2254,28 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="C22" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="D22" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F22" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G22" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H22" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="D22" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E22" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="F22" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G22" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H22" t="s" s="0">
-        <v>104</v>
       </c>
       <c r="I22" t="n" s="0">
         <v>0.0</v>
@@ -2172,28 +2313,28 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="D23" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H23" t="s" s="0">
         <v>106</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="D23" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E23" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="F23" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G23" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H23" t="s" s="0">
-        <v>108</v>
       </c>
       <c r="I23" t="n" s="0">
         <v>0.0</v>
@@ -2231,19 +2372,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C24" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="D24" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="C24" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s" s="0">
-        <v>39</v>
-      </c>
       <c r="E24" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" t="n" s="0">
         <v>0.0</v>
@@ -2273,7 +2414,7 @@
         <v>25</v>
       </c>
       <c r="O24" t="s" s="0">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="P24" t="s" s="0">
         <v>25</v>
@@ -2290,19 +2431,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" t="n" s="0">
         <v>0.0</v>
@@ -2314,7 +2455,7 @@
         <v>115</v>
       </c>
       <c r="I25" t="n" s="0">
-        <v>0.0</v>
+        <v>122.0</v>
       </c>
       <c r="J25" t="n" s="0">
         <v>0.0</v>
@@ -2323,10 +2464,10 @@
         <v>0.0</v>
       </c>
       <c r="L25" t="n" s="0">
-        <v>0.0</v>
+        <v>222.0</v>
       </c>
       <c r="M25" t="n" s="0">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
       <c r="N25" t="s" s="0">
         <v>25</v>
@@ -2335,10 +2476,10 @@
         <v>25</v>
       </c>
       <c r="P25" t="s" s="0">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="Q25" t="n" s="0">
-        <v>0.0</v>
+        <v>389.0</v>
       </c>
       <c r="R25" t="n" s="0">
         <v>0.0</v>
@@ -2349,19 +2490,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" t="n" s="0">
         <v>0.0</v>
@@ -2370,7 +2511,7 @@
         <v>0.0</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I26" t="n" s="0">
         <v>0.0</v>
@@ -2408,19 +2549,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" t="n" s="0">
         <v>0.0</v>
@@ -2429,7 +2570,7 @@
         <v>0.0</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I27" t="n" s="0">
         <v>0.0</v>
@@ -2467,19 +2608,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" t="n" s="0">
         <v>0.0</v>
@@ -2488,7 +2629,7 @@
         <v>0.0</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I28" t="n" s="0">
         <v>0.0</v>
@@ -2526,19 +2667,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" t="n" s="0">
         <v>0.0</v>
@@ -2547,7 +2688,7 @@
         <v>0.0</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I29" t="n" s="0">
         <v>0.0</v>
@@ -2585,19 +2726,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" t="n" s="0">
         <v>0.0</v>
@@ -2606,7 +2747,7 @@
         <v>0.0</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I30" t="n" s="0">
         <v>0.0</v>
@@ -2644,19 +2785,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" t="n" s="0">
         <v>0.0</v>
@@ -2665,7 +2806,7 @@
         <v>0.0</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I31" t="n" s="0">
         <v>0.0</v>
@@ -2703,19 +2844,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" t="n" s="0">
         <v>0.0</v>
@@ -2724,7 +2865,7 @@
         <v>0.0</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="I32" t="n" s="0">
         <v>0.0</v>
@@ -2762,19 +2903,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" t="n" s="0">
         <v>0.0</v>
@@ -2783,7 +2924,7 @@
         <v>0.0</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="I33" t="n" s="0">
         <v>0.0</v>
@@ -2821,19 +2962,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F34" t="n" s="0">
         <v>0.0</v>
@@ -2842,7 +2983,7 @@
         <v>0.0</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="I34" t="n" s="0">
         <v>0.0</v>
@@ -2880,28 +3021,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F35" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G35" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H35" t="s" s="0">
         <v>30</v>
-      </c>
-      <c r="F35" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G35" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H35" t="s" s="0">
-        <v>146</v>
       </c>
       <c r="I35" t="n" s="0">
         <v>0.0</v>
@@ -2939,19 +3080,19 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F36" t="n" s="0">
         <v>0.0</v>
@@ -2960,7 +3101,7 @@
         <v>0.0</v>
       </c>
       <c r="H36" t="s" s="0">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="I36" t="n" s="0">
         <v>0.0</v>
@@ -2998,19 +3139,19 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F37" t="n" s="0">
         <v>0.0</v>
@@ -3019,7 +3160,7 @@
         <v>0.0</v>
       </c>
       <c r="H37" t="s" s="0">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="I37" t="n" s="0">
         <v>0.0</v>
@@ -3057,19 +3198,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B38" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="B38" t="s" s="0">
-        <v>155</v>
-      </c>
       <c r="C38" t="s" s="0">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F38" t="n" s="0">
         <v>0.0</v>
@@ -3078,7 +3219,7 @@
         <v>0.0</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I38" t="n" s="0">
         <v>0.0</v>
@@ -3116,19 +3257,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B39" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="B39" t="s" s="0">
-        <v>157</v>
-      </c>
       <c r="C39" t="s" s="0">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F39" t="n" s="0">
         <v>0.0</v>
@@ -3137,7 +3278,7 @@
         <v>0.0</v>
       </c>
       <c r="H39" t="s" s="0">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I39" t="n" s="0">
         <v>0.0</v>
@@ -3175,19 +3316,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B40" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="B40" t="s" s="0">
-        <v>159</v>
-      </c>
       <c r="C40" t="s" s="0">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F40" t="n" s="0">
         <v>0.0</v>
@@ -3196,7 +3337,7 @@
         <v>0.0</v>
       </c>
       <c r="H40" t="s" s="0">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I40" t="n" s="0">
         <v>0.0</v>
@@ -3234,19 +3375,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F41" t="n" s="0">
         <v>0.0</v>
@@ -3255,7 +3396,7 @@
         <v>0.0</v>
       </c>
       <c r="H41" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I41" t="n" s="0">
         <v>0.0</v>
@@ -3293,19 +3434,19 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F42" t="n" s="0">
         <v>0.0</v>
@@ -3314,7 +3455,7 @@
         <v>0.0</v>
       </c>
       <c r="H42" t="s" s="0">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I42" t="n" s="0">
         <v>0.0</v>
@@ -3352,19 +3493,19 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F43" t="n" s="0">
         <v>0.0</v>
@@ -3373,7 +3514,7 @@
         <v>0.0</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I43" t="n" s="0">
         <v>0.0</v>
@@ -3411,19 +3552,19 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F44" t="n" s="0">
         <v>0.0</v>
@@ -3432,7 +3573,7 @@
         <v>0.0</v>
       </c>
       <c r="H44" t="s" s="0">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="I44" t="n" s="0">
         <v>0.0</v>
@@ -3470,19 +3611,19 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C45" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="B45" t="s" s="0">
-        <v>171</v>
-      </c>
-      <c r="C45" t="s" s="0">
-        <v>38</v>
-      </c>
       <c r="D45" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F45" t="n" s="0">
         <v>0.0</v>
@@ -3491,7 +3632,7 @@
         <v>0.0</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I45" t="n" s="0">
         <v>0.0</v>
@@ -3529,28 +3670,28 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F46" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G46" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H46" t="s" s="0">
         <v>172</v>
-      </c>
-      <c r="B46" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="C46" t="s" s="0">
-        <v>160</v>
-      </c>
-      <c r="D46" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E46" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="F46" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G46" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H46" t="s" s="0">
-        <v>92</v>
       </c>
       <c r="I46" t="n" s="0">
         <v>0.0</v>
@@ -3588,19 +3729,19 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B47" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="B47" t="s" s="0">
-        <v>33</v>
-      </c>
       <c r="C47" t="s" s="0">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F47" t="n" s="0">
         <v>0.0</v>
@@ -3609,7 +3750,7 @@
         <v>0.0</v>
       </c>
       <c r="H47" t="s" s="0">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I47" t="n" s="0">
         <v>0.0</v>
@@ -3653,13 +3794,13 @@
         <v>176</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F48" t="n" s="0">
         <v>0.0</v>
@@ -3668,7 +3809,7 @@
         <v>0.0</v>
       </c>
       <c r="H48" t="s" s="0">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I48" t="n" s="0">
         <v>0.0</v>
@@ -3709,16 +3850,16 @@
         <v>177</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F49" t="n" s="0">
         <v>0.0</v>
@@ -3727,7 +3868,7 @@
         <v>0.0</v>
       </c>
       <c r="H49" t="s" s="0">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="I49" t="n" s="0">
         <v>0.0</v>
@@ -3765,19 +3906,19 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E50" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F50" t="n" s="0">
         <v>0.0</v>
@@ -3786,7 +3927,7 @@
         <v>0.0</v>
       </c>
       <c r="H50" t="s" s="0">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="I50" t="n" s="0">
         <v>0.0</v>
@@ -3824,19 +3965,19 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F51" t="n" s="0">
         <v>0.0</v>
@@ -3845,7 +3986,7 @@
         <v>0.0</v>
       </c>
       <c r="H51" t="s" s="0">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="I51" t="n" s="0">
         <v>0.0</v>
@@ -3883,19 +4024,19 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E52" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F52" t="n" s="0">
         <v>0.0</v>
@@ -3904,7 +4045,7 @@
         <v>0.0</v>
       </c>
       <c r="H52" t="s" s="0">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="I52" t="n" s="0">
         <v>0.0</v>
@@ -3942,19 +4083,19 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E53" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F53" t="n" s="0">
         <v>0.0</v>
@@ -3963,7 +4104,7 @@
         <v>0.0</v>
       </c>
       <c r="H53" t="s" s="0">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="I53" t="n" s="0">
         <v>0.0</v>
@@ -4001,19 +4142,19 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E54" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F54" t="n" s="0">
         <v>0.0</v>
@@ -4022,10 +4163,10 @@
         <v>0.0</v>
       </c>
       <c r="H54" t="s" s="0">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I54" t="n" s="0">
-        <v>0.0</v>
+        <v>122.0</v>
       </c>
       <c r="J54" t="n" s="0">
         <v>0.0</v>
@@ -4037,7 +4178,7 @@
         <v>0.0</v>
       </c>
       <c r="M54" t="n" s="0">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
       <c r="N54" t="s" s="0">
         <v>25</v>
@@ -4049,7 +4190,7 @@
         <v>25</v>
       </c>
       <c r="Q54" t="n" s="0">
-        <v>0.0</v>
+        <v>167.0</v>
       </c>
       <c r="R54" t="n" s="0">
         <v>0.0</v>
@@ -4060,19 +4201,19 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E55" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F55" t="n" s="0">
         <v>0.0</v>
@@ -4081,7 +4222,7 @@
         <v>0.0</v>
       </c>
       <c r="H55" t="s" s="0">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="I55" t="n" s="0">
         <v>0.0</v>
@@ -4119,19 +4260,19 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E56" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F56" t="n" s="0">
         <v>0.0</v>
@@ -4140,7 +4281,7 @@
         <v>0.0</v>
       </c>
       <c r="H56" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I56" t="n" s="0">
         <v>0.0</v>
@@ -4178,19 +4319,19 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E57" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F57" t="n" s="0">
         <v>0.0</v>
@@ -4199,7 +4340,7 @@
         <v>0.0</v>
       </c>
       <c r="H57" t="s" s="0">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I57" t="n" s="0">
         <v>0.0</v>
@@ -4237,19 +4378,19 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E58" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F58" t="n" s="0">
         <v>0.0</v>
@@ -4258,7 +4399,7 @@
         <v>0.0</v>
       </c>
       <c r="H58" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I58" t="n" s="0">
         <v>0.0</v>
@@ -4296,19 +4437,19 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E59" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F59" t="n" s="0">
         <v>0.0</v>
@@ -4317,7 +4458,7 @@
         <v>0.0</v>
       </c>
       <c r="H59" t="s" s="0">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I59" t="n" s="0">
         <v>0.0</v>
@@ -4355,19 +4496,19 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E60" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F60" t="n" s="0">
         <v>0.0</v>
@@ -4376,7 +4517,7 @@
         <v>0.0</v>
       </c>
       <c r="H60" t="s" s="0">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I60" t="n" s="0">
         <v>0.0</v>
@@ -4414,19 +4555,19 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E61" t="s" s="0">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F61" t="n" s="0">
         <v>0.0</v>
@@ -4476,16 +4617,16 @@
         <v>204</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E62" t="s" s="0">
-        <v>30</v>
+        <v>205</v>
       </c>
       <c r="F62" t="n" s="0">
         <v>0.0</v>
@@ -4494,7 +4635,7 @@
         <v>0.0</v>
       </c>
       <c r="H62" t="s" s="0">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I62" t="n" s="0">
         <v>0.0</v>
@@ -4532,19 +4673,19 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E63" t="s" s="0">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F63" t="n" s="0">
         <v>0.0</v>
@@ -4553,7 +4694,7 @@
         <v>0.0</v>
       </c>
       <c r="H63" t="s" s="0">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I63" t="n" s="0">
         <v>0.0</v>
@@ -4591,19 +4732,19 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E64" t="s" s="0">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F64" t="n" s="0">
         <v>0.0</v>
@@ -4653,16 +4794,16 @@
         <v>211</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E65" t="s" s="0">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F65" t="n" s="0">
         <v>0.0</v>
@@ -4712,16 +4853,16 @@
         <v>213</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E66" t="s" s="0">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F66" t="n" s="0">
         <v>0.0</v>
@@ -4771,16 +4912,16 @@
         <v>215</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E67" t="s" s="0">
-        <v>30</v>
+        <v>205</v>
       </c>
       <c r="F67" t="n" s="0">
         <v>0.0</v>
@@ -4830,16 +4971,16 @@
         <v>217</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E68" t="s" s="0">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F68" t="n" s="0">
         <v>0.0</v>
@@ -4889,13 +5030,13 @@
         <v>219</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E69" t="s" s="0">
         <v>23</v>
@@ -4948,16 +5089,16 @@
         <v>221</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E70" t="s" s="0">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F70" t="n" s="0">
         <v>0.0</v>
@@ -5007,16 +5148,16 @@
         <v>223</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E71" t="s" s="0">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="F71" t="n" s="0">
         <v>0.0</v>
@@ -5066,16 +5207,16 @@
         <v>225</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E72" t="s" s="0">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F72" t="n" s="0">
         <v>0.0</v>
@@ -5125,16 +5266,16 @@
         <v>227</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E73" t="s" s="0">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="F73" t="n" s="0">
         <v>0.0</v>
@@ -5184,13 +5325,13 @@
         <v>229</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E74" t="s" s="0">
         <v>23</v>
@@ -5243,16 +5384,16 @@
         <v>231</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E75" t="s" s="0">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F75" t="n" s="0">
         <v>0.0</v>
@@ -5302,16 +5443,16 @@
         <v>233</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E76" t="s" s="0">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F76" t="n" s="0">
         <v>0.0</v>
@@ -5361,16 +5502,16 @@
         <v>235</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E77" t="s" s="0">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F77" t="n" s="0">
         <v>0.0</v>
@@ -5420,16 +5561,16 @@
         <v>237</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E78" t="s" s="0">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="F78" t="n" s="0">
         <v>0.0</v>
@@ -5479,16 +5620,16 @@
         <v>239</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E79" t="s" s="0">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F79" t="n" s="0">
         <v>0.0</v>
@@ -5538,13 +5679,13 @@
         <v>241</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>162</v>
+        <v>242</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E80" t="s" s="0">
         <v>23</v>
@@ -5556,7 +5697,7 @@
         <v>0.0</v>
       </c>
       <c r="H80" t="s" s="0">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I80" t="n" s="0">
         <v>0.0</v>
@@ -5594,19 +5735,19 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E81" t="s" s="0">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F81" t="n" s="0">
         <v>0.0</v>
@@ -5615,7 +5756,7 @@
         <v>0.0</v>
       </c>
       <c r="H81" t="s" s="0">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I81" t="n" s="0">
         <v>0.0</v>
@@ -5653,19 +5794,19 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E82" t="s" s="0">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F82" t="n" s="0">
         <v>0.0</v>
@@ -5674,7 +5815,7 @@
         <v>0.0</v>
       </c>
       <c r="H82" t="s" s="0">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I82" t="n" s="0">
         <v>0.0</v>
@@ -5712,19 +5853,19 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E83" t="s" s="0">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="F83" t="n" s="0">
         <v>0.0</v>
@@ -5733,7 +5874,7 @@
         <v>0.0</v>
       </c>
       <c r="H83" t="s" s="0">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I83" t="n" s="0">
         <v>0.0</v>
@@ -5771,19 +5912,19 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E84" t="s" s="0">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F84" t="n" s="0">
         <v>0.0</v>
@@ -5792,7 +5933,7 @@
         <v>0.0</v>
       </c>
       <c r="H84" t="s" s="0">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I84" t="n" s="0">
         <v>0.0</v>
@@ -5830,16 +5971,16 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E85" t="s" s="0">
         <v>23</v>
@@ -5851,7 +5992,7 @@
         <v>0.0</v>
       </c>
       <c r="H85" t="s" s="0">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I85" t="n" s="0">
         <v>0.0</v>
@@ -5889,19 +6030,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E86" t="s" s="0">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F86" t="n" s="0">
         <v>0.0</v>
@@ -5910,16 +6051,16 @@
         <v>0.0</v>
       </c>
       <c r="H86" t="s" s="0">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I86" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="J86" t="n" s="0">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="K86" t="n" s="0">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="L86" t="n" s="0">
         <v>0.0</v>
@@ -5937,10 +6078,10 @@
         <v>25</v>
       </c>
       <c r="Q86" t="n" s="0">
-        <v>0.0</v>
+        <v>180.0</v>
       </c>
       <c r="R86" t="n" s="0">
-        <v>0.0</v>
+        <v>180.0</v>
       </c>
       <c r="S86" t="b" s="0">
         <v>1</v>
@@ -5948,25 +6089,25 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E87" t="s" s="0">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="F87" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="G87" t="n" s="0">
-        <v>0.0</v>
+        <v>111.0</v>
       </c>
       <c r="H87" t="s" s="0">
         <v>257</v>
@@ -6010,16 +6151,16 @@
         <v>258</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E88" t="s" s="0">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F88" t="n" s="0">
         <v>0.0</v>
@@ -6028,7 +6169,7 @@
         <v>0.0</v>
       </c>
       <c r="H88" t="s" s="0">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I88" t="n" s="0">
         <v>0.0</v>
@@ -6066,28 +6207,28 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E89" t="s" s="0">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F89" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="G89" t="n" s="0">
-        <v>0.0</v>
+        <v>111.0</v>
       </c>
       <c r="H89" t="s" s="0">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I89" t="n" s="0">
         <v>0.0</v>
@@ -6125,28 +6266,28 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E90" t="s" s="0">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F90" t="n" s="0">
-        <v>0.0</v>
+        <v>111.0</v>
       </c>
       <c r="G90" t="n" s="0">
-        <v>0.0</v>
+        <v>111.0</v>
       </c>
       <c r="H90" t="s" s="0">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I90" t="n" s="0">
         <v>0.0</v>
@@ -6184,28 +6325,28 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E91" t="s" s="0">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="F91" t="n" s="0">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="G91" t="n" s="0">
-        <v>0.0</v>
+        <v>12121.0</v>
       </c>
       <c r="H91" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I91" t="n" s="0">
         <v>0.0</v>
@@ -6243,25 +6384,25 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>162</v>
+        <v>269</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>34</v>
+        <v>270</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E92" t="s" s="0">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F92" t="n" s="0">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="G92" t="n" s="0">
-        <v>0.0</v>
+        <v>12321.0</v>
       </c>
       <c r="H92" t="s" s="0">
         <v>267</v>
@@ -6302,37 +6443,37 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>179</v>
+        <v>272</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E93" t="s" s="0">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F93" t="n" s="0">
-        <v>0.0</v>
+        <v>123.0</v>
       </c>
       <c r="G93" t="n" s="0">
-        <v>0.0</v>
+        <v>12212.0</v>
       </c>
       <c r="H93" t="s" s="0">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I93" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="J93" t="n" s="0">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="K93" t="n" s="0">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="L93" t="n" s="0">
         <v>0.0</v>
@@ -6350,12 +6491,1015 @@
         <v>25</v>
       </c>
       <c r="Q93" t="n" s="0">
-        <v>180.0</v>
+        <v>0.0</v>
       </c>
       <c r="R93" t="n" s="0">
-        <v>180.0</v>
+        <v>0.0</v>
       </c>
       <c r="S93" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E94" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F94" t="n" s="0">
+        <v>1212.0</v>
+      </c>
+      <c r="G94" t="n" s="0">
+        <v>12122.0</v>
+      </c>
+      <c r="H94" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="I94" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J94" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K94" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L94" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M94" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N94" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O94" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P94" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q94" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R94" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S94" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E95" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F95" t="n" s="0">
+        <v>2132.0</v>
+      </c>
+      <c r="G95" t="n" s="0">
+        <v>1212.0</v>
+      </c>
+      <c r="H95" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="I95" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J95" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K95" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L95" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M95" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N95" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O95" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P95" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q95" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R95" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S95" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E96" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F96" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G96" t="n" s="0">
+        <v>1212.0</v>
+      </c>
+      <c r="H96" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="I96" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J96" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K96" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L96" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M96" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N96" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O96" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P96" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q96" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R96" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S96" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E97" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F97" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G97" t="n" s="0">
+        <v>1212.0</v>
+      </c>
+      <c r="H97" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="I97" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J97" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K97" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L97" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M97" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N97" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O97" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P97" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q97" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R97" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S97" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E98" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F98" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G98" t="n" s="0">
+        <v>1212.0</v>
+      </c>
+      <c r="H98" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="I98" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J98" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K98" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L98" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M98" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N98" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O98" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P98" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q98" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R98" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S98" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E99" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F99" t="n" s="0">
+        <v>222.0</v>
+      </c>
+      <c r="G99" t="n" s="0">
+        <v>1212.0</v>
+      </c>
+      <c r="H99" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="I99" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J99" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K99" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L99" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M99" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N99" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O99" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P99" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q99" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R99" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S99" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F100" t="n" s="0">
+        <v>322.0</v>
+      </c>
+      <c r="G100" t="n" s="0">
+        <v>2232.0</v>
+      </c>
+      <c r="H100" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="I100" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J100" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K100" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L100" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M100" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N100" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O100" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P100" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q100" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R100" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S100" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E101" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F101" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G101" t="n" s="0">
+        <v>1212.0</v>
+      </c>
+      <c r="H101" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="I101" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J101" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K101" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L101" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M101" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N101" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O101" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P101" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q101" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R101" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S101" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E102" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F102" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G102" t="n" s="0">
+        <v>1212.0</v>
+      </c>
+      <c r="H102" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="I102" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J102" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K102" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L102" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M102" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N102" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O102" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P102" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q102" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R102" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S102" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E103" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F103" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G103" t="n" s="0">
+        <v>1212.0</v>
+      </c>
+      <c r="H103" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="I103" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J103" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K103" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L103" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M103" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N103" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O103" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P103" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q103" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R103" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S103" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E104" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F104" t="n" s="0">
+        <v>212.0</v>
+      </c>
+      <c r="G104" t="n" s="0">
+        <v>2122.0</v>
+      </c>
+      <c r="H104" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="I104" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J104" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K104" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L104" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M104" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N104" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O104" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P104" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q104" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R104" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S104" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E105" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F105" t="n" s="0">
+        <v>3331.0</v>
+      </c>
+      <c r="G105" t="n" s="0">
+        <v>3332.0</v>
+      </c>
+      <c r="H105" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="I105" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J105" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K105" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L105" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M105" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N105" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O105" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P105" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q105" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R105" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S105" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E106" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F106" t="n" s="0">
+        <v>121.0</v>
+      </c>
+      <c r="G106" t="n" s="0">
+        <v>1212.0</v>
+      </c>
+      <c r="H106" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="I106" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J106" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K106" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L106" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M106" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N106" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O106" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P106" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q106" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R106" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S106" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E107" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F107" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="G107" t="n" s="0">
+        <v>2222.0</v>
+      </c>
+      <c r="H107" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="I107" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J107" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K107" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L107" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M107" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N107" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O107" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P107" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q107" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R107" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S107" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E108" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F108" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G108" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H108" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="I108" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J108" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K108" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L108" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M108" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N108" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O108" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P108" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q108" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R108" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S108" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E109" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F109" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G109" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H109" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="I109" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J109" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K109" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L109" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M109" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N109" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O109" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P109" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q109" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R109" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S109" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E110" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F110" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G110" t="n" s="0">
+        <v>10000.0</v>
+      </c>
+      <c r="H110" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="I110" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J110" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K110" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L110" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M110" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N110" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O110" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P110" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q110" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R110" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S110" t="b" s="0">
         <v>1</v>
       </c>
     </row>
